--- a/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/flight_T2_data.xlsx
+++ b/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/flight_T2_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/SBB-dispersal/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AF0324-AE77-2F44-AF07-251B99A23D28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00A5BDE-76F6-9645-B176-583ED5ABF3C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,11 @@
     <sheet name="flight_T2_datasheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -178,13 +177,23 @@
   <si>
     <t>loose wire - flew continously but not always rec'd</t>
   </si>
+  <si>
+    <t>no paint</t>
+  </si>
+  <si>
+    <t>8.31.21</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="00#"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -742,7 +751,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -753,13 +762,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1115,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q298"/>
+  <dimension ref="A1:Q299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="132" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="132" workbookViewId="0">
+      <selection activeCell="Q79" sqref="Q79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1126,7 +1138,7 @@
     <col min="1" max="1" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -1152,7 +1164,7 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1200,16 +1212,16 @@
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="16">
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="10">
         <v>0.40347222222222223</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="10">
         <v>0.43124999999999997</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1244,16 +1256,16 @@
       <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="16">
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="10">
         <v>0.40416666666666662</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <v>0.43124999999999997</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1288,16 +1300,16 @@
       <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="16">
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>0.40416666666666662</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <v>0.33333333333333331</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -1334,16 +1346,16 @@
       <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="16">
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>0.40486111111111112</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>0.33333333333333331</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -1364,7 +1376,7 @@
       <c r="M5" s="2">
         <v>302</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="11">
         <v>0.06</v>
       </c>
       <c r="O5" s="2" t="s">
@@ -1380,16 +1392,16 @@
       <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="16">
         <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <v>0.4055555555555555</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <v>0.43194444444444446</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -1410,7 +1422,7 @@
       <c r="M6" s="2">
         <v>107</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="11">
         <v>0.04</v>
       </c>
       <c r="O6" s="2" t="s">
@@ -1426,16 +1438,16 @@
       <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="16">
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <v>0.40625</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <v>0.4465277777777778</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -1472,16 +1484,16 @@
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="16">
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <v>0.40625</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <v>0.43194444444444446</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -1516,7 +1528,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1546,16 +1558,16 @@
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="16">
         <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <v>0.4069444444444445</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <v>0.5854166666666667</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -1590,7 +1602,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1624,16 +1636,16 @@
       <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="17">
         <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="10">
         <v>0.41944444444444445</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <v>0.44722222222222219</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -1670,16 +1682,16 @@
       <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="18">
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="10">
         <v>0.4201388888888889</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="10">
         <v>0.44722222222222219</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -1712,16 +1724,16 @@
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="18">
         <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <v>0.4201388888888889</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <v>0.44791666666666669</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -1758,16 +1770,16 @@
       <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="18">
         <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="10">
         <v>0.42083333333333334</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="10">
         <v>0.44791666666666669</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -1802,16 +1814,16 @@
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="18">
         <v>8</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="10">
         <v>0.42152777777777778</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <v>0.44791666666666669</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -1846,16 +1858,16 @@
       <c r="C17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="18">
         <v>8</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="10">
         <v>0.42291666666666666</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="10">
         <v>0.45208333333333334</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -1892,16 +1904,16 @@
       <c r="C18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="18">
         <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="10">
         <v>0.42430555555555555</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="10">
         <v>0.44861111111111113</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -1936,16 +1948,16 @@
       <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="16">
         <v>8</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="10">
         <v>0.42430555555555555</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="10">
         <v>0.44861111111111113</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -1982,16 +1994,16 @@
       <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="16">
         <v>8</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="10">
         <v>0.43541666666666662</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="10">
         <v>0.46111111111111108</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -2026,7 +2038,7 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2044,7 +2056,7 @@
       <c r="M21" s="2">
         <v>109</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="11">
         <v>0.05</v>
       </c>
       <c r="O21" s="2"/>
@@ -2060,16 +2072,16 @@
       <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="17">
         <v>8</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="10">
         <v>0.4368055555555555</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="10">
         <v>0.46111111111111108</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -2100,16 +2112,16 @@
       <c r="C23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="18">
         <v>8</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="10">
         <v>0.4375</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="10">
         <v>0.46111111111111108</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -2130,7 +2142,7 @@
       <c r="M23" s="2">
         <v>359</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N23" s="12">
         <v>0.09</v>
       </c>
       <c r="O23" s="2" t="s">
@@ -2146,16 +2158,16 @@
       <c r="C24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="18">
         <v>8</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="10">
         <v>0.4381944444444445</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="10">
         <v>0.46180555555555558</v>
       </c>
       <c r="H24" s="2" t="s">
@@ -2192,16 +2204,16 @@
       <c r="C25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="18">
         <v>8</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="10">
         <v>0.44930555555555557</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="10">
         <v>0.4770833333333333</v>
       </c>
       <c r="H25" s="2" t="s">
@@ -2236,16 +2248,16 @@
       <c r="C26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="18">
         <v>8</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="10">
         <v>0.45</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="10">
         <v>0.52916666666666667</v>
       </c>
       <c r="H26" s="2" t="s">
@@ -2282,16 +2294,16 @@
       <c r="C27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="18">
         <v>8</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="10">
         <v>0.45069444444444445</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="10">
         <v>0.4770833333333333</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -2326,16 +2338,16 @@
       <c r="C28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="18">
         <v>8</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="10">
         <v>0.4513888888888889</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="10">
         <v>0.4777777777777778</v>
       </c>
       <c r="H28" s="2" t="s">
@@ -2370,16 +2382,16 @@
       <c r="C29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="18">
         <v>8</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="10">
         <v>0.45208333333333334</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="10">
         <v>0.4777777777777778</v>
       </c>
       <c r="H29" s="2" t="s">
@@ -2414,16 +2426,16 @@
       <c r="C30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="18">
         <v>8</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="10">
         <v>0.45277777777777778</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="10">
         <v>0.4777777777777778</v>
       </c>
       <c r="H30" s="2" t="s">
@@ -2460,16 +2472,16 @@
       <c r="C31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="18">
         <v>8</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="10">
         <v>0.45347222222222222</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="10">
         <v>0.47847222222222219</v>
       </c>
       <c r="H31" s="2" t="s">
@@ -2506,16 +2518,16 @@
       <c r="C32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="18">
         <v>8</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="10">
         <v>0.45416666666666666</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="10">
         <v>0.47847222222222219</v>
       </c>
       <c r="H32" s="2" t="s">
@@ -2548,7 +2560,7 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -2566,7 +2578,7 @@
       <c r="M33" s="2">
         <v>307</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N33" s="12">
         <v>0.39</v>
       </c>
       <c r="O33" s="2" t="s">
@@ -2586,7 +2598,7 @@
       <c r="C34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -2634,16 +2646,16 @@
       <c r="C35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="16">
         <v>8</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="10">
         <v>0.46249999999999997</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="10">
         <v>0.57291666666666663</v>
       </c>
       <c r="H35" s="2" t="s">
@@ -2682,16 +2694,16 @@
       <c r="C36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="17">
         <v>8</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="10">
         <v>0.46458333333333335</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="10">
         <v>0.48888888888888887</v>
       </c>
       <c r="H36" s="2" t="s">
@@ -2726,16 +2738,16 @@
       <c r="C37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="18">
         <v>8</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="10">
         <v>0.46458333333333335</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="10">
         <v>0.48888888888888887</v>
       </c>
       <c r="H37" s="2" t="s">
@@ -2772,16 +2784,16 @@
       <c r="C38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="18">
         <v>8</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="10">
         <v>0.46527777777777773</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="10">
         <v>0.48888888888888887</v>
       </c>
       <c r="H38" s="2" t="s">
@@ -2800,7 +2812,7 @@
       <c r="M38" s="2">
         <v>280</v>
       </c>
-      <c r="N38" s="14">
+      <c r="N38" s="12">
         <v>0.03</v>
       </c>
       <c r="O38" s="2" t="s">
@@ -2816,16 +2828,16 @@
       <c r="C39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="18">
         <v>8</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="10">
         <v>0.46597222222222223</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="10">
         <v>0.48888888888888887</v>
       </c>
       <c r="H39" s="2" t="s">
@@ -2860,16 +2872,16 @@
       <c r="C40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="18">
         <v>8</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="10">
         <v>0.47916666666666669</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="10">
         <v>0.50555555555555554</v>
       </c>
       <c r="H40" s="2" t="s">
@@ -2888,7 +2900,7 @@
       <c r="M40" s="2">
         <v>128</v>
       </c>
-      <c r="N40" s="13">
+      <c r="N40" s="11">
         <v>0.03</v>
       </c>
       <c r="O40" s="2" t="s">
@@ -2904,16 +2916,16 @@
       <c r="C41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="18">
         <v>8</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="10">
         <v>0.47986111111111113</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="10">
         <v>0.50624999999999998</v>
       </c>
       <c r="H41" s="2" t="s">
@@ -2948,16 +2960,16 @@
       <c r="C42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="18">
         <v>8</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="10">
         <v>0.48055555555555557</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="10">
         <v>0.50624999999999998</v>
       </c>
       <c r="H42" s="2" t="s">
@@ -2992,16 +3004,16 @@
       <c r="C43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="18">
         <v>8</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="10">
         <v>0.48125000000000001</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="10">
         <v>0.50624999999999998</v>
       </c>
       <c r="H43" s="2" t="s">
@@ -3036,16 +3048,16 @@
       <c r="C44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="18">
         <v>8</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="10">
         <v>0.48194444444444445</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="10">
         <v>0.50694444444444442</v>
       </c>
       <c r="H44" s="2" t="s">
@@ -3064,7 +3076,7 @@
       <c r="M44" s="2">
         <v>171</v>
       </c>
-      <c r="N44" s="14">
+      <c r="N44" s="12">
         <v>0.06</v>
       </c>
       <c r="O44" s="2" t="s">
@@ -3080,16 +3092,16 @@
       <c r="C45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="18">
         <v>8</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="10">
         <v>0.4826388888888889</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="10">
         <v>0.50694444444444442</v>
       </c>
       <c r="H45" s="2" t="s">
@@ -3126,16 +3138,16 @@
       <c r="C46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="18">
         <v>8</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="10">
         <v>0.48333333333333334</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="10">
         <v>0.50694444444444442</v>
       </c>
       <c r="H46" s="2" t="s">
@@ -3172,16 +3184,16 @@
       <c r="C47" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="16">
         <v>8</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="10">
         <v>0.4909722222222222</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="10">
         <v>0.51874999999999993</v>
       </c>
       <c r="H47" s="2" t="s">
@@ -3218,16 +3230,16 @@
       <c r="C48" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="16">
         <v>8</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="10">
         <v>0.49236111111111108</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="10">
         <v>0.51944444444444449</v>
       </c>
       <c r="H48" s="2" t="s">
@@ -3260,7 +3272,7 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+      <c r="D49" s="16"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -3290,16 +3302,16 @@
       <c r="C50" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="16">
         <v>8</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="10">
         <v>0.49374999999999997</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="10">
         <v>0.51944444444444449</v>
       </c>
       <c r="H50" s="2" t="s">
@@ -3336,16 +3348,16 @@
       <c r="C51" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="16">
         <v>8</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="10">
         <v>0.49444444444444446</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="10">
         <v>0.51944444444444449</v>
       </c>
       <c r="H51" s="2" t="s">
@@ -3382,16 +3394,16 @@
       <c r="C52" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="16">
         <v>8</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="10">
         <v>0.50763888888888886</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G52" s="10">
         <v>0.53402777777777777</v>
       </c>
       <c r="H52" s="2" t="s">
@@ -3428,7 +3440,7 @@
         <v>47</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="D53" s="16"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -3458,7 +3470,7 @@
         <v>26</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="D54" s="16"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -3488,11 +3500,13 @@
       <c r="C55" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="2"/>
+      <c r="D55" s="16">
+        <v>8</v>
+      </c>
       <c r="E55" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F55" s="16">
+      <c r="F55" s="13">
         <v>0.5083333333333333</v>
       </c>
       <c r="G55" s="2"/>
@@ -3528,14 +3542,16 @@
       <c r="C56" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D56" s="2"/>
+      <c r="D56" s="16">
+        <v>8</v>
+      </c>
       <c r="E56" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56" s="10">
         <v>0.50902777777777775</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G56" s="10">
         <v>0.53402777777777777</v>
       </c>
       <c r="H56" s="2" t="s">
@@ -3554,7 +3570,7 @@
       <c r="M56" s="2">
         <v>385</v>
       </c>
-      <c r="N56" s="13">
+      <c r="N56" s="11">
         <v>0.05</v>
       </c>
       <c r="O56" s="2" t="s">
@@ -3570,7 +3586,7 @@
         <v>26</v>
       </c>
       <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="D57" s="16"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -3600,12 +3616,16 @@
       <c r="C58" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D58" s="2"/>
+      <c r="D58" s="16">
+        <v>8</v>
+      </c>
       <c r="E58" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="12">
+      <c r="F58" s="10">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="G58" s="10">
         <v>0.53402777777777777</v>
       </c>
       <c r="H58" s="2" t="s">
@@ -3642,12 +3662,16 @@
       <c r="C59" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D59" s="2"/>
+      <c r="D59" s="16">
+        <v>8</v>
+      </c>
       <c r="E59" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F59" s="2"/>
-      <c r="G59" s="12">
+      <c r="F59" s="10">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G59" s="10">
         <v>0.67291666666666661</v>
       </c>
       <c r="H59" s="2" t="s">
@@ -3684,12 +3708,16 @@
       <c r="C60" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D60" s="2"/>
+      <c r="D60" s="16">
+        <v>8</v>
+      </c>
       <c r="E60" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="12"/>
+      <c r="F60" s="10">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G60" s="10"/>
       <c r="H60" s="2" t="s">
         <v>16</v>
       </c>
@@ -3724,12 +3752,16 @@
       <c r="C61" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D61" s="2"/>
+      <c r="D61" s="16">
+        <v>8</v>
+      </c>
       <c r="E61" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F61" s="2"/>
-      <c r="G61" s="12">
+      <c r="F61" s="10">
+        <v>0.51111111111111118</v>
+      </c>
+      <c r="G61" s="10">
         <v>0.57361111111111118</v>
       </c>
       <c r="H61" s="2" t="s">
@@ -3750,7 +3782,7 @@
       <c r="M61" s="2">
         <v>142</v>
       </c>
-      <c r="N61" s="13">
+      <c r="N61" s="11">
         <v>0.04</v>
       </c>
       <c r="O61" s="2" t="s">
@@ -3766,12 +3798,16 @@
       <c r="C62" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D62" s="2"/>
+      <c r="D62" s="16">
+        <v>8</v>
+      </c>
       <c r="E62" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="12">
+      <c r="F62" s="10">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="G62" s="10">
         <v>0.59930555555555554</v>
       </c>
       <c r="H62" s="2" t="s">
@@ -3806,12 +3842,16 @@
       <c r="C63" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D63" s="2"/>
+      <c r="D63" s="16">
+        <v>8</v>
+      </c>
       <c r="E63" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="12">
+      <c r="F63" s="10">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="G63" s="10">
         <v>0.59930555555555554</v>
       </c>
       <c r="H63" s="2" t="s">
@@ -3846,10 +3886,12 @@
         <v>26</v>
       </c>
       <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+      <c r="D64" s="16"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="12"/>
+      <c r="F64" s="10">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="G64" s="10"/>
       <c r="H64" s="2" t="s">
         <v>16</v>
       </c>
@@ -3878,12 +3920,16 @@
       <c r="C65" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D65" s="2"/>
+      <c r="D65" s="16">
+        <v>8</v>
+      </c>
       <c r="E65" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F65" s="2"/>
-      <c r="G65" s="12">
+      <c r="F65" s="10">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="G65" s="10">
         <v>0.59930555555555554</v>
       </c>
       <c r="H65" s="2" t="s">
@@ -3918,7 +3964,7 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
+      <c r="D66" s="16"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -3952,7 +3998,7 @@
       <c r="C67" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E67" s="3" t="s">
@@ -3997,11 +4043,21 @@
         <v>349</v>
       </c>
       <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="16">
+        <v>8</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" s="10">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="G68" s="10">
+        <v>0.6</v>
+      </c>
       <c r="H68" s="2" t="s">
         <v>16</v>
       </c>
@@ -4011,13 +4067,21 @@
       <c r="J68" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
+      <c r="K68" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M68" s="2">
         <v>349</v>
       </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+      <c r="N68" s="2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="P68" s="6"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
@@ -4028,7 +4092,7 @@
         <v>26</v>
       </c>
       <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+      <c r="D69" s="16"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -4055,11 +4119,21 @@
         <v>377</v>
       </c>
       <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" s="16">
+        <v>8</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F70" s="10">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="G70" s="10">
+        <v>0.6</v>
+      </c>
       <c r="H70" s="2" t="s">
         <v>16</v>
       </c>
@@ -4069,13 +4143,19 @@
       <c r="J70" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K70" s="2"/>
+      <c r="K70" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L70" s="2"/>
       <c r="M70" s="2">
         <v>377</v>
       </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+      <c r="N70" s="2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P70" s="6"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
@@ -4083,11 +4163,21 @@
         <v>343</v>
       </c>
       <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="17">
+        <v>8</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F71" s="10">
+        <v>0.57847222222222217</v>
+      </c>
+      <c r="G71" s="10">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="H71" s="2" t="s">
         <v>16</v>
       </c>
@@ -4097,13 +4187,21 @@
       <c r="J71" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
+      <c r="K71" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M71" s="2">
         <v>343</v>
       </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+      <c r="N71" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P71" s="6"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
@@ -4111,11 +4209,21 @@
         <v>204</v>
       </c>
       <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
+      <c r="C72" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" s="17">
+        <v>8</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F72" s="10">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="G72" s="10">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="H72" s="2" t="s">
         <v>16</v>
       </c>
@@ -4125,13 +4233,21 @@
       <c r="J72" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
+      <c r="K72" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M72" s="2">
         <v>204</v>
       </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+      <c r="N72" s="2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P72" s="6"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
@@ -4139,11 +4255,21 @@
         <v>360</v>
       </c>
       <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
+      <c r="C73" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" s="17">
+        <v>8</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F73" s="10">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="G73" s="10">
+        <v>0.60486111111111118</v>
+      </c>
       <c r="H73" s="2" t="s">
         <v>16</v>
       </c>
@@ -4153,13 +4279,19 @@
       <c r="J73" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K73" s="2"/>
+      <c r="K73" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L73" s="2"/>
       <c r="M73" s="2">
         <v>360</v>
       </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+      <c r="N73" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P73" s="6"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
@@ -4167,11 +4299,21 @@
         <v>207</v>
       </c>
       <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
+      <c r="C74" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" s="17">
+        <v>8</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F74" s="10">
+        <v>0.5805555555555556</v>
+      </c>
+      <c r="G74" s="10">
+        <v>0.60486111111111118</v>
+      </c>
       <c r="H74" s="2" t="s">
         <v>16</v>
       </c>
@@ -4181,13 +4323,21 @@
       <c r="J74" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
+      <c r="K74" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M74" s="2">
         <v>207</v>
       </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
+      <c r="N74" s="2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P74" s="6"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
@@ -4195,11 +4345,21 @@
         <v>126</v>
       </c>
       <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
+      <c r="C75" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75" s="17">
+        <v>8</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F75" s="10">
+        <v>0.5805555555555556</v>
+      </c>
+      <c r="G75" s="10">
+        <v>0.60486111111111118</v>
+      </c>
       <c r="H75" s="2" t="s">
         <v>16</v>
       </c>
@@ -4209,13 +4369,21 @@
       <c r="J75" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
+      <c r="K75" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M75" s="2">
         <v>126</v>
       </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+      <c r="N75" s="2">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P75" s="6"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
@@ -4223,11 +4391,21 @@
         <v>153</v>
       </c>
       <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
+      <c r="C76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="16">
+        <v>9</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" s="10">
+        <v>0.37291666666666662</v>
+      </c>
+      <c r="G76" s="10">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="H76" s="2" t="s">
         <v>16</v>
       </c>
@@ -4237,13 +4415,19 @@
       <c r="J76" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K76" s="2"/>
+      <c r="K76" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L76" s="2"/>
       <c r="M76" s="2">
         <v>153</v>
       </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+      <c r="N76" s="2">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="P76" s="6"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
@@ -4251,11 +4435,21 @@
         <v>196</v>
       </c>
       <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" s="16">
+        <v>9</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F77" s="10">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="G77" s="10">
+        <v>0.40138888888888885</v>
+      </c>
       <c r="H77" s="2" t="s">
         <v>16</v>
       </c>
@@ -4265,13 +4459,21 @@
       <c r="J77" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
+      <c r="K77" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="M77" s="2">
         <v>196</v>
       </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+      <c r="N77" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P77" s="6"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
@@ -4279,11 +4481,21 @@
         <v>246</v>
       </c>
       <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
+      <c r="C78" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="16">
+        <v>9</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F78" s="10">
+        <v>0.3743055555555555</v>
+      </c>
+      <c r="G78" s="10">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="H78" s="2" t="s">
         <v>16</v>
       </c>
@@ -4293,13 +4505,21 @@
       <c r="J78" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
+      <c r="K78" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M78" s="2">
         <v>246</v>
       </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+      <c r="N78" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P78" s="6"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
@@ -4307,11 +4527,21 @@
         <v>396</v>
       </c>
       <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
+      <c r="C79" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" s="16">
+        <v>9</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F79" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="G79" s="10">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="H79" s="2" t="s">
         <v>16</v>
       </c>
@@ -4321,13 +4551,21 @@
       <c r="J79" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
+      <c r="K79" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M79" s="2">
         <v>396</v>
       </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+      <c r="N79" s="2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P79" s="6"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
@@ -4335,11 +4573,21 @@
         <v>136</v>
       </c>
       <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
+      <c r="C80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D80" s="16">
+        <v>9</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F80" s="10">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="G80" s="10">
+        <v>0.39652777777777781</v>
+      </c>
       <c r="H80" s="2" t="s">
         <v>16</v>
       </c>
@@ -4349,13 +4597,19 @@
       <c r="J80" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K80" s="2"/>
+      <c r="K80" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L80" s="2"/>
       <c r="M80" s="2">
         <v>136</v>
       </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+      <c r="N80" s="2">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P80" s="6"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
@@ -4363,11 +4617,21 @@
         <v>305</v>
       </c>
       <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
+      <c r="C81" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="16">
+        <v>9</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F81" s="10">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="G81" s="10">
+        <v>0.39652777777777781</v>
+      </c>
       <c r="H81" s="2" t="s">
         <v>16</v>
       </c>
@@ -4377,13 +4641,21 @@
       <c r="J81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
+      <c r="K81" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="M81" s="2">
         <v>305</v>
       </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+      <c r="N81" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P81" s="6"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
@@ -4391,11 +4663,21 @@
         <v>313</v>
       </c>
       <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
+      <c r="C82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" s="16">
+        <v>9</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F82" s="10">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="G82" s="10">
+        <v>0.39652777777777781</v>
+      </c>
       <c r="H82" s="2" t="s">
         <v>16</v>
       </c>
@@ -4405,13 +4687,18 @@
       <c r="J82" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
+      <c r="K82" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="M82" s="2">
         <v>313</v>
       </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
+      <c r="N82" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P82" s="6"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
@@ -4419,11 +4706,21 @@
         <v>285</v>
       </c>
       <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
+      <c r="C83" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" s="16">
+        <v>9</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F83" s="10">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="G83" s="10">
+        <v>0.39652777777777781</v>
+      </c>
       <c r="H83" s="2" t="s">
         <v>16</v>
       </c>
@@ -4433,13 +4730,19 @@
       <c r="J83" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K83" s="2"/>
+      <c r="K83" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L83" s="2"/>
       <c r="M83" s="2">
         <v>285</v>
       </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+      <c r="N83" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P83" s="6"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
@@ -4447,11 +4750,21 @@
         <v>308</v>
       </c>
       <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
+      <c r="C84" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="16">
+        <v>9</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F84" s="10">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="G84" s="10">
+        <v>0.40416666666666662</v>
+      </c>
       <c r="H84" s="2" t="s">
         <v>16</v>
       </c>
@@ -4461,13 +4774,19 @@
       <c r="J84" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K84" s="2"/>
+      <c r="K84" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L84" s="2"/>
       <c r="M84" s="2">
         <v>308</v>
       </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
+      <c r="N84" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P84" s="6"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
@@ -4475,11 +4794,21 @@
         <v>338</v>
       </c>
       <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
+      <c r="C85" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D85" s="16">
+        <v>9</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F85" s="10">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="G85" s="10">
+        <v>0.41736111111111113</v>
+      </c>
       <c r="H85" s="2" t="s">
         <v>16</v>
       </c>
@@ -4489,13 +4818,21 @@
       <c r="J85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
+      <c r="K85" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="M85" s="2">
         <v>338</v>
       </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+      <c r="N85" s="2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P85" s="6"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
@@ -4504,7 +4841,7 @@
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
+      <c r="D86" s="16"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -4524,18 +4861,30 @@
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
-      <c r="P86" s="6"/>
+      <c r="P86" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>229</v>
       </c>
       <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
+      <c r="C87" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D87" s="16">
+        <v>9</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F87" s="10">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="G87" s="10">
+        <v>0.40416666666666662</v>
+      </c>
       <c r="H87" s="2" t="s">
         <v>16</v>
       </c>
@@ -4545,13 +4894,19 @@
       <c r="J87" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K87" s="2"/>
+      <c r="K87" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L87" s="2"/>
       <c r="M87" s="2">
         <v>229</v>
       </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
+      <c r="N87" s="2">
+        <v>0.126</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="P87" s="6"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
@@ -4559,11 +4914,21 @@
         <v>69</v>
       </c>
       <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
+      <c r="C88" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D88" s="16">
+        <v>9</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F88" s="10">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="G88" s="10">
+        <v>0.40416666666666662</v>
+      </c>
       <c r="H88" s="2" t="s">
         <v>16</v>
       </c>
@@ -4573,13 +4938,19 @@
       <c r="J88" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K88" s="2"/>
+      <c r="K88" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L88" s="2"/>
       <c r="M88" s="2">
         <v>69</v>
       </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+      <c r="N88" s="2">
+        <v>2.3E-2</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P88" s="6"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
@@ -4587,11 +4958,21 @@
         <v>336</v>
       </c>
       <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
+      <c r="C89" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D89" s="16">
+        <v>9</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F89" s="10">
+        <v>0.37916666666666665</v>
+      </c>
+      <c r="G89" s="10">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="H89" s="2" t="s">
         <v>16</v>
       </c>
@@ -4601,13 +4982,21 @@
       <c r="J89" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
+      <c r="K89" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="M89" s="2">
         <v>336</v>
       </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
+      <c r="N89" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P89" s="6"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
@@ -4618,7 +5007,7 @@
         <v>26</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+      <c r="D90" s="16"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -4645,11 +5034,21 @@
         <v>85</v>
       </c>
       <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
+      <c r="C91" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91" s="16">
+        <v>9</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F91" s="10">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="G91" s="10">
+        <v>0.40486111111111112</v>
+      </c>
       <c r="H91" s="2" t="s">
         <v>16</v>
       </c>
@@ -4659,13 +5058,21 @@
       <c r="J91" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
+      <c r="K91" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M91" s="2">
         <v>85</v>
       </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+      <c r="N91" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P91" s="6"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
@@ -4673,11 +5080,21 @@
         <v>23</v>
       </c>
       <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
+      <c r="C92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D92" s="16">
+        <v>9</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F92" s="10">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="G92" s="10">
+        <v>0.40833333333333338</v>
+      </c>
       <c r="H92" s="2" t="s">
         <v>16</v>
       </c>
@@ -4687,13 +5104,21 @@
       <c r="J92" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
+      <c r="K92" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M92" s="2">
         <v>23</v>
       </c>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
+      <c r="N92" s="2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P92" s="6"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
@@ -4701,11 +5126,21 @@
         <v>73</v>
       </c>
       <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
+      <c r="C93" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D93" s="16">
+        <v>9</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F93" s="10">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="G93" s="10">
+        <v>0.40486111111111112</v>
+      </c>
       <c r="H93" s="2" t="s">
         <v>16</v>
       </c>
@@ -4715,27 +5150,41 @@
       <c r="J93" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K93" s="2"/>
+      <c r="K93" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L93" s="2"/>
       <c r="M93" s="2">
         <v>73</v>
       </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
+      <c r="N93" s="2">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="P93" s="6"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>244</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" s="16">
+        <v>9</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F94" s="10">
+        <v>0.39861111111111108</v>
+      </c>
+      <c r="G94" s="10">
+        <v>0.42430555555555555</v>
+      </c>
       <c r="H94" s="2" t="s">
         <v>16</v>
       </c>
@@ -4745,13 +5194,21 @@
       <c r="J94" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
+      <c r="K94" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M94" s="2">
         <v>244</v>
       </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
+      <c r="N94" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P94" s="6"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
@@ -4759,11 +5216,21 @@
         <v>317</v>
       </c>
       <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
+      <c r="C95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" s="16">
+        <v>9</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F95" s="10">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="G95" s="10">
+        <v>0.42430555555555555</v>
+      </c>
       <c r="H95" s="2" t="s">
         <v>16</v>
       </c>
@@ -4773,13 +5240,21 @@
       <c r="J95" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
+      <c r="K95" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M95" s="2">
         <v>317</v>
       </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
+      <c r="N95" s="2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="P95" s="6"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
@@ -4787,11 +5262,21 @@
         <v>259</v>
       </c>
       <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
+      <c r="C96" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D96" s="16">
+        <v>9</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F96" s="10">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="G96" s="10">
+        <v>0.42430555555555555</v>
+      </c>
       <c r="H96" s="2" t="s">
         <v>16</v>
       </c>
@@ -4801,13 +5286,21 @@
       <c r="J96" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
+      <c r="K96" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M96" s="2">
         <v>259</v>
       </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
+      <c r="N96" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P96" s="6"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
@@ -4815,11 +5308,21 @@
         <v>341</v>
       </c>
       <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
+      <c r="C97" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D97" s="16">
+        <v>9</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F97" s="10">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="G97" s="10">
+        <v>0.42430555555555555</v>
+      </c>
       <c r="H97" s="2" t="s">
         <v>16</v>
       </c>
@@ -4829,13 +5332,21 @@
       <c r="J97" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
+      <c r="K97" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M97" s="2">
         <v>341</v>
       </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
+      <c r="N97" s="2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P97" s="6"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
@@ -4843,11 +5354,21 @@
         <v>201</v>
       </c>
       <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
+      <c r="C98" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" s="16">
+        <v>9</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F98" s="10">
+        <v>0.40138888888888885</v>
+      </c>
+      <c r="G98" s="10">
+        <v>0.42430555555555555</v>
+      </c>
       <c r="H98" s="2" t="s">
         <v>16</v>
       </c>
@@ -4857,13 +5378,21 @@
       <c r="J98" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
+      <c r="K98" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M98" s="2">
         <v>201</v>
       </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
+      <c r="N98" s="2">
+        <v>0.105</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P98" s="6"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
@@ -4874,7 +5403,7 @@
         <v>26</v>
       </c>
       <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
+      <c r="D99" s="16"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -4897,90 +5426,108 @@
       <c r="P99" s="6"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="2">
+        <v>75</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D100" s="16">
+        <v>9</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F100" s="10">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="G100" s="10">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="2">
+        <v>70</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M100" s="2">
+        <v>75</v>
+      </c>
+      <c r="N100" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P100" s="2"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C101" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D101" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="F101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="G101" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H100" s="3" t="s">
+      <c r="H101" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I100" s="3" t="s">
+      <c r="I101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="J101" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N100" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O100" s="3" t="s">
+      <c r="O101" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P100" s="5" t="s">
+      <c r="P101" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A101" s="2">
-        <v>253</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I101" s="2">
-        <v>70</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2">
-        <v>253</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" s="6"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>50</v>
+        <v>253</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
+      <c r="D102" s="16"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -4991,12 +5538,12 @@
         <v>70</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
       <c r="M102" s="2">
-        <v>50</v>
+        <v>253</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -5004,11 +5551,11 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>227</v>
+        <v>50</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
+      <c r="D103" s="16"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -5019,12 +5566,12 @@
         <v>70</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
       <c r="M103" s="2">
-        <v>227</v>
+        <v>50</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -5032,11 +5579,11 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
+      <c r="D104" s="16"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -5047,12 +5594,12 @@
         <v>70</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
       <c r="M104" s="2">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -5060,11 +5607,11 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>372</v>
+        <v>262</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
+      <c r="D105" s="16"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
@@ -5075,12 +5622,12 @@
         <v>70</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
       <c r="M105" s="2">
-        <v>372</v>
+        <v>262</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -5088,11 +5635,11 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>27</v>
+        <v>372</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
+      <c r="D106" s="16"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -5103,12 +5650,12 @@
         <v>70</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
       <c r="M106" s="2">
-        <v>27</v>
+        <v>372</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -5116,11 +5663,11 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>298</v>
+        <v>27</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
+      <c r="D107" s="16"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
@@ -5131,12 +5678,12 @@
         <v>70</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
       <c r="M107" s="2">
-        <v>298</v>
+        <v>27</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -5144,11 +5691,11 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>119</v>
+        <v>298</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
+      <c r="D108" s="16"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -5159,12 +5706,12 @@
         <v>70</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
       <c r="M108" s="2">
-        <v>119</v>
+        <v>298</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -5172,11 +5719,11 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>250</v>
+        <v>119</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
+      <c r="D109" s="16"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -5187,12 +5734,12 @@
         <v>70</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
       <c r="M109" s="2">
-        <v>250</v>
+        <v>119</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -5200,11 +5747,11 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
+      <c r="D110" s="16"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -5215,12 +5762,12 @@
         <v>70</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
       <c r="M110" s="2">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -5228,11 +5775,11 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>260</v>
+        <v>184</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
+      <c r="D111" s="16"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
@@ -5243,12 +5790,12 @@
         <v>70</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
       <c r="M111" s="2">
-        <v>260</v>
+        <v>184</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -5256,11 +5803,11 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
+      <c r="D112" s="16"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
@@ -5271,12 +5818,12 @@
         <v>70</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
       <c r="M112" s="2">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -5284,11 +5831,11 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
+      <c r="D113" s="16"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -5299,12 +5846,12 @@
         <v>70</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
       <c r="M113" s="2">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -5312,11 +5859,11 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
+      <c r="D114" s="16"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -5327,12 +5874,12 @@
         <v>70</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
       <c r="M114" s="2">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -5340,11 +5887,11 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
+      <c r="D115" s="16"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -5360,7 +5907,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
       <c r="M115" s="2">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -5368,13 +5915,11 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>347</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B116" s="2"/>
       <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
+      <c r="D116" s="16"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
@@ -5385,12 +5930,12 @@
         <v>70</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="2">
-        <v>347</v>
+        <v>22</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -5398,11 +5943,13 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>281</v>
-      </c>
-      <c r="B117" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
+      <c r="D117" s="16"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -5413,12 +5960,12 @@
         <v>70</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
       <c r="M117" s="2">
-        <v>281</v>
+        <v>347</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -5426,11 +5973,11 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>66</v>
+        <v>281</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
+      <c r="D118" s="16"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
@@ -5441,12 +5988,12 @@
         <v>70</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
       <c r="M118" s="2">
-        <v>66</v>
+        <v>281</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -5454,11 +6001,11 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>314</v>
+        <v>66</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
+      <c r="D119" s="16"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
@@ -5469,12 +6016,12 @@
         <v>70</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
       <c r="M119" s="2">
-        <v>314</v>
+        <v>66</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -5482,11 +6029,11 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
+      <c r="D120" s="16"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
@@ -5497,12 +6044,12 @@
         <v>70</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
       <c r="M120" s="2">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -5510,11 +6057,11 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
+      <c r="D121" s="16"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
@@ -5525,12 +6072,12 @@
         <v>70</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="2">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -5538,11 +6085,11 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>127</v>
+        <v>339</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
+      <c r="D122" s="16"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
@@ -5553,12 +6100,12 @@
         <v>70</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
       <c r="M122" s="2">
-        <v>127</v>
+        <v>339</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -5566,11 +6113,11 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
+      <c r="D123" s="16"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
@@ -5581,12 +6128,12 @@
         <v>70</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
       <c r="M123" s="2">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -5594,11 +6141,11 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
+      <c r="D124" s="16"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
@@ -5609,12 +6156,12 @@
         <v>70</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
       <c r="M124" s="2">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -5622,11 +6169,11 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>134</v>
+        <v>287</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
+      <c r="D125" s="16"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
@@ -5637,12 +6184,12 @@
         <v>70</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
       <c r="M125" s="2">
-        <v>134</v>
+        <v>287</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -5650,11 +6197,11 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
+      <c r="D126" s="16"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
@@ -5665,12 +6212,12 @@
         <v>70</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
       <c r="M126" s="2">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -5678,11 +6225,11 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>355</v>
+        <v>43</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
+      <c r="D127" s="16"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
@@ -5693,12 +6240,12 @@
         <v>70</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
       <c r="M127" s="2">
-        <v>355</v>
+        <v>43</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -5706,11 +6253,11 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>164</v>
+        <v>355</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
+      <c r="D128" s="16"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
@@ -5721,12 +6268,12 @@
         <v>70</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
       <c r="M128" s="2">
-        <v>164</v>
+        <v>355</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
@@ -5734,11 +6281,11 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
+      <c r="D129" s="16"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
@@ -5749,12 +6296,12 @@
         <v>70</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
       <c r="M129" s="2">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -5762,11 +6309,11 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
+      <c r="D130" s="16"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
@@ -5777,12 +6324,12 @@
         <v>70</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
       <c r="M130" s="2">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -5790,11 +6337,11 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
+      <c r="D131" s="16"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
@@ -5805,12 +6352,12 @@
         <v>70</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
       <c r="M131" s="2">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -5818,11 +6365,11 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
-        <v>380</v>
+        <v>45</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
+      <c r="D132" s="16"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -5833,102 +6380,102 @@
         <v>70</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
       <c r="M132" s="2">
-        <v>380</v>
+        <v>45</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
       <c r="P132" s="6"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="2">
+        <v>380</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I133" s="2">
+        <v>70</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2">
+        <v>380</v>
+      </c>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+      <c r="P133" s="6"/>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B134" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C134" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D134" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="E134" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F133" s="3" t="s">
+      <c r="F134" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G133" s="3" t="s">
+      <c r="G134" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H133" s="3" t="s">
+      <c r="H134" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I133" s="3" t="s">
+      <c r="I134" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J133" s="3" t="s">
+      <c r="J134" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K133" s="3" t="s">
+      <c r="K134" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L133" s="3" t="s">
+      <c r="L134" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M133" s="3" t="s">
+      <c r="M134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N133" s="3" t="s">
+      <c r="N134" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O133" s="3" t="s">
+      <c r="O134" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P133" s="5" t="s">
+      <c r="P134" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A134" s="2">
-        <v>192</v>
-      </c>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I134" s="2">
-        <v>70</v>
-      </c>
-      <c r="J134" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K134" s="2"/>
-      <c r="L134" s="2"/>
-      <c r="M134" s="2">
-        <v>192</v>
-      </c>
-      <c r="N134" s="2"/>
-      <c r="O134" s="2"/>
-      <c r="P134" s="6"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
+      <c r="D135" s="16"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
@@ -5939,12 +6486,12 @@
         <v>70</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
       <c r="M135" s="2">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -5952,11 +6499,11 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
+      <c r="D136" s="16"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
@@ -5967,12 +6514,12 @@
         <v>70</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
       <c r="M136" s="2">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -5980,11 +6527,11 @@
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
+      <c r="D137" s="16"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
@@ -6000,7 +6547,7 @@
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
       <c r="M137" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -6008,11 +6555,11 @@
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>124</v>
+        <v>241</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
+      <c r="D138" s="16"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
@@ -6023,12 +6570,12 @@
         <v>70</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
       <c r="M138" s="2">
-        <v>124</v>
+        <v>241</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
@@ -6036,11 +6583,11 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>394</v>
+        <v>124</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
+      <c r="D139" s="16"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
@@ -6051,12 +6598,12 @@
         <v>70</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
       <c r="M139" s="2">
-        <v>394</v>
+        <v>124</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
@@ -6064,11 +6611,11 @@
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>202</v>
+        <v>394</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
+      <c r="D140" s="16"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
@@ -6079,12 +6626,12 @@
         <v>70</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
       <c r="M140" s="2">
-        <v>202</v>
+        <v>394</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -6092,11 +6639,11 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
-        <v>369</v>
+        <v>202</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
+      <c r="D141" s="16"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
@@ -6107,12 +6654,12 @@
         <v>70</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
       <c r="M141" s="2">
-        <v>369</v>
+        <v>202</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
@@ -6120,11 +6667,11 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
-        <v>110</v>
+        <v>369</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
+      <c r="D142" s="16"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
@@ -6135,12 +6682,12 @@
         <v>70</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
       <c r="M142" s="2">
-        <v>110</v>
+        <v>369</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -6148,11 +6695,11 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
+      <c r="D143" s="16"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
@@ -6163,12 +6710,12 @@
         <v>70</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
       <c r="M143" s="2">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -6176,11 +6723,11 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
+      <c r="D144" s="16"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
@@ -6191,12 +6738,12 @@
         <v>70</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
       <c r="M144" s="2">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -6204,11 +6751,11 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
+      <c r="D145" s="16"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
@@ -6219,12 +6766,12 @@
         <v>70</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
       <c r="M145" s="2">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -6232,11 +6779,11 @@
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
-        <v>226</v>
+        <v>138</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
+      <c r="D146" s="16"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
@@ -6247,12 +6794,12 @@
         <v>70</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
       <c r="M146" s="2">
-        <v>226</v>
+        <v>138</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -6260,11 +6807,11 @@
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
-        <v>147</v>
+        <v>226</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
+      <c r="D147" s="16"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
@@ -6275,12 +6822,12 @@
         <v>70</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
       <c r="M147" s="2">
-        <v>147</v>
+        <v>226</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -6288,11 +6835,11 @@
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
+      <c r="D148" s="16"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
@@ -6303,12 +6850,12 @@
         <v>70</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
       <c r="M148" s="2">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -6316,11 +6863,11 @@
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
+      <c r="D149" s="16"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
@@ -6331,12 +6878,12 @@
         <v>70</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
       <c r="M149" s="2">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -6344,11 +6891,11 @@
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
+      <c r="D150" s="16"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
@@ -6359,12 +6906,12 @@
         <v>70</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
       <c r="M150" s="2">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -6372,11 +6919,11 @@
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
+      <c r="D151" s="16"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
@@ -6392,7 +6939,7 @@
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
       <c r="M151" s="2">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -6400,11 +6947,11 @@
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
+      <c r="D152" s="16"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
@@ -6415,12 +6962,12 @@
         <v>70</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
       <c r="M152" s="2">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -6428,11 +6975,11 @@
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
+      <c r="D153" s="16"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
@@ -6443,12 +6990,12 @@
         <v>70</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
       <c r="M153" s="2">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -6456,11 +7003,11 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
+      <c r="D154" s="16"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
@@ -6471,12 +7018,12 @@
         <v>70</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
       <c r="M154" s="2">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -6484,11 +7031,11 @@
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
+      <c r="D155" s="16"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
@@ -6499,12 +7046,12 @@
         <v>70</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
       <c r="M155" s="2">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
@@ -6512,11 +7059,11 @@
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
+      <c r="D156" s="16"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
@@ -6527,12 +7074,12 @@
         <v>70</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
       <c r="M156" s="2">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -6540,11 +7087,11 @@
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
+      <c r="D157" s="16"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
@@ -6555,12 +7102,12 @@
         <v>70</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
       <c r="M157" s="2">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
@@ -6568,11 +7115,11 @@
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
+      <c r="D158" s="16"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
@@ -6583,12 +7130,12 @@
         <v>70</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
       <c r="M158" s="2">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" s="2"/>
@@ -6596,11 +7143,11 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
+      <c r="D159" s="16"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
@@ -6616,7 +7163,7 @@
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
       <c r="M159" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -6624,11 +7171,11 @@
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
-        <v>16</v>
+        <v>361</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
+      <c r="D160" s="16"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
@@ -6639,12 +7186,12 @@
         <v>70</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
       <c r="M160" s="2">
-        <v>16</v>
+        <v>361</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -6652,11 +7199,11 @@
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
-        <v>325</v>
+        <v>16</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
+      <c r="D161" s="16"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
@@ -6667,12 +7214,12 @@
         <v>70</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
       <c r="M161" s="2">
-        <v>325</v>
+        <v>16</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -6680,11 +7227,11 @@
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
-        <v>233</v>
+        <v>325</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
+      <c r="D162" s="16"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
@@ -6695,12 +7242,12 @@
         <v>70</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
       <c r="M162" s="2">
-        <v>233</v>
+        <v>325</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -6708,11 +7255,11 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
+      <c r="D163" s="16"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
@@ -6723,12 +7270,12 @@
         <v>70</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
       <c r="M163" s="2">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
@@ -6736,11 +7283,11 @@
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>333</v>
+        <v>15</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
+      <c r="D164" s="16"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
@@ -6751,12 +7298,12 @@
         <v>70</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
       <c r="M164" s="2">
-        <v>333</v>
+        <v>15</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
@@ -6764,11 +7311,11 @@
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
-        <v>182</v>
+        <v>333</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
+      <c r="D165" s="16"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
@@ -6779,102 +7326,102 @@
         <v>70</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
       <c r="M165" s="2">
-        <v>182</v>
+        <v>333</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
       <c r="P165" s="6"/>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="2">
+        <v>182</v>
+      </c>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="16"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I166" s="2">
+        <v>70</v>
+      </c>
+      <c r="J166" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K166" s="2"/>
+      <c r="L166" s="2"/>
+      <c r="M166" s="2">
+        <v>182</v>
+      </c>
+      <c r="N166" s="2"/>
+      <c r="O166" s="2"/>
+      <c r="P166" s="6"/>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B167" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C167" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="D167" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="E167" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F166" s="3" t="s">
+      <c r="F167" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G166" s="3" t="s">
+      <c r="G167" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H166" s="3" t="s">
+      <c r="H167" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I166" s="3" t="s">
+      <c r="I167" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J166" s="3" t="s">
+      <c r="J167" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K166" s="3" t="s">
+      <c r="K167" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L166" s="3" t="s">
+      <c r="L167" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M166" s="3" t="s">
+      <c r="M167" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N166" s="3" t="s">
+      <c r="N167" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O166" s="3" t="s">
+      <c r="O167" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P166" s="5" t="s">
+      <c r="P167" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A167" s="2">
-        <v>274</v>
-      </c>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I167" s="2">
-        <v>70</v>
-      </c>
-      <c r="J167" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K167" s="2"/>
-      <c r="L167" s="2"/>
-      <c r="M167" s="2">
-        <v>274</v>
-      </c>
-      <c r="N167" s="2"/>
-      <c r="O167" s="2"/>
-      <c r="P167" s="6"/>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>363</v>
+        <v>274</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
+      <c r="D168" s="16"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
@@ -6885,12 +7432,12 @@
         <v>70</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
       <c r="M168" s="2">
-        <v>363</v>
+        <v>274</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -6898,11 +7445,11 @@
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>284</v>
+        <v>363</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
+      <c r="D169" s="16"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
@@ -6913,12 +7460,12 @@
         <v>70</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
       <c r="M169" s="2">
-        <v>284</v>
+        <v>363</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
@@ -6926,11 +7473,11 @@
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>148</v>
+        <v>284</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
+      <c r="D170" s="16"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
@@ -6941,12 +7488,12 @@
         <v>70</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
       <c r="M170" s="2">
-        <v>148</v>
+        <v>284</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
@@ -6954,11 +7501,11 @@
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
+      <c r="D171" s="16"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
@@ -6969,12 +7516,12 @@
         <v>70</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
       <c r="M171" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
@@ -6982,11 +7529,11 @@
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
+      <c r="D172" s="16"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
@@ -6997,12 +7544,12 @@
         <v>70</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
       <c r="M172" s="2">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
@@ -7010,11 +7557,11 @@
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
+      <c r="D173" s="16"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -7030,7 +7577,7 @@
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
       <c r="M173" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
@@ -7038,11 +7585,11 @@
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
+      <c r="D174" s="16"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
@@ -7053,12 +7600,12 @@
         <v>70</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
       <c r="M174" s="2">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" s="2"/>
@@ -7066,11 +7613,11 @@
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>304</v>
+        <v>139</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
+      <c r="D175" s="16"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
@@ -7081,12 +7628,12 @@
         <v>70</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
       <c r="M175" s="2">
-        <v>304</v>
+        <v>139</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
@@ -7094,11 +7641,11 @@
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
-        <v>191</v>
+        <v>304</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
+      <c r="D176" s="16"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
@@ -7109,12 +7656,12 @@
         <v>70</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
       <c r="M176" s="2">
-        <v>191</v>
+        <v>304</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
@@ -7122,11 +7669,11 @@
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>332</v>
+        <v>191</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
+      <c r="D177" s="16"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
@@ -7137,12 +7684,12 @@
         <v>70</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
       <c r="M177" s="2">
-        <v>332</v>
+        <v>191</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -7150,11 +7697,11 @@
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
+      <c r="D178" s="16"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
@@ -7165,12 +7712,12 @@
         <v>70</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
       <c r="M178" s="2">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
@@ -7178,11 +7725,11 @@
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
+      <c r="D179" s="16"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
@@ -7198,7 +7745,7 @@
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
       <c r="M179" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
@@ -7206,11 +7753,11 @@
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>373</v>
+        <v>234</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
+      <c r="D180" s="16"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
@@ -7221,12 +7768,12 @@
         <v>70</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
       <c r="M180" s="2">
-        <v>373</v>
+        <v>234</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -7234,11 +7781,11 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
+      <c r="D181" s="16"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
@@ -7249,12 +7796,12 @@
         <v>70</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
       <c r="M181" s="2">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
@@ -7262,11 +7809,11 @@
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>322</v>
+        <v>388</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
+      <c r="D182" s="16"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
@@ -7277,12 +7824,12 @@
         <v>70</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
       <c r="M182" s="2">
-        <v>322</v>
+        <v>388</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -7290,11 +7837,11 @@
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>175</v>
+        <v>322</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
+      <c r="D183" s="16"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
@@ -7305,12 +7852,12 @@
         <v>70</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
       <c r="M183" s="2">
-        <v>175</v>
+        <v>322</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -7318,11 +7865,11 @@
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
+      <c r="D184" s="16"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
@@ -7333,12 +7880,12 @@
         <v>70</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
       <c r="M184" s="2">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="N184" s="2"/>
       <c r="O184" s="2"/>
@@ -7346,11 +7893,11 @@
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
+      <c r="D185" s="16"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
@@ -7366,7 +7913,7 @@
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
       <c r="M185" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
@@ -7374,11 +7921,11 @@
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>255</v>
+        <v>113</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
+      <c r="D186" s="16"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
@@ -7389,12 +7936,12 @@
         <v>70</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
       <c r="M186" s="2">
-        <v>255</v>
+        <v>113</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
@@ -7402,11 +7949,11 @@
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>24</v>
+        <v>255</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
+      <c r="D187" s="16"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
@@ -7417,12 +7964,12 @@
         <v>70</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
       <c r="M187" s="2">
-        <v>24</v>
+        <v>255</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -7430,11 +7977,11 @@
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>300</v>
+        <v>24</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
+      <c r="D188" s="16"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
@@ -7445,12 +7992,12 @@
         <v>70</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
       <c r="M188" s="2">
-        <v>300</v>
+        <v>24</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
@@ -7458,11 +8005,11 @@
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
+      <c r="D189" s="16"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
@@ -7473,12 +8020,12 @@
         <v>70</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
       <c r="M189" s="2">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
@@ -7486,11 +8033,11 @@
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>236</v>
+        <v>101</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
+      <c r="D190" s="16"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
@@ -7501,12 +8048,12 @@
         <v>70</v>
       </c>
       <c r="J190" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
       <c r="M190" s="2">
-        <v>236</v>
+        <v>101</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
@@ -7514,11 +8061,11 @@
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>324</v>
+        <v>236</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
+      <c r="D191" s="16"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
@@ -7529,12 +8076,12 @@
         <v>70</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
       <c r="M191" s="2">
-        <v>324</v>
+        <v>236</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
@@ -7542,11 +8089,11 @@
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>151</v>
+        <v>324</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
+      <c r="D192" s="16"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
@@ -7557,12 +8104,12 @@
         <v>70</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
       <c r="M192" s="2">
-        <v>151</v>
+        <v>324</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -7570,11 +8117,11 @@
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>318</v>
+        <v>151</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
+      <c r="D193" s="16"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
@@ -7585,12 +8132,12 @@
         <v>70</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
       <c r="M193" s="2">
-        <v>318</v>
+        <v>151</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
@@ -7598,11 +8145,11 @@
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
+      <c r="D194" s="16"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
@@ -7618,7 +8165,7 @@
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
       <c r="M194" s="2">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="N194" s="2"/>
       <c r="O194" s="2"/>
@@ -7626,11 +8173,11 @@
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
+      <c r="D195" s="16"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
@@ -7641,12 +8188,12 @@
         <v>70</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
       <c r="M195" s="2">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" s="2"/>
@@ -7654,11 +8201,11 @@
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
+      <c r="D196" s="16"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
@@ -7669,12 +8216,12 @@
         <v>70</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
       <c r="M196" s="2">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" s="2"/>
@@ -7682,11 +8229,11 @@
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
+      <c r="D197" s="16"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
@@ -7697,12 +8244,12 @@
         <v>70</v>
       </c>
       <c r="J197" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
       <c r="M197" s="2">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -7710,11 +8257,11 @@
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>42</v>
+        <v>295</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
+      <c r="D198" s="16"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
@@ -7725,102 +8272,102 @@
         <v>70</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K198" s="2"/>
       <c r="L198" s="2"/>
       <c r="M198" s="2">
-        <v>42</v>
+        <v>295</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
       <c r="P198" s="6"/>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="2">
+        <v>42</v>
+      </c>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="16"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I199" s="2">
+        <v>70</v>
+      </c>
+      <c r="J199" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K199" s="2"/>
+      <c r="L199" s="2"/>
+      <c r="M199" s="2">
+        <v>42</v>
+      </c>
+      <c r="N199" s="2"/>
+      <c r="O199" s="2"/>
+      <c r="P199" s="6"/>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A200" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B200" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C200" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D199" s="3" t="s">
+      <c r="D200" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E199" s="3" t="s">
+      <c r="E200" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F199" s="3" t="s">
+      <c r="F200" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G199" s="3" t="s">
+      <c r="G200" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H199" s="3" t="s">
+      <c r="H200" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I199" s="3" t="s">
+      <c r="I200" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J199" s="3" t="s">
+      <c r="J200" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K199" s="3" t="s">
+      <c r="K200" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L199" s="3" t="s">
+      <c r="L200" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M199" s="3" t="s">
+      <c r="M200" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N199" s="3" t="s">
+      <c r="N200" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O199" s="3" t="s">
+      <c r="O200" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P199" s="5" t="s">
+      <c r="P200" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A200" s="2">
-        <v>132</v>
-      </c>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
-      <c r="F200" s="2"/>
-      <c r="G200" s="2"/>
-      <c r="H200" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I200" s="2">
-        <v>70</v>
-      </c>
-      <c r="J200" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K200" s="2"/>
-      <c r="L200" s="2"/>
-      <c r="M200" s="2">
-        <v>132</v>
-      </c>
-      <c r="N200" s="2"/>
-      <c r="O200" s="2"/>
-      <c r="P200" s="6"/>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
+      <c r="D201" s="16"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
@@ -7831,12 +8378,12 @@
         <v>70</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
       <c r="M201" s="2">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="N201" s="2"/>
       <c r="O201" s="2"/>
@@ -7844,11 +8391,11 @@
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
+      <c r="D202" s="16"/>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
@@ -7859,12 +8406,12 @@
         <v>70</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
       <c r="M202" s="2">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -7872,11 +8419,11 @@
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>238</v>
+        <v>26</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
+      <c r="D203" s="16"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
@@ -7892,7 +8439,7 @@
       <c r="K203" s="2"/>
       <c r="L203" s="2"/>
       <c r="M203" s="2">
-        <v>238</v>
+        <v>26</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
@@ -7900,11 +8447,11 @@
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>8</v>
+        <v>238</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
+      <c r="D204" s="16"/>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
@@ -7915,12 +8462,12 @@
         <v>70</v>
       </c>
       <c r="J204" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K204" s="2"/>
       <c r="L204" s="2"/>
       <c r="M204" s="2">
-        <v>8</v>
+        <v>238</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
@@ -7928,11 +8475,11 @@
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
+      <c r="D205" s="16"/>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
@@ -7943,12 +8490,12 @@
         <v>70</v>
       </c>
       <c r="J205" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K205" s="2"/>
       <c r="L205" s="2"/>
       <c r="M205" s="2">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
@@ -7956,11 +8503,11 @@
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
+      <c r="D206" s="16"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
@@ -7976,7 +8523,7 @@
       <c r="K206" s="2"/>
       <c r="L206" s="2"/>
       <c r="M206" s="2">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="N206" s="2"/>
       <c r="O206" s="2"/>
@@ -7984,11 +8531,11 @@
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>397</v>
+        <v>221</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
+      <c r="D207" s="16"/>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
@@ -7999,12 +8546,12 @@
         <v>70</v>
       </c>
       <c r="J207" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K207" s="2"/>
       <c r="L207" s="2"/>
       <c r="M207" s="2">
-        <v>397</v>
+        <v>221</v>
       </c>
       <c r="N207" s="2"/>
       <c r="O207" s="2"/>
@@ -8012,11 +8559,11 @@
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>290</v>
+        <v>397</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
+      <c r="D208" s="16"/>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
@@ -8032,7 +8579,7 @@
       <c r="K208" s="2"/>
       <c r="L208" s="2"/>
       <c r="M208" s="2">
-        <v>290</v>
+        <v>397</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" s="2"/>
@@ -8040,11 +8587,11 @@
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>170</v>
+        <v>290</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
+      <c r="D209" s="16"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
@@ -8055,12 +8602,12 @@
         <v>70</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K209" s="2"/>
       <c r="L209" s="2"/>
       <c r="M209" s="2">
-        <v>170</v>
+        <v>290</v>
       </c>
       <c r="N209" s="2"/>
       <c r="O209" s="2"/>
@@ -8068,11 +8615,11 @@
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
+      <c r="D210" s="16"/>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
@@ -8088,7 +8635,7 @@
       <c r="K210" s="2"/>
       <c r="L210" s="2"/>
       <c r="M210" s="2">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="N210" s="2"/>
       <c r="O210" s="2"/>
@@ -8096,11 +8643,11 @@
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
+      <c r="D211" s="16"/>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
@@ -8111,12 +8658,12 @@
         <v>70</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K211" s="2"/>
       <c r="L211" s="2"/>
       <c r="M211" s="2">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="N211" s="2"/>
       <c r="O211" s="2"/>
@@ -8124,11 +8671,11 @@
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>224</v>
+        <v>65</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
+      <c r="D212" s="16"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
@@ -8139,12 +8686,12 @@
         <v>70</v>
       </c>
       <c r="J212" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K212" s="2"/>
       <c r="L212" s="2"/>
       <c r="M212" s="2">
-        <v>224</v>
+        <v>65</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
@@ -8152,11 +8699,11 @@
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>381</v>
+        <v>224</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
+      <c r="D213" s="16"/>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
@@ -8167,12 +8714,12 @@
         <v>70</v>
       </c>
       <c r="J213" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
       <c r="M213" s="2">
-        <v>381</v>
+        <v>224</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" s="2"/>
@@ -8180,11 +8727,11 @@
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>131</v>
+        <v>381</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
+      <c r="D214" s="16"/>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
@@ -8195,12 +8742,12 @@
         <v>70</v>
       </c>
       <c r="J214" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K214" s="2"/>
       <c r="L214" s="2"/>
       <c r="M214" s="2">
-        <v>131</v>
+        <v>381</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" s="2"/>
@@ -8208,11 +8755,11 @@
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
+      <c r="D215" s="16"/>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
@@ -8223,12 +8770,12 @@
         <v>70</v>
       </c>
       <c r="J215" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K215" s="2"/>
       <c r="L215" s="2"/>
       <c r="M215" s="2">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" s="2"/>
@@ -8236,11 +8783,11 @@
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
+      <c r="D216" s="16"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
@@ -8251,12 +8798,12 @@
         <v>70</v>
       </c>
       <c r="J216" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K216" s="2"/>
       <c r="L216" s="2"/>
       <c r="M216" s="2">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" s="2"/>
@@ -8264,11 +8811,11 @@
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>358</v>
+        <v>121</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
+      <c r="D217" s="16"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
@@ -8284,7 +8831,7 @@
       <c r="K217" s="2"/>
       <c r="L217" s="2"/>
       <c r="M217" s="2">
-        <v>358</v>
+        <v>121</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" s="2"/>
@@ -8292,11 +8839,11 @@
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
+      <c r="D218" s="16"/>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
@@ -8307,12 +8854,12 @@
         <v>70</v>
       </c>
       <c r="J218" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K218" s="2"/>
       <c r="L218" s="2"/>
       <c r="M218" s="2">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" s="2"/>
@@ -8320,11 +8867,11 @@
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>25</v>
+        <v>376</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
+      <c r="D219" s="16"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
@@ -8335,12 +8882,12 @@
         <v>70</v>
       </c>
       <c r="J219" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K219" s="2"/>
       <c r="L219" s="2"/>
       <c r="M219" s="2">
-        <v>25</v>
+        <v>376</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
@@ -8348,11 +8895,11 @@
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>251</v>
+        <v>25</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
+      <c r="D220" s="16"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
@@ -8363,12 +8910,12 @@
         <v>70</v>
       </c>
       <c r="J220" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K220" s="2"/>
       <c r="L220" s="2"/>
       <c r="M220" s="2">
-        <v>251</v>
+        <v>25</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" s="2"/>
@@ -8376,11 +8923,11 @@
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
+      <c r="D221" s="16"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
@@ -8391,12 +8938,12 @@
         <v>70</v>
       </c>
       <c r="J221" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K221" s="2"/>
       <c r="L221" s="2"/>
       <c r="M221" s="2">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="N221" s="2"/>
       <c r="O221" s="2"/>
@@ -8404,11 +8951,11 @@
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
-        <v>67</v>
+        <v>306</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
+      <c r="D222" s="16"/>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
@@ -8419,12 +8966,12 @@
         <v>70</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K222" s="2"/>
       <c r="L222" s="2"/>
       <c r="M222" s="2">
-        <v>67</v>
+        <v>306</v>
       </c>
       <c r="N222" s="2"/>
       <c r="O222" s="2"/>
@@ -8432,11 +8979,11 @@
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
+      <c r="D223" s="16"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
@@ -8447,12 +8994,12 @@
         <v>70</v>
       </c>
       <c r="J223" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K223" s="2"/>
       <c r="L223" s="2"/>
       <c r="M223" s="2">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" s="2"/>
@@ -8460,11 +9007,11 @@
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
-        <v>342</v>
+        <v>108</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
+      <c r="D224" s="16"/>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
@@ -8480,7 +9027,7 @@
       <c r="K224" s="2"/>
       <c r="L224" s="2"/>
       <c r="M224" s="2">
-        <v>342</v>
+        <v>108</v>
       </c>
       <c r="N224" s="2"/>
       <c r="O224" s="2"/>
@@ -8488,11 +9035,11 @@
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
-        <v>125</v>
+        <v>342</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
+      <c r="D225" s="16"/>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
@@ -8503,12 +9050,12 @@
         <v>70</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K225" s="2"/>
       <c r="L225" s="2"/>
       <c r="M225" s="2">
-        <v>125</v>
+        <v>342</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" s="2"/>
@@ -8516,11 +9063,11 @@
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
+      <c r="D226" s="16"/>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
@@ -8531,12 +9078,12 @@
         <v>70</v>
       </c>
       <c r="J226" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K226" s="2"/>
       <c r="L226" s="2"/>
       <c r="M226" s="2">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="N226" s="2"/>
       <c r="O226" s="2"/>
@@ -8544,11 +9091,11 @@
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>220</v>
+        <v>7</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
+      <c r="D227" s="16"/>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
@@ -8559,12 +9106,12 @@
         <v>70</v>
       </c>
       <c r="J227" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K227" s="2"/>
       <c r="L227" s="2"/>
       <c r="M227" s="2">
-        <v>220</v>
+        <v>7</v>
       </c>
       <c r="N227" s="2"/>
       <c r="O227" s="2"/>
@@ -8572,11 +9119,11 @@
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
+      <c r="D228" s="16"/>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
@@ -8592,7 +9139,7 @@
       <c r="K228" s="2"/>
       <c r="L228" s="2"/>
       <c r="M228" s="2">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="N228" s="2"/>
       <c r="O228" s="2"/>
@@ -8600,11 +9147,11 @@
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
+      <c r="D229" s="16"/>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
@@ -8615,12 +9162,12 @@
         <v>70</v>
       </c>
       <c r="J229" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K229" s="2"/>
       <c r="L229" s="2"/>
       <c r="M229" s="2">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
@@ -8628,11 +9175,11 @@
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
+      <c r="D230" s="16"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
@@ -8643,12 +9190,12 @@
         <v>70</v>
       </c>
       <c r="J230" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K230" s="2"/>
       <c r="L230" s="2"/>
       <c r="M230" s="2">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" s="2"/>
@@ -8656,11 +9203,11 @@
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
+      <c r="D231" s="16"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
@@ -8671,102 +9218,102 @@
         <v>70</v>
       </c>
       <c r="J231" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K231" s="2"/>
       <c r="L231" s="2"/>
       <c r="M231" s="2">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="N231" s="2"/>
       <c r="O231" s="2"/>
       <c r="P231" s="6"/>
     </row>
     <row r="232" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="2">
+        <v>200</v>
+      </c>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="16"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I232" s="2">
+        <v>70</v>
+      </c>
+      <c r="J232" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K232" s="2"/>
+      <c r="L232" s="2"/>
+      <c r="M232" s="2">
+        <v>200</v>
+      </c>
+      <c r="N232" s="2"/>
+      <c r="O232" s="2"/>
+      <c r="P232" s="6"/>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A233" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B233" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="C233" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D232" s="3" t="s">
+      <c r="D233" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E232" s="3" t="s">
+      <c r="E233" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F232" s="3" t="s">
+      <c r="F233" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G232" s="3" t="s">
+      <c r="G233" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H232" s="3" t="s">
+      <c r="H233" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I232" s="3" t="s">
+      <c r="I233" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J232" s="3" t="s">
+      <c r="J233" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K232" s="3" t="s">
+      <c r="K233" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L232" s="3" t="s">
+      <c r="L233" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M232" s="3" t="s">
+      <c r="M233" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N232" s="3" t="s">
+      <c r="N233" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O232" s="3" t="s">
+      <c r="O233" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P232" s="5" t="s">
+      <c r="P233" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A233" s="2">
-        <v>149</v>
-      </c>
-      <c r="B233" s="2"/>
-      <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
-      <c r="G233" s="2"/>
-      <c r="H233" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I233" s="2">
-        <v>70</v>
-      </c>
-      <c r="J233" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K233" s="2"/>
-      <c r="L233" s="2"/>
-      <c r="M233" s="2">
-        <v>149</v>
-      </c>
-      <c r="N233" s="2"/>
-      <c r="O233" s="2"/>
-      <c r="P233" s="6"/>
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>303</v>
+        <v>149</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
-      <c r="D234" s="2"/>
+      <c r="D234" s="16"/>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
@@ -8777,12 +9324,12 @@
         <v>70</v>
       </c>
       <c r="J234" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K234" s="2"/>
       <c r="L234" s="2"/>
       <c r="M234" s="2">
-        <v>303</v>
+        <v>149</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" s="2"/>
@@ -8790,11 +9337,11 @@
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>181</v>
+        <v>303</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
-      <c r="D235" s="2"/>
+      <c r="D235" s="16"/>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
@@ -8805,12 +9352,12 @@
         <v>70</v>
       </c>
       <c r="J235" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K235" s="2"/>
       <c r="L235" s="2"/>
       <c r="M235" s="2">
-        <v>181</v>
+        <v>303</v>
       </c>
       <c r="N235" s="2"/>
       <c r="O235" s="2"/>
@@ -8818,11 +9365,11 @@
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
-      <c r="D236" s="2"/>
+      <c r="D236" s="16"/>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
@@ -8833,12 +9380,12 @@
         <v>70</v>
       </c>
       <c r="J236" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="2"/>
       <c r="M236" s="2">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="N236" s="2"/>
       <c r="O236" s="2"/>
@@ -8846,11 +9393,11 @@
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
-      <c r="D237" s="2"/>
+      <c r="D237" s="16"/>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
@@ -8861,12 +9408,12 @@
         <v>70</v>
       </c>
       <c r="J237" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K237" s="2"/>
       <c r="L237" s="2"/>
       <c r="M237" s="2">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="N237" s="2"/>
       <c r="O237" s="2"/>
@@ -8874,11 +9421,11 @@
     </row>
     <row r="238" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
-      <c r="D238" s="2"/>
+      <c r="D238" s="16"/>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
@@ -8889,12 +9436,12 @@
         <v>70</v>
       </c>
       <c r="J238" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K238" s="2"/>
       <c r="L238" s="2"/>
       <c r="M238" s="2">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="N238" s="2"/>
       <c r="O238" s="2"/>
@@ -8902,11 +9449,11 @@
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
-        <v>392</v>
+        <v>41</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
-      <c r="D239" s="2"/>
+      <c r="D239" s="16"/>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
       <c r="G239" s="2"/>
@@ -8917,12 +9464,12 @@
         <v>70</v>
       </c>
       <c r="J239" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K239" s="2"/>
       <c r="L239" s="2"/>
       <c r="M239" s="2">
-        <v>392</v>
+        <v>41</v>
       </c>
       <c r="N239" s="2"/>
       <c r="O239" s="2"/>
@@ -8930,11 +9477,11 @@
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>269</v>
+        <v>392</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
+      <c r="D240" s="16"/>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
@@ -8945,12 +9492,12 @@
         <v>70</v>
       </c>
       <c r="J240" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K240" s="2"/>
       <c r="L240" s="2"/>
       <c r="M240" s="2">
-        <v>269</v>
+        <v>392</v>
       </c>
       <c r="N240" s="2"/>
       <c r="O240" s="2"/>
@@ -8958,11 +9505,11 @@
     </row>
     <row r="241" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
-      <c r="D241" s="2"/>
+      <c r="D241" s="16"/>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
@@ -8973,12 +9520,12 @@
         <v>70</v>
       </c>
       <c r="J241" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K241" s="2"/>
       <c r="L241" s="2"/>
       <c r="M241" s="2">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="N241" s="2"/>
       <c r="O241" s="2"/>
@@ -8986,11 +9533,11 @@
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
-        <v>356</v>
+        <v>232</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
-      <c r="D242" s="2"/>
+      <c r="D242" s="16"/>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
@@ -9001,12 +9548,12 @@
         <v>70</v>
       </c>
       <c r="J242" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K242" s="2"/>
       <c r="L242" s="2"/>
       <c r="M242" s="2">
-        <v>356</v>
+        <v>232</v>
       </c>
       <c r="N242" s="2"/>
       <c r="O242" s="2"/>
@@ -9014,11 +9561,11 @@
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
-      <c r="D243" s="2"/>
+      <c r="D243" s="16"/>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
       <c r="G243" s="2"/>
@@ -9029,12 +9576,12 @@
         <v>70</v>
       </c>
       <c r="J243" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K243" s="2"/>
       <c r="L243" s="2"/>
       <c r="M243" s="2">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="N243" s="2"/>
       <c r="O243" s="2"/>
@@ -9042,11 +9589,11 @@
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>154</v>
+        <v>331</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
-      <c r="D244" s="2"/>
+      <c r="D244" s="16"/>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
       <c r="G244" s="2"/>
@@ -9057,12 +9604,12 @@
         <v>70</v>
       </c>
       <c r="J244" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K244" s="2"/>
       <c r="L244" s="2"/>
       <c r="M244" s="2">
-        <v>154</v>
+        <v>331</v>
       </c>
       <c r="N244" s="2"/>
       <c r="O244" s="2"/>
@@ -9070,11 +9617,11 @@
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>237</v>
+        <v>154</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
-      <c r="D245" s="2"/>
+      <c r="D245" s="16"/>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
@@ -9085,12 +9632,12 @@
         <v>70</v>
       </c>
       <c r="J245" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K245" s="2"/>
       <c r="L245" s="2"/>
       <c r="M245" s="2">
-        <v>237</v>
+        <v>154</v>
       </c>
       <c r="N245" s="2"/>
       <c r="O245" s="2"/>
@@ -9098,11 +9645,11 @@
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>354</v>
+        <v>237</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
-      <c r="D246" s="2"/>
+      <c r="D246" s="16"/>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
       <c r="G246" s="2"/>
@@ -9113,12 +9660,12 @@
         <v>70</v>
       </c>
       <c r="J246" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K246" s="2"/>
       <c r="L246" s="2"/>
       <c r="M246" s="2">
-        <v>354</v>
+        <v>237</v>
       </c>
       <c r="N246" s="2"/>
       <c r="O246" s="2"/>
@@ -9126,11 +9673,11 @@
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>33</v>
+        <v>354</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
-      <c r="D247" s="2"/>
+      <c r="D247" s="16"/>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
       <c r="G247" s="2"/>
@@ -9141,12 +9688,12 @@
         <v>70</v>
       </c>
       <c r="J247" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K247" s="2"/>
       <c r="L247" s="2"/>
       <c r="M247" s="2">
-        <v>33</v>
+        <v>354</v>
       </c>
       <c r="N247" s="2"/>
       <c r="O247" s="2"/>
@@ -9154,11 +9701,11 @@
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>389</v>
+        <v>33</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
-      <c r="D248" s="2"/>
+      <c r="D248" s="16"/>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
       <c r="G248" s="2"/>
@@ -9169,12 +9716,12 @@
         <v>70</v>
       </c>
       <c r="J248" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K248" s="2"/>
       <c r="L248" s="2"/>
       <c r="M248" s="2">
-        <v>389</v>
+        <v>33</v>
       </c>
       <c r="N248" s="2"/>
       <c r="O248" s="2"/>
@@ -9182,11 +9729,11 @@
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>106</v>
+        <v>389</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
-      <c r="D249" s="2"/>
+      <c r="D249" s="16"/>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
@@ -9197,12 +9744,12 @@
         <v>70</v>
       </c>
       <c r="J249" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K249" s="2"/>
       <c r="L249" s="2"/>
       <c r="M249" s="2">
-        <v>106</v>
+        <v>389</v>
       </c>
       <c r="N249" s="2"/>
       <c r="O249" s="2"/>
@@ -9210,11 +9757,11 @@
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>228</v>
+        <v>106</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
-      <c r="D250" s="2"/>
+      <c r="D250" s="16"/>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
       <c r="G250" s="2"/>
@@ -9225,12 +9772,12 @@
         <v>70</v>
       </c>
       <c r="J250" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K250" s="2"/>
       <c r="L250" s="2"/>
       <c r="M250" s="2">
-        <v>228</v>
+        <v>106</v>
       </c>
       <c r="N250" s="2"/>
       <c r="O250" s="2"/>
@@ -9238,11 +9785,11 @@
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
-      <c r="D251" s="2"/>
+      <c r="D251" s="16"/>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
       <c r="G251" s="2"/>
@@ -9253,12 +9800,12 @@
         <v>70</v>
       </c>
       <c r="J251" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K251" s="2"/>
       <c r="L251" s="2"/>
       <c r="M251" s="2">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="N251" s="2"/>
       <c r="O251" s="2"/>
@@ -9266,11 +9813,11 @@
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>275</v>
+        <v>173</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
-      <c r="D252" s="2"/>
+      <c r="D252" s="16"/>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
       <c r="G252" s="2"/>
@@ -9286,7 +9833,7 @@
       <c r="K252" s="2"/>
       <c r="L252" s="2"/>
       <c r="M252" s="2">
-        <v>275</v>
+        <v>173</v>
       </c>
       <c r="N252" s="2"/>
       <c r="O252" s="2"/>
@@ -9294,11 +9841,11 @@
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>116</v>
+        <v>275</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
-      <c r="D253" s="2"/>
+      <c r="D253" s="16"/>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
       <c r="G253" s="2"/>
@@ -9309,12 +9856,12 @@
         <v>70</v>
       </c>
       <c r="J253" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K253" s="2"/>
       <c r="L253" s="2"/>
       <c r="M253" s="2">
-        <v>116</v>
+        <v>275</v>
       </c>
       <c r="N253" s="2"/>
       <c r="O253" s="2"/>
@@ -9322,11 +9869,11 @@
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
-      <c r="D254" s="2"/>
+      <c r="D254" s="16"/>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
@@ -9337,12 +9884,12 @@
         <v>70</v>
       </c>
       <c r="J254" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K254" s="2"/>
       <c r="L254" s="2"/>
       <c r="M254" s="2">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="N254" s="2"/>
       <c r="O254" s="2"/>
@@ -9350,11 +9897,11 @@
     </row>
     <row r="255" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
-        <v>263</v>
+        <v>168</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
-      <c r="D255" s="2"/>
+      <c r="D255" s="16"/>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
       <c r="G255" s="2"/>
@@ -9365,12 +9912,12 @@
         <v>70</v>
       </c>
       <c r="J255" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K255" s="2"/>
       <c r="L255" s="2"/>
       <c r="M255" s="2">
-        <v>263</v>
+        <v>168</v>
       </c>
       <c r="N255" s="2"/>
       <c r="O255" s="2"/>
@@ -9378,11 +9925,11 @@
     </row>
     <row r="256" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>371</v>
+        <v>263</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
-      <c r="D256" s="2"/>
+      <c r="D256" s="16"/>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
       <c r="G256" s="2"/>
@@ -9393,12 +9940,12 @@
         <v>70</v>
       </c>
       <c r="J256" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K256" s="2"/>
       <c r="L256" s="2"/>
       <c r="M256" s="2">
-        <v>371</v>
+        <v>263</v>
       </c>
       <c r="N256" s="2"/>
       <c r="O256" s="2"/>
@@ -9406,11 +9953,11 @@
     </row>
     <row r="257" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>62</v>
+        <v>371</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
-      <c r="D257" s="2"/>
+      <c r="D257" s="16"/>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
       <c r="G257" s="2"/>
@@ -9426,7 +9973,7 @@
       <c r="K257" s="2"/>
       <c r="L257" s="2"/>
       <c r="M257" s="2">
-        <v>62</v>
+        <v>371</v>
       </c>
       <c r="N257" s="2"/>
       <c r="O257" s="2"/>
@@ -9434,11 +9981,11 @@
     </row>
     <row r="258" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>294</v>
+        <v>62</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
-      <c r="D258" s="2"/>
+      <c r="D258" s="16"/>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
       <c r="G258" s="2"/>
@@ -9449,12 +9996,12 @@
         <v>70</v>
       </c>
       <c r="J258" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K258" s="2"/>
       <c r="L258" s="2"/>
       <c r="M258" s="2">
-        <v>294</v>
+        <v>62</v>
       </c>
       <c r="N258" s="2"/>
       <c r="O258" s="2"/>
@@ -9462,11 +10009,11 @@
     </row>
     <row r="259" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>150</v>
+        <v>294</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
-      <c r="D259" s="2"/>
+      <c r="D259" s="16"/>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
@@ -9477,12 +10024,12 @@
         <v>70</v>
       </c>
       <c r="J259" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K259" s="2"/>
       <c r="L259" s="2"/>
       <c r="M259" s="2">
-        <v>150</v>
+        <v>294</v>
       </c>
       <c r="N259" s="2"/>
       <c r="O259" s="2"/>
@@ -9490,11 +10037,11 @@
     </row>
     <row r="260" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
-      <c r="D260" s="2"/>
+      <c r="D260" s="16"/>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
       <c r="G260" s="2"/>
@@ -9505,12 +10052,12 @@
         <v>70</v>
       </c>
       <c r="J260" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K260" s="2"/>
       <c r="L260" s="2"/>
       <c r="M260" s="2">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="N260" s="2"/>
       <c r="O260" s="2"/>
@@ -9518,11 +10065,11 @@
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>346</v>
+        <v>166</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
-      <c r="D261" s="2"/>
+      <c r="D261" s="16"/>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
       <c r="G261" s="2"/>
@@ -9533,12 +10080,12 @@
         <v>70</v>
       </c>
       <c r="J261" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K261" s="2"/>
       <c r="L261" s="2"/>
       <c r="M261" s="2">
-        <v>346</v>
+        <v>166</v>
       </c>
       <c r="N261" s="2"/>
       <c r="O261" s="2"/>
@@ -9546,11 +10093,11 @@
     </row>
     <row r="262" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
-        <v>258</v>
+        <v>346</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
-      <c r="D262" s="2"/>
+      <c r="D262" s="16"/>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
@@ -9561,12 +10108,12 @@
         <v>70</v>
       </c>
       <c r="J262" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K262" s="2"/>
       <c r="L262" s="2"/>
       <c r="M262" s="2">
-        <v>258</v>
+        <v>346</v>
       </c>
       <c r="N262" s="2"/>
       <c r="O262" s="2"/>
@@ -9574,11 +10121,11 @@
     </row>
     <row r="263" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
-      <c r="D263" s="2"/>
+      <c r="D263" s="16"/>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
       <c r="G263" s="2"/>
@@ -9589,12 +10136,12 @@
         <v>70</v>
       </c>
       <c r="J263" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K263" s="2"/>
       <c r="L263" s="2"/>
       <c r="M263" s="2">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="N263" s="2"/>
       <c r="O263" s="2"/>
@@ -9602,11 +10149,11 @@
     </row>
     <row r="264" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>70</v>
+        <v>239</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
-      <c r="D264" s="2"/>
+      <c r="D264" s="16"/>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
@@ -9617,102 +10164,102 @@
         <v>70</v>
       </c>
       <c r="J264" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K264" s="2"/>
       <c r="L264" s="2"/>
       <c r="M264" s="2">
-        <v>70</v>
+        <v>239</v>
       </c>
       <c r="N264" s="2"/>
       <c r="O264" s="2"/>
       <c r="P264" s="6"/>
     </row>
     <row r="265" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A265" s="3" t="s">
+      <c r="A265" s="2">
+        <v>70</v>
+      </c>
+      <c r="B265" s="2"/>
+      <c r="C265" s="2"/>
+      <c r="D265" s="16"/>
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
+      <c r="G265" s="2"/>
+      <c r="H265" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I265" s="2">
+        <v>70</v>
+      </c>
+      <c r="J265" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K265" s="2"/>
+      <c r="L265" s="2"/>
+      <c r="M265" s="2">
+        <v>70</v>
+      </c>
+      <c r="N265" s="2"/>
+      <c r="O265" s="2"/>
+      <c r="P265" s="6"/>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A266" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="B266" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="C266" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D265" s="3" t="s">
+      <c r="D266" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E265" s="3" t="s">
+      <c r="E266" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F265" s="3" t="s">
+      <c r="F266" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G265" s="3" t="s">
+      <c r="G266" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H265" s="3" t="s">
+      <c r="H266" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I265" s="3" t="s">
+      <c r="I266" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J265" s="3" t="s">
+      <c r="J266" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K265" s="3" t="s">
+      <c r="K266" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L265" s="3" t="s">
+      <c r="L266" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M265" s="3" t="s">
+      <c r="M266" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N265" s="3" t="s">
+      <c r="N266" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O265" s="3" t="s">
+      <c r="O266" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P265" s="5" t="s">
+      <c r="P266" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A266" s="2">
-        <v>326</v>
-      </c>
-      <c r="B266" s="2"/>
-      <c r="C266" s="2"/>
-      <c r="D266" s="2"/>
-      <c r="E266" s="2"/>
-      <c r="F266" s="2"/>
-      <c r="G266" s="2"/>
-      <c r="H266" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I266" s="2">
-        <v>70</v>
-      </c>
-      <c r="J266" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K266" s="2"/>
-      <c r="L266" s="2"/>
-      <c r="M266" s="2">
-        <v>326</v>
-      </c>
-      <c r="N266" s="2"/>
-      <c r="O266" s="2"/>
-      <c r="P266" s="6"/>
     </row>
     <row r="267" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
-      <c r="D267" s="2"/>
+      <c r="D267" s="16"/>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
@@ -9728,7 +10275,7 @@
       <c r="K267" s="2"/>
       <c r="L267" s="2"/>
       <c r="M267" s="2">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="N267" s="2"/>
       <c r="O267" s="2"/>
@@ -9736,11 +10283,11 @@
     </row>
     <row r="268" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>216</v>
+        <v>315</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
-      <c r="D268" s="2"/>
+      <c r="D268" s="16"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
@@ -9751,12 +10298,12 @@
         <v>70</v>
       </c>
       <c r="J268" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K268" s="2"/>
       <c r="L268" s="2"/>
       <c r="M268" s="2">
-        <v>216</v>
+        <v>315</v>
       </c>
       <c r="N268" s="2"/>
       <c r="O268" s="2"/>
@@ -9764,11 +10311,11 @@
     </row>
     <row r="269" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
-      <c r="D269" s="2"/>
+      <c r="D269" s="16"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
@@ -9779,12 +10326,12 @@
         <v>70</v>
       </c>
       <c r="J269" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K269" s="2"/>
       <c r="L269" s="2"/>
       <c r="M269" s="2">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="N269" s="2"/>
       <c r="O269" s="2"/>
@@ -9792,11 +10339,11 @@
     </row>
     <row r="270" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>283</v>
+        <v>194</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
-      <c r="D270" s="2"/>
+      <c r="D270" s="16"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
@@ -9812,7 +10359,7 @@
       <c r="K270" s="2"/>
       <c r="L270" s="2"/>
       <c r="M270" s="2">
-        <v>283</v>
+        <v>194</v>
       </c>
       <c r="N270" s="2"/>
       <c r="O270" s="2"/>
@@ -9820,11 +10367,11 @@
     </row>
     <row r="271" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>12</v>
+        <v>283</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
-      <c r="D271" s="2"/>
+      <c r="D271" s="16"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
@@ -9835,12 +10382,12 @@
         <v>70</v>
       </c>
       <c r="J271" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K271" s="2"/>
       <c r="L271" s="2"/>
       <c r="M271" s="2">
-        <v>12</v>
+        <v>283</v>
       </c>
       <c r="N271" s="2"/>
       <c r="O271" s="2"/>
@@ -9848,11 +10395,11 @@
     </row>
     <row r="272" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
-      <c r="D272" s="2"/>
+      <c r="D272" s="16"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
@@ -9863,12 +10410,12 @@
         <v>70</v>
       </c>
       <c r="J272" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K272" s="2"/>
       <c r="L272" s="2"/>
       <c r="M272" s="2">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="N272" s="2"/>
       <c r="O272" s="2"/>
@@ -9876,11 +10423,11 @@
     </row>
     <row r="273" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>391</v>
+        <v>214</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
-      <c r="D273" s="2"/>
+      <c r="D273" s="16"/>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
       <c r="G273" s="2"/>
@@ -9891,31 +10438,41 @@
         <v>70</v>
       </c>
       <c r="J273" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K273" s="2"/>
       <c r="L273" s="2"/>
       <c r="M273" s="2">
-        <v>391</v>
+        <v>214</v>
       </c>
       <c r="N273" s="2"/>
       <c r="O273" s="2"/>
       <c r="P273" s="6"/>
     </row>
     <row r="274" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A274" s="2"/>
+      <c r="A274" s="2">
+        <v>391</v>
+      </c>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
-      <c r="D274" s="2"/>
+      <c r="D274" s="16"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
       <c r="G274" s="2"/>
-      <c r="H274" s="2"/>
-      <c r="I274" s="2"/>
-      <c r="J274" s="2"/>
+      <c r="H274" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I274" s="2">
+        <v>70</v>
+      </c>
+      <c r="J274" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K274" s="2"/>
       <c r="L274" s="2"/>
-      <c r="M274" s="2"/>
+      <c r="M274" s="2">
+        <v>391</v>
+      </c>
       <c r="N274" s="2"/>
       <c r="O274" s="2"/>
       <c r="P274" s="6"/>
@@ -9924,7 +10481,7 @@
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
-      <c r="D275" s="2"/>
+      <c r="D275" s="16"/>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
       <c r="G275" s="2"/>
@@ -9942,7 +10499,7 @@
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
-      <c r="D276" s="2"/>
+      <c r="D276" s="16"/>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
       <c r="G276" s="2"/>
@@ -9960,7 +10517,7 @@
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
-      <c r="D277" s="2"/>
+      <c r="D277" s="16"/>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
       <c r="G277" s="2"/>
@@ -9978,7 +10535,7 @@
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
-      <c r="D278" s="2"/>
+      <c r="D278" s="16"/>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
       <c r="G278" s="2"/>
@@ -9996,7 +10553,7 @@
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
-      <c r="D279" s="2"/>
+      <c r="D279" s="16"/>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
       <c r="G279" s="2"/>
@@ -10014,7 +10571,7 @@
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
-      <c r="D280" s="2"/>
+      <c r="D280" s="16"/>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
       <c r="G280" s="2"/>
@@ -10032,7 +10589,7 @@
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
-      <c r="D281" s="2"/>
+      <c r="D281" s="16"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
@@ -10050,7 +10607,7 @@
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
-      <c r="D282" s="2"/>
+      <c r="D282" s="16"/>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
       <c r="G282" s="2"/>
@@ -10068,7 +10625,7 @@
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
-      <c r="D283" s="2"/>
+      <c r="D283" s="16"/>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
       <c r="G283" s="2"/>
@@ -10086,7 +10643,7 @@
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
-      <c r="D284" s="2"/>
+      <c r="D284" s="16"/>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
       <c r="G284" s="2"/>
@@ -10104,7 +10661,7 @@
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
-      <c r="D285" s="2"/>
+      <c r="D285" s="16"/>
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
       <c r="G285" s="2"/>
@@ -10122,7 +10679,7 @@
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
-      <c r="D286" s="2"/>
+      <c r="D286" s="16"/>
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
       <c r="G286" s="2"/>
@@ -10140,7 +10697,7 @@
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
-      <c r="D287" s="2"/>
+      <c r="D287" s="16"/>
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
       <c r="G287" s="2"/>
@@ -10158,7 +10715,7 @@
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
-      <c r="D288" s="2"/>
+      <c r="D288" s="16"/>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
@@ -10176,7 +10733,7 @@
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
-      <c r="D289" s="2"/>
+      <c r="D289" s="16"/>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
@@ -10194,7 +10751,7 @@
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
-      <c r="D290" s="2"/>
+      <c r="D290" s="16"/>
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
       <c r="G290" s="2"/>
@@ -10212,7 +10769,7 @@
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
-      <c r="D291" s="2"/>
+      <c r="D291" s="16"/>
       <c r="E291" s="2"/>
       <c r="F291" s="2"/>
       <c r="G291" s="2"/>
@@ -10230,7 +10787,7 @@
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
-      <c r="D292" s="2"/>
+      <c r="D292" s="16"/>
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
       <c r="G292" s="2"/>
@@ -10248,7 +10805,7 @@
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
-      <c r="D293" s="2"/>
+      <c r="D293" s="16"/>
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
       <c r="G293" s="2"/>
@@ -10266,7 +10823,7 @@
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
-      <c r="D294" s="2"/>
+      <c r="D294" s="16"/>
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
       <c r="G294" s="2"/>
@@ -10284,7 +10841,7 @@
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
-      <c r="D295" s="2"/>
+      <c r="D295" s="16"/>
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
@@ -10302,7 +10859,7 @@
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
-      <c r="D296" s="2"/>
+      <c r="D296" s="16"/>
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
@@ -10320,7 +10877,7 @@
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
-      <c r="D297" s="2"/>
+      <c r="D297" s="16"/>
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
@@ -10335,9 +10892,27 @@
       <c r="P297" s="6"/>
     </row>
     <row r="298" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O298" s="7"/>
-      <c r="P298" s="8"/>
-      <c r="Q298" s="7"/>
+      <c r="A298" s="2"/>
+      <c r="B298" s="2"/>
+      <c r="C298" s="2"/>
+      <c r="D298" s="16"/>
+      <c r="E298" s="2"/>
+      <c r="F298" s="2"/>
+      <c r="G298" s="2"/>
+      <c r="H298" s="2"/>
+      <c r="I298" s="2"/>
+      <c r="J298" s="2"/>
+      <c r="K298" s="2"/>
+      <c r="L298" s="2"/>
+      <c r="M298" s="2"/>
+      <c r="N298" s="2"/>
+      <c r="O298" s="2"/>
+      <c r="P298" s="6"/>
+    </row>
+    <row r="299" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O299" s="7"/>
+      <c r="P299" s="8"/>
+      <c r="Q299" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/flight_T2_data.xlsx
+++ b/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/flight_T2_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/SBB-dispersal/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00A5BDE-76F6-9645-B176-583ED5ABF3C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCC1790-0812-8840-869C-92A92898A0AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -186,6 +186,24 @@
   <si>
     <t>BC</t>
   </si>
+  <si>
+    <t>A-1 working on and off</t>
+  </si>
+  <si>
+    <t>flying in place, reposition at 11:17</t>
+  </si>
+  <si>
+    <t>9.1.21</t>
+  </si>
+  <si>
+    <t>put 140 in D then C</t>
+  </si>
+  <si>
+    <t>1 egg</t>
+  </si>
+  <si>
+    <t>near dead</t>
+  </si>
 </sst>
 </file>
 
@@ -193,7 +211,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="00#"/>
+    <numFmt numFmtId="165" formatCode="00#"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -751,7 +769,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -767,11 +785,14 @@
     <xf numFmtId="164" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1129,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="132" workbookViewId="0">
-      <selection activeCell="Q79" sqref="Q79"/>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="132" workbookViewId="0">
+      <selection activeCell="N187" sqref="N187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1148,7 +1169,7 @@
     <col min="11" max="11" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.1640625" style="21" customWidth="1"/>
     <col min="15" max="15" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" style="4" customWidth="1"/>
     <col min="17" max="16384" width="10.83203125" style="1"/>
@@ -1194,7 +1215,7 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="20" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
@@ -1240,7 +1261,7 @@
       <c r="M2" s="2">
         <v>329</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="11">
         <v>0.11799999999999999</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -1284,7 +1305,7 @@
       <c r="M3" s="2">
         <v>374</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="11">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="O3" s="2" t="s">
@@ -1330,7 +1351,7 @@
       <c r="M4" s="2">
         <v>348</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="11">
         <v>6.3E-2</v>
       </c>
       <c r="O4" s="2" t="s">
@@ -1468,7 +1489,7 @@
       <c r="M7" s="2">
         <v>337</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="11">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="O7" s="2" t="s">
@@ -1512,7 +1533,7 @@
       <c r="M8" s="2">
         <v>387</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="11">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="O8" s="2" t="s">
@@ -1546,7 +1567,7 @@
       <c r="M9" s="2">
         <v>32</v>
       </c>
-      <c r="N9" s="2"/>
+      <c r="N9" s="11"/>
       <c r="O9" s="2"/>
       <c r="P9" s="6"/>
     </row>
@@ -1588,7 +1609,7 @@
       <c r="M10" s="2">
         <v>225</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="11">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="O10" s="2" t="s">
@@ -1622,7 +1643,7 @@
       <c r="M11" s="2">
         <v>311</v>
       </c>
-      <c r="N11" s="2"/>
+      <c r="N11" s="11"/>
       <c r="O11" s="2"/>
       <c r="P11" s="6" t="s">
         <v>36</v>
@@ -1666,7 +1687,7 @@
       <c r="M12" s="2">
         <v>129</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="11">
         <v>0.10199999999999999</v>
       </c>
       <c r="O12" s="2" t="s">
@@ -1710,7 +1731,7 @@
       <c r="M13" s="2">
         <v>193</v>
       </c>
-      <c r="N13" s="2"/>
+      <c r="N13" s="11"/>
       <c r="O13" s="2" t="s">
         <v>46</v>
       </c>
@@ -1754,7 +1775,7 @@
       <c r="M14" s="2">
         <v>352</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="11">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="O14" s="2" t="s">
@@ -1798,7 +1819,7 @@
       <c r="M15" s="2">
         <v>205</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="11">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="O15" s="2" t="s">
@@ -1842,7 +1863,7 @@
       <c r="M16" s="2">
         <v>28</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="11">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="O16" s="2" t="s">
@@ -1888,7 +1909,7 @@
       <c r="M17" s="2">
         <v>327</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="11">
         <v>9.4E-2</v>
       </c>
       <c r="O17" s="2" t="s">
@@ -1932,7 +1953,7 @@
       <c r="M18" s="2">
         <v>288</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="11">
         <v>4.7E-2</v>
       </c>
       <c r="O18" s="2" t="s">
@@ -1978,7 +1999,7 @@
       <c r="M19" s="2">
         <v>143</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="11">
         <v>0.109</v>
       </c>
       <c r="O19" s="2" t="s">
@@ -2024,7 +2045,7 @@
       <c r="M20" s="2">
         <v>3</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="11">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="O20" s="2" t="s">
@@ -2100,7 +2121,7 @@
       <c r="M22" s="2">
         <v>350</v>
       </c>
-      <c r="N22" s="2"/>
+      <c r="N22" s="11"/>
       <c r="O22" s="2"/>
       <c r="P22" s="6"/>
     </row>
@@ -2188,7 +2209,7 @@
       <c r="M24" s="2">
         <v>114</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="11">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="O24" s="2" t="s">
@@ -2232,7 +2253,7 @@
       <c r="M25" s="2">
         <v>137</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="11">
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="O25" s="2" t="s">
@@ -2278,7 +2299,7 @@
       <c r="M26" s="2">
         <v>353</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="11">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="O26" s="2" t="s">
@@ -2322,7 +2343,7 @@
       <c r="M27" s="2">
         <v>63</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="11">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="O27" s="2" t="s">
@@ -2366,7 +2387,7 @@
       <c r="M28" s="2">
         <v>4</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="11">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="O28" s="2" t="s">
@@ -2410,7 +2431,7 @@
       <c r="M29" s="2">
         <v>169</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="11">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="O29" s="2" t="s">
@@ -2456,7 +2477,7 @@
       <c r="M30" s="2">
         <v>157</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="11">
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="O30" s="2" t="s">
@@ -2502,7 +2523,7 @@
       <c r="M31" s="2">
         <v>240</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="11">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="O31" s="2" t="s">
@@ -2546,7 +2567,7 @@
       <c r="M32" s="2">
         <v>395</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32" s="11">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="O32" s="2" t="s">
@@ -2628,7 +2649,7 @@
       <c r="M34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="N34" s="20" t="s">
         <v>13</v>
       </c>
       <c r="O34" s="3" t="s">
@@ -2676,7 +2697,7 @@
       <c r="M35" s="2">
         <v>190</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N35" s="11">
         <v>2.7E-2</v>
       </c>
       <c r="O35" s="2" t="s">
@@ -2722,7 +2743,7 @@
       <c r="M36" s="2">
         <v>120</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N36" s="11">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="O36" s="2" t="s">
@@ -2768,7 +2789,7 @@
       <c r="M37" s="2">
         <v>309</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N37" s="11">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="O37" s="2" t="s">
@@ -2856,7 +2877,7 @@
       <c r="M39" s="2">
         <v>105</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N39" s="11">
         <v>3.9E-2</v>
       </c>
       <c r="O39" s="2" t="s">
@@ -2944,7 +2965,7 @@
       <c r="M41" s="2">
         <v>278</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41" s="11">
         <v>3.9E-2</v>
       </c>
       <c r="O41" s="2" t="s">
@@ -2988,7 +3009,7 @@
       <c r="M42" s="2">
         <v>213</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N42" s="11">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="O42" s="2" t="s">
@@ -3032,7 +3053,7 @@
       <c r="M43" s="2">
         <v>57</v>
       </c>
-      <c r="N43" s="2">
+      <c r="N43" s="11">
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="O43" s="2" t="s">
@@ -3122,7 +3143,7 @@
       <c r="M45" s="2">
         <v>5</v>
       </c>
-      <c r="N45" s="2">
+      <c r="N45" s="11">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="O45" s="2" t="s">
@@ -3168,7 +3189,7 @@
       <c r="M46" s="2">
         <v>104</v>
       </c>
-      <c r="N46" s="2">
+      <c r="N46" s="11">
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="O46" s="2" t="s">
@@ -3214,7 +3235,7 @@
       <c r="M47" s="2">
         <v>351</v>
       </c>
-      <c r="N47" s="2">
+      <c r="N47" s="11">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="O47" s="2" t="s">
@@ -3258,7 +3279,7 @@
       <c r="M48" s="2">
         <v>370</v>
       </c>
-      <c r="N48" s="2">
+      <c r="N48" s="11">
         <v>4.7E-2</v>
       </c>
       <c r="O48" s="2" t="s">
@@ -3290,7 +3311,7 @@
       <c r="M49" s="2">
         <v>75</v>
       </c>
-      <c r="N49" s="2"/>
+      <c r="N49" s="11"/>
       <c r="O49" s="2"/>
       <c r="P49" s="6"/>
     </row>
@@ -3332,7 +3353,7 @@
       <c r="M50" s="2">
         <v>10</v>
       </c>
-      <c r="N50" s="2">
+      <c r="N50" s="11">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="O50" s="2" t="s">
@@ -3378,7 +3399,7 @@
       <c r="M51" s="2">
         <v>222</v>
       </c>
-      <c r="N51" s="2">
+      <c r="N51" s="11">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="O51" s="2" t="s">
@@ -3424,7 +3445,7 @@
       <c r="M52" s="2">
         <v>320</v>
       </c>
-      <c r="N52" s="2">
+      <c r="N52" s="11">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="O52" s="2" t="s">
@@ -3458,7 +3479,7 @@
       <c r="M53" s="2">
         <v>135</v>
       </c>
-      <c r="N53" s="2"/>
+      <c r="N53" s="11"/>
       <c r="O53" s="2"/>
       <c r="P53" s="6"/>
     </row>
@@ -3488,7 +3509,7 @@
       <c r="M54" s="2">
         <v>256</v>
       </c>
-      <c r="N54" s="2"/>
+      <c r="N54" s="11"/>
       <c r="O54" s="2"/>
       <c r="P54" s="6"/>
     </row>
@@ -3526,7 +3547,7 @@
       <c r="M55" s="2">
         <v>217</v>
       </c>
-      <c r="N55" s="2">
+      <c r="N55" s="11">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="O55" s="2" t="s">
@@ -3604,7 +3625,7 @@
       <c r="M57" s="2">
         <v>230</v>
       </c>
-      <c r="N57" s="2"/>
+      <c r="N57" s="11"/>
       <c r="O57" s="2"/>
       <c r="P57" s="6"/>
     </row>
@@ -3646,7 +3667,7 @@
       <c r="M58" s="2">
         <v>89</v>
       </c>
-      <c r="N58" s="2">
+      <c r="N58" s="11">
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="O58" s="2" t="s">
@@ -3692,7 +3713,7 @@
       <c r="M59" s="2">
         <v>218</v>
       </c>
-      <c r="N59" s="2">
+      <c r="N59" s="11">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="O59" s="2" t="s">
@@ -3736,7 +3757,7 @@
       <c r="M60" s="2">
         <v>188</v>
       </c>
-      <c r="N60" s="2">
+      <c r="N60" s="11">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="O60" s="2" t="s">
@@ -3826,7 +3847,7 @@
       <c r="M62" s="2">
         <v>38</v>
       </c>
-      <c r="N62" s="2">
+      <c r="N62" s="11">
         <v>4.7E-2</v>
       </c>
       <c r="O62" s="2" t="s">
@@ -3870,7 +3891,7 @@
       <c r="M63" s="2">
         <v>103</v>
       </c>
-      <c r="N63" s="2">
+      <c r="N63" s="11">
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="O63" s="2" t="s">
@@ -3906,7 +3927,7 @@
       <c r="M64" s="2">
         <v>102</v>
       </c>
-      <c r="N64" s="2"/>
+      <c r="N64" s="11"/>
       <c r="O64" s="2"/>
       <c r="P64" s="9" t="s">
         <v>27</v>
@@ -3950,7 +3971,7 @@
       <c r="M65" s="2">
         <v>212</v>
       </c>
-      <c r="N65" s="2">
+      <c r="N65" s="11">
         <v>0.104</v>
       </c>
       <c r="O65" s="2" t="s">
@@ -3982,7 +4003,7 @@
       <c r="M66" s="2">
         <v>176</v>
       </c>
-      <c r="N66" s="2"/>
+      <c r="N66" s="11"/>
       <c r="O66" s="2"/>
       <c r="P66" s="6" t="s">
         <v>36</v>
@@ -4028,7 +4049,7 @@
       <c r="M67" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N67" s="3" t="s">
+      <c r="N67" s="20" t="s">
         <v>13</v>
       </c>
       <c r="O67" s="3" t="s">
@@ -4076,7 +4097,7 @@
       <c r="M68" s="2">
         <v>349</v>
       </c>
-      <c r="N68" s="2">
+      <c r="N68" s="11">
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="O68" s="2" t="s">
@@ -4110,7 +4131,7 @@
       <c r="M69" s="2">
         <v>96</v>
       </c>
-      <c r="N69" s="2"/>
+      <c r="N69" s="11"/>
       <c r="O69" s="2"/>
       <c r="P69" s="6"/>
     </row>
@@ -4150,7 +4171,7 @@
       <c r="M70" s="2">
         <v>377</v>
       </c>
-      <c r="N70" s="2">
+      <c r="N70" s="11">
         <v>3.9E-2</v>
       </c>
       <c r="O70" s="2" t="s">
@@ -4196,7 +4217,7 @@
       <c r="M71" s="2">
         <v>343</v>
       </c>
-      <c r="N71" s="2">
+      <c r="N71" s="11">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="O71" s="2" t="s">
@@ -4242,7 +4263,7 @@
       <c r="M72" s="2">
         <v>204</v>
       </c>
-      <c r="N72" s="2">
+      <c r="N72" s="11">
         <v>6.3E-2</v>
       </c>
       <c r="O72" s="2" t="s">
@@ -4286,7 +4307,7 @@
       <c r="M73" s="2">
         <v>360</v>
       </c>
-      <c r="N73" s="2">
+      <c r="N73" s="11">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="O73" s="2" t="s">
@@ -4332,7 +4353,7 @@
       <c r="M74" s="2">
         <v>207</v>
       </c>
-      <c r="N74" s="2">
+      <c r="N74" s="11">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="O74" s="2" t="s">
@@ -4378,7 +4399,7 @@
       <c r="M75" s="2">
         <v>126</v>
       </c>
-      <c r="N75" s="2">
+      <c r="N75" s="11">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="O75" s="2" t="s">
@@ -4422,7 +4443,7 @@
       <c r="M76" s="2">
         <v>153</v>
       </c>
-      <c r="N76" s="2">
+      <c r="N76" s="11">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="O76" s="2" t="s">
@@ -4468,7 +4489,7 @@
       <c r="M77" s="2">
         <v>196</v>
       </c>
-      <c r="N77" s="2">
+      <c r="N77" s="11">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="O77" s="2" t="s">
@@ -4514,7 +4535,7 @@
       <c r="M78" s="2">
         <v>246</v>
       </c>
-      <c r="N78" s="2">
+      <c r="N78" s="11">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="O78" s="2" t="s">
@@ -4560,7 +4581,7 @@
       <c r="M79" s="2">
         <v>396</v>
       </c>
-      <c r="N79" s="2">
+      <c r="N79" s="11">
         <v>3.1E-2</v>
       </c>
       <c r="O79" s="2" t="s">
@@ -4604,7 +4625,7 @@
       <c r="M80" s="2">
         <v>136</v>
       </c>
-      <c r="N80" s="2">
+      <c r="N80" s="11">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="O80" s="2" t="s">
@@ -4650,7 +4671,7 @@
       <c r="M81" s="2">
         <v>305</v>
       </c>
-      <c r="N81" s="2">
+      <c r="N81" s="11">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="O81" s="2" t="s">
@@ -4693,7 +4714,7 @@
       <c r="M82" s="2">
         <v>313</v>
       </c>
-      <c r="N82" s="2">
+      <c r="N82" s="11">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="O82" s="2" t="s">
@@ -4737,7 +4758,7 @@
       <c r="M83" s="2">
         <v>285</v>
       </c>
-      <c r="N83" s="2">
+      <c r="N83" s="11">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="O83" s="2" t="s">
@@ -4781,7 +4802,7 @@
       <c r="M84" s="2">
         <v>308</v>
       </c>
-      <c r="N84" s="2">
+      <c r="N84" s="11">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="O84" s="2" t="s">
@@ -4827,7 +4848,7 @@
       <c r="M85" s="2">
         <v>338</v>
       </c>
-      <c r="N85" s="2">
+      <c r="N85" s="11">
         <v>3.9E-2</v>
       </c>
       <c r="O85" s="2" t="s">
@@ -4859,7 +4880,7 @@
       <c r="M86" s="2">
         <v>301</v>
       </c>
-      <c r="N86" s="2"/>
+      <c r="N86" s="11"/>
       <c r="O86" s="2"/>
       <c r="P86" s="6" t="s">
         <v>52</v>
@@ -4901,7 +4922,7 @@
       <c r="M87" s="2">
         <v>229</v>
       </c>
-      <c r="N87" s="2">
+      <c r="N87" s="11">
         <v>0.126</v>
       </c>
       <c r="O87" s="2" t="s">
@@ -4945,7 +4966,7 @@
       <c r="M88" s="2">
         <v>69</v>
       </c>
-      <c r="N88" s="2">
+      <c r="N88" s="11">
         <v>2.3E-2</v>
       </c>
       <c r="O88" s="2" t="s">
@@ -4991,7 +5012,7 @@
       <c r="M89" s="2">
         <v>336</v>
       </c>
-      <c r="N89" s="2">
+      <c r="N89" s="11">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="O89" s="2" t="s">
@@ -5025,7 +5046,7 @@
       <c r="M90" s="2">
         <v>2</v>
       </c>
-      <c r="N90" s="2"/>
+      <c r="N90" s="11"/>
       <c r="O90" s="2"/>
       <c r="P90" s="6"/>
     </row>
@@ -5067,7 +5088,7 @@
       <c r="M91" s="2">
         <v>85</v>
       </c>
-      <c r="N91" s="2">
+      <c r="N91" s="11">
         <v>0.04</v>
       </c>
       <c r="O91" s="2" t="s">
@@ -5113,7 +5134,7 @@
       <c r="M92" s="2">
         <v>23</v>
       </c>
-      <c r="N92" s="2">
+      <c r="N92" s="11">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="O92" s="2" t="s">
@@ -5157,7 +5178,7 @@
       <c r="M93" s="2">
         <v>73</v>
       </c>
-      <c r="N93" s="2">
+      <c r="N93" s="11">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="O93" s="2" t="s">
@@ -5203,7 +5224,7 @@
       <c r="M94" s="2">
         <v>244</v>
       </c>
-      <c r="N94" s="2">
+      <c r="N94" s="11">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="O94" s="2" t="s">
@@ -5249,7 +5270,7 @@
       <c r="M95" s="2">
         <v>317</v>
       </c>
-      <c r="N95" s="2">
+      <c r="N95" s="11">
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="O95" s="2" t="s">
@@ -5295,7 +5316,7 @@
       <c r="M96" s="2">
         <v>259</v>
       </c>
-      <c r="N96" s="2">
+      <c r="N96" s="11">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="O96" s="2" t="s">
@@ -5341,7 +5362,7 @@
       <c r="M97" s="2">
         <v>341</v>
       </c>
-      <c r="N97" s="2">
+      <c r="N97" s="11">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="O97" s="2" t="s">
@@ -5387,7 +5408,7 @@
       <c r="M98" s="2">
         <v>201</v>
       </c>
-      <c r="N98" s="2">
+      <c r="N98" s="11">
         <v>0.105</v>
       </c>
       <c r="O98" s="2" t="s">
@@ -5421,7 +5442,7 @@
       <c r="M99" s="2">
         <v>393</v>
       </c>
-      <c r="N99" s="2"/>
+      <c r="N99" s="11"/>
       <c r="O99" s="2"/>
       <c r="P99" s="6"/>
     </row>
@@ -5463,7 +5484,7 @@
       <c r="M100" s="2">
         <v>75</v>
       </c>
-      <c r="N100" s="2">
+      <c r="N100" s="11">
         <v>0.11</v>
       </c>
       <c r="O100" s="2" t="s">
@@ -5511,7 +5532,7 @@
       <c r="M101" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N101" s="3" t="s">
+      <c r="N101" s="20" t="s">
         <v>13</v>
       </c>
       <c r="O101" s="3" t="s">
@@ -5526,11 +5547,21 @@
         <v>253</v>
       </c>
       <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
+      <c r="C102" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D102" s="16">
+        <v>9</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F102" s="10">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="G102" s="10">
+        <v>0.42430555555555555</v>
+      </c>
       <c r="H102" s="2" t="s">
         <v>16</v>
       </c>
@@ -5540,13 +5571,19 @@
       <c r="J102" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K102" s="2"/>
+      <c r="K102" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L102" s="2"/>
       <c r="M102" s="2">
         <v>253</v>
       </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
+      <c r="N102" s="11">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P102" s="6"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
@@ -5554,11 +5591,21 @@
         <v>50</v>
       </c>
       <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
+      <c r="C103" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D103" s="16">
+        <v>9</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F103" s="10">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="G103" s="10">
+        <v>0.42430555555555555</v>
+      </c>
       <c r="H103" s="2" t="s">
         <v>16</v>
       </c>
@@ -5568,13 +5615,21 @@
       <c r="J103" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
+      <c r="K103" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M103" s="2">
         <v>50</v>
       </c>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
+      <c r="N103" s="11">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P103" s="6"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
@@ -5601,20 +5656,32 @@
       <c r="M104" s="2">
         <v>227</v>
       </c>
-      <c r="N104" s="2"/>
+      <c r="N104" s="11"/>
       <c r="O104" s="2"/>
-      <c r="P104" s="6"/>
+      <c r="P104" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>262</v>
       </c>
       <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
+      <c r="C105" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D105" s="16">
+        <v>9</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F105" s="10">
+        <v>0.40625</v>
+      </c>
+      <c r="G105" s="10">
+        <v>0.43333333333333335</v>
+      </c>
       <c r="H105" s="2" t="s">
         <v>16</v>
       </c>
@@ -5624,13 +5691,21 @@
       <c r="J105" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
+      <c r="K105" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M105" s="2">
         <v>262</v>
       </c>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
+      <c r="N105" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="P105" s="6"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
@@ -5638,11 +5713,21 @@
         <v>372</v>
       </c>
       <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
+      <c r="C106" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D106" s="16">
+        <v>9</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F106" s="10">
+        <v>0.4069444444444445</v>
+      </c>
+      <c r="G106" s="10">
+        <v>0.43333333333333335</v>
+      </c>
       <c r="H106" s="2" t="s">
         <v>16</v>
       </c>
@@ -5652,13 +5737,21 @@
       <c r="J106" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
+      <c r="K106" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M106" s="2">
         <v>372</v>
       </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
+      <c r="N106" s="11">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="O106" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P106" s="6"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
@@ -5666,11 +5759,21 @@
         <v>27</v>
       </c>
       <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
+      <c r="C107" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D107" s="16">
+        <v>9</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F107" s="10">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="G107" s="10">
+        <v>0.65625</v>
+      </c>
       <c r="H107" s="2" t="s">
         <v>16</v>
       </c>
@@ -5680,13 +5783,21 @@
       <c r="J107" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
+      <c r="K107" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="M107" s="2">
         <v>27</v>
       </c>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
+      <c r="N107" s="11">
+        <v>3.1E-2</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P107" s="6"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
@@ -5694,11 +5805,21 @@
         <v>298</v>
       </c>
       <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
+      <c r="C108" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D108" s="16">
+        <v>9</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F108" s="10">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="G108" s="10">
+        <v>0.43333333333333335</v>
+      </c>
       <c r="H108" s="2" t="s">
         <v>16</v>
       </c>
@@ -5708,20 +5829,28 @@
       <c r="J108" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K108" s="2"/>
+      <c r="K108" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L108" s="2"/>
       <c r="M108" s="2">
         <v>298</v>
       </c>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
+      <c r="N108" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="P108" s="6"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>119</v>
       </c>
-      <c r="B109" s="2"/>
+      <c r="B109" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C109" s="2"/>
       <c r="D109" s="16"/>
       <c r="E109" s="2"/>
@@ -5741,7 +5870,6 @@
       <c r="M109" s="2">
         <v>119</v>
       </c>
-      <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" s="6"/>
     </row>
@@ -5750,11 +5878,21 @@
         <v>250</v>
       </c>
       <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
+      <c r="C110" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D110" s="16">
+        <v>9</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F110" s="10">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="G110" s="10">
+        <v>0.44930555555555557</v>
+      </c>
       <c r="H110" s="2" t="s">
         <v>16</v>
       </c>
@@ -5764,13 +5902,21 @@
       <c r="J110" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
+      <c r="K110" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M110" s="2">
         <v>250</v>
       </c>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
+      <c r="N110" s="11">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="O110" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P110" s="6"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
@@ -5778,11 +5924,21 @@
         <v>184</v>
       </c>
       <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
+      <c r="C111" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D111" s="16">
+        <v>9</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F111" s="10">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="G111" s="10">
+        <v>0.43333333333333335</v>
+      </c>
       <c r="H111" s="2" t="s">
         <v>16</v>
       </c>
@@ -5792,13 +5948,19 @@
       <c r="J111" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K111" s="2"/>
+      <c r="K111" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L111" s="2"/>
       <c r="M111" s="2">
         <v>184</v>
       </c>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
+      <c r="N111" s="11">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="P111" s="6"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
@@ -5806,11 +5968,21 @@
         <v>260</v>
       </c>
       <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
+      <c r="C112" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" s="16">
+        <v>9</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F112" s="10">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="G112" s="10">
+        <v>0.45069444444444445</v>
+      </c>
       <c r="H112" s="2" t="s">
         <v>16</v>
       </c>
@@ -5820,25 +5992,45 @@
       <c r="J112" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
+      <c r="K112" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M112" s="2">
         <v>260</v>
       </c>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
-      <c r="P112" s="6"/>
+      <c r="N112" s="11">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P112" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>117</v>
       </c>
       <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
+      <c r="C113" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D113" s="16">
+        <v>9</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F113" s="10">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="G113" s="10">
+        <v>0.45069444444444445</v>
+      </c>
       <c r="H113" s="2" t="s">
         <v>16</v>
       </c>
@@ -5848,13 +6040,19 @@
       <c r="J113" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K113" s="2"/>
+      <c r="K113" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L113" s="2"/>
       <c r="M113" s="2">
         <v>117</v>
       </c>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
+      <c r="N113" s="11">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P113" s="6"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
@@ -5862,11 +6060,21 @@
         <v>61</v>
       </c>
       <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
+      <c r="C114" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D114" s="16">
+        <v>9</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F114" s="10">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="G114" s="10">
+        <v>0.45069444444444445</v>
+      </c>
       <c r="H114" s="2" t="s">
         <v>16</v>
       </c>
@@ -5876,13 +6084,19 @@
       <c r="J114" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K114" s="2"/>
+      <c r="K114" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L114" s="2"/>
       <c r="M114" s="2">
         <v>61</v>
       </c>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
+      <c r="N114" s="11">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="P114" s="6"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
@@ -5890,11 +6104,21 @@
         <v>35</v>
       </c>
       <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
+      <c r="C115" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D115" s="16">
+        <v>9</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F115" s="10">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="G115" s="10">
+        <v>0.45069444444444445</v>
+      </c>
       <c r="H115" s="2" t="s">
         <v>16</v>
       </c>
@@ -5904,13 +6128,21 @@
       <c r="J115" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
+      <c r="K115" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M115" s="2">
         <v>35</v>
       </c>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
+      <c r="N115" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P115" s="6"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
@@ -5918,11 +6150,21 @@
         <v>22</v>
       </c>
       <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
+      <c r="C116" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D116" s="16">
+        <v>9</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F116" s="10">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="G116" s="10">
+        <v>0.45069444444444445</v>
+      </c>
       <c r="H116" s="2" t="s">
         <v>16</v>
       </c>
@@ -5932,13 +6174,19 @@
       <c r="J116" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K116" s="2"/>
+      <c r="K116" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L116" s="2"/>
       <c r="M116" s="2">
         <v>22</v>
       </c>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
+      <c r="N116" s="11">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="P116" s="6"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
@@ -5967,7 +6215,7 @@
       <c r="M117" s="2">
         <v>347</v>
       </c>
-      <c r="N117" s="2"/>
+      <c r="N117" s="11"/>
       <c r="O117" s="2"/>
       <c r="P117" s="6"/>
     </row>
@@ -5976,11 +6224,21 @@
         <v>281</v>
       </c>
       <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
+      <c r="C118" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D118" s="16">
+        <v>9</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F118" s="10">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="G118" s="10">
+        <v>0.4513888888888889</v>
+      </c>
       <c r="H118" s="2" t="s">
         <v>16</v>
       </c>
@@ -5990,13 +6248,19 @@
       <c r="J118" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K118" s="2"/>
+      <c r="K118" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L118" s="2"/>
       <c r="M118" s="2">
         <v>281</v>
       </c>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
+      <c r="N118" s="11">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P118" s="6"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
@@ -6004,11 +6268,21 @@
         <v>66</v>
       </c>
       <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
+      <c r="C119" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D119" s="16">
+        <v>9</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F119" s="10">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="G119" s="10">
+        <v>0.4513888888888889</v>
+      </c>
       <c r="H119" s="2" t="s">
         <v>16</v>
       </c>
@@ -6018,13 +6292,19 @@
       <c r="J119" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K119" s="2"/>
+      <c r="K119" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L119" s="2"/>
       <c r="M119" s="2">
         <v>66</v>
       </c>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
+      <c r="N119" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="O119" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P119" s="6"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
@@ -6032,11 +6312,21 @@
         <v>314</v>
       </c>
       <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
+      <c r="C120" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D120" s="16">
+        <v>9</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F120" s="10">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="G120" s="10">
+        <v>0.4513888888888889</v>
+      </c>
       <c r="H120" s="2" t="s">
         <v>16</v>
       </c>
@@ -6046,13 +6336,21 @@
       <c r="J120" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
+      <c r="K120" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M120" s="2">
         <v>314</v>
       </c>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
+      <c r="N120" s="11">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P120" s="6"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
@@ -6060,11 +6358,21 @@
         <v>286</v>
       </c>
       <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
+      <c r="C121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D121" s="16">
+        <v>9</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F121" s="10">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="G121" s="10">
+        <v>0.45763888888888887</v>
+      </c>
       <c r="H121" s="2" t="s">
         <v>16</v>
       </c>
@@ -6074,13 +6382,19 @@
       <c r="J121" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K121" s="2"/>
+      <c r="K121" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L121" s="2"/>
       <c r="M121" s="2">
         <v>286</v>
       </c>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
+      <c r="N121" s="11">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="O121" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P121" s="6"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
@@ -6088,11 +6402,21 @@
         <v>339</v>
       </c>
       <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
+      <c r="C122" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D122" s="16">
+        <v>9</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F122" s="10">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="G122" s="10">
+        <v>0.45763888888888887</v>
+      </c>
       <c r="H122" s="2" t="s">
         <v>16</v>
       </c>
@@ -6102,13 +6426,21 @@
       <c r="J122" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
+      <c r="K122" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M122" s="2">
         <v>339</v>
       </c>
-      <c r="N122" s="2"/>
-      <c r="O122" s="2"/>
+      <c r="N122" s="11">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="O122" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="P122" s="6"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
@@ -6116,11 +6448,21 @@
         <v>127</v>
       </c>
       <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
+      <c r="C123" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D123" s="16">
+        <v>9</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F123" s="10">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="G123" s="10">
+        <v>0.45763888888888887</v>
+      </c>
       <c r="H123" s="2" t="s">
         <v>16</v>
       </c>
@@ -6130,13 +6472,19 @@
       <c r="J123" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K123" s="2"/>
+      <c r="K123" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L123" s="2"/>
       <c r="M123" s="2">
         <v>127</v>
       </c>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2"/>
+      <c r="N123" s="11">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="O123" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P123" s="6"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
@@ -6144,11 +6492,21 @@
         <v>60</v>
       </c>
       <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
+      <c r="C124" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D124" s="16">
+        <v>9</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F124" s="10">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="G124" s="10">
+        <v>0.65208333333333335</v>
+      </c>
       <c r="H124" s="2" t="s">
         <v>16</v>
       </c>
@@ -6158,13 +6516,21 @@
       <c r="J124" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K124" s="2"/>
-      <c r="L124" s="2"/>
+      <c r="K124" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M124" s="2">
         <v>60</v>
       </c>
-      <c r="N124" s="2"/>
-      <c r="O124" s="2"/>
+      <c r="N124" s="11">
+        <v>7.8E-2</v>
+      </c>
+      <c r="O124" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P124" s="6"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
@@ -6172,11 +6538,21 @@
         <v>287</v>
       </c>
       <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
+      <c r="C125" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D125" s="16">
+        <v>9</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F125" s="10">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="G125" s="10">
+        <v>0.45763888888888887</v>
+      </c>
       <c r="H125" s="2" t="s">
         <v>16</v>
       </c>
@@ -6186,13 +6562,21 @@
       <c r="J125" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K125" s="2"/>
-      <c r="L125" s="2"/>
+      <c r="K125" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L125" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M125" s="2">
         <v>287</v>
       </c>
-      <c r="N125" s="2"/>
-      <c r="O125" s="2"/>
+      <c r="N125" s="11">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="O125" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P125" s="6"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
@@ -6200,11 +6584,21 @@
         <v>134</v>
       </c>
       <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
+      <c r="C126" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" s="16">
+        <v>9</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F126" s="10">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="G126" s="10">
+        <v>0.47847222222222219</v>
+      </c>
       <c r="H126" s="2" t="s">
         <v>16</v>
       </c>
@@ -6214,13 +6608,21 @@
       <c r="J126" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K126" s="2"/>
-      <c r="L126" s="2"/>
+      <c r="K126" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M126" s="2">
         <v>134</v>
       </c>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
+      <c r="N126" s="11">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="O126" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P126" s="6"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
@@ -6228,11 +6630,21 @@
         <v>43</v>
       </c>
       <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
+      <c r="C127" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D127" s="16">
+        <v>9</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F127" s="10">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="G127" s="10">
+        <v>0.47847222222222219</v>
+      </c>
       <c r="H127" s="2" t="s">
         <v>16</v>
       </c>
@@ -6242,13 +6654,19 @@
       <c r="J127" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K127" s="2"/>
+      <c r="K127" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L127" s="2"/>
       <c r="M127" s="2">
         <v>43</v>
       </c>
-      <c r="N127" s="2"/>
-      <c r="O127" s="2"/>
+      <c r="N127" s="11">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="O127" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="P127" s="6"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
@@ -6256,11 +6674,21 @@
         <v>355</v>
       </c>
       <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
+      <c r="C128" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D128" s="16">
+        <v>9</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F128" s="10">
+        <v>0.45416666666666666</v>
+      </c>
+      <c r="G128" s="10">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="H128" s="2" t="s">
         <v>16</v>
       </c>
@@ -6270,25 +6698,45 @@
       <c r="J128" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
+      <c r="K128" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M128" s="2">
         <v>355</v>
       </c>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
-      <c r="P128" s="6"/>
+      <c r="N128" s="11">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="O128" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P128" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>164</v>
       </c>
       <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="16"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
+      <c r="C129" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D129" s="16">
+        <v>9</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F129" s="10">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="G129" s="10">
+        <v>0.47847222222222219</v>
+      </c>
       <c r="H129" s="2" t="s">
         <v>16</v>
       </c>
@@ -6298,13 +6746,21 @@
       <c r="J129" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K129" s="2"/>
-      <c r="L129" s="2"/>
+      <c r="K129" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M129" s="2">
         <v>164</v>
       </c>
-      <c r="N129" s="2"/>
-      <c r="O129" s="2"/>
+      <c r="N129" s="11">
+        <v>0.108</v>
+      </c>
+      <c r="O129" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P129" s="6"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
@@ -6312,11 +6768,21 @@
         <v>36</v>
       </c>
       <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="16"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
+      <c r="C130" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D130" s="16">
+        <v>9</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F130" s="10">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="G130" s="10">
+        <v>0.47847222222222219</v>
+      </c>
       <c r="H130" s="2" t="s">
         <v>16</v>
       </c>
@@ -6326,13 +6792,19 @@
       <c r="J130" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K130" s="2"/>
+      <c r="K130" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L130" s="2"/>
       <c r="M130" s="2">
         <v>36</v>
       </c>
-      <c r="N130" s="2"/>
-      <c r="O130" s="2"/>
+      <c r="N130" s="11">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="O130" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="P130" s="6"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
@@ -6340,11 +6812,21 @@
         <v>130</v>
       </c>
       <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="16"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
+      <c r="C131" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D131" s="16">
+        <v>9</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F131" s="10">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="G131" s="10">
+        <v>0.55069444444444449</v>
+      </c>
       <c r="H131" s="2" t="s">
         <v>16</v>
       </c>
@@ -6354,13 +6836,21 @@
       <c r="J131" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K131" s="2"/>
-      <c r="L131" s="2"/>
+      <c r="K131" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L131" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="M131" s="2">
         <v>130</v>
       </c>
-      <c r="N131" s="2"/>
-      <c r="O131" s="2"/>
+      <c r="N131" s="11">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="O131" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="P131" s="6"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
@@ -6368,11 +6858,21 @@
         <v>45</v>
       </c>
       <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="16"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
+      <c r="C132" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D132" s="16">
+        <v>9</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F132" s="10">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="G132" s="10">
+        <v>0.47847222222222219</v>
+      </c>
       <c r="H132" s="2" t="s">
         <v>16</v>
       </c>
@@ -6382,13 +6882,19 @@
       <c r="J132" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K132" s="2"/>
+      <c r="K132" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L132" s="2"/>
       <c r="M132" s="2">
         <v>45</v>
       </c>
-      <c r="N132" s="2"/>
-      <c r="O132" s="2"/>
+      <c r="N132" s="11">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="O132" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P132" s="6"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
@@ -6396,11 +6902,21 @@
         <v>380</v>
       </c>
       <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="16"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
+      <c r="C133" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D133" s="16">
+        <v>9</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F133" s="10">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="G133" s="10">
+        <v>0.47847222222222219</v>
+      </c>
       <c r="H133" s="2" t="s">
         <v>16</v>
       </c>
@@ -6410,13 +6926,19 @@
       <c r="J133" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K133" s="2"/>
+      <c r="K133" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="L133" s="2"/>
       <c r="M133" s="2">
         <v>380</v>
       </c>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
+      <c r="N133" s="11">
+        <v>3.9E-2</v>
+      </c>
+      <c r="O133" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P133" s="6"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
@@ -6459,7 +6981,7 @@
       <c r="M134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N134" s="3" t="s">
+      <c r="N134" s="20" t="s">
         <v>13</v>
       </c>
       <c r="O134" s="3" t="s">
@@ -6493,20 +7015,32 @@
       <c r="M135" s="2">
         <v>192</v>
       </c>
-      <c r="N135" s="2"/>
+      <c r="N135" s="11"/>
       <c r="O135" s="2"/>
-      <c r="P135" s="6"/>
+      <c r="P135" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>215</v>
       </c>
       <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
+      <c r="C136" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D136" s="16">
+        <v>9</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F136" s="10">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="G136" s="10">
+        <v>0.4861111111111111</v>
+      </c>
       <c r="H136" s="2" t="s">
         <v>16</v>
       </c>
@@ -6516,13 +7050,21 @@
       <c r="J136" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K136" s="2"/>
-      <c r="L136" s="2"/>
+      <c r="K136" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="M136" s="2">
         <v>215</v>
       </c>
-      <c r="N136" s="2"/>
-      <c r="O136" s="2"/>
+      <c r="N136" s="11">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="O136" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P136" s="6"/>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
@@ -6530,11 +7072,21 @@
         <v>247</v>
       </c>
       <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="16"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
+      <c r="C137" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D137" s="16">
+        <v>9</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F137" s="10">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="G137" s="10">
+        <v>0.48333333333333334</v>
+      </c>
       <c r="H137" s="2" t="s">
         <v>16</v>
       </c>
@@ -6544,13 +7096,21 @@
       <c r="J137" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K137" s="2"/>
-      <c r="L137" s="2"/>
+      <c r="K137" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L137" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M137" s="2">
         <v>247</v>
       </c>
-      <c r="N137" s="2"/>
-      <c r="O137" s="2"/>
+      <c r="N137" s="11">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="O137" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="P137" s="6"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
@@ -6558,11 +7118,21 @@
         <v>241</v>
       </c>
       <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="16"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
+      <c r="C138" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D138" s="16">
+        <v>9</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F138" s="10">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="G138" s="10">
+        <v>0.48333333333333334</v>
+      </c>
       <c r="H138" s="2" t="s">
         <v>16</v>
       </c>
@@ -6572,13 +7142,19 @@
       <c r="J138" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K138" s="2"/>
+      <c r="K138" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L138" s="2"/>
       <c r="M138" s="2">
         <v>241</v>
       </c>
-      <c r="N138" s="2"/>
-      <c r="O138" s="2"/>
+      <c r="N138" s="11">
+        <v>4.7E-2</v>
+      </c>
+      <c r="O138" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P138" s="6"/>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
@@ -6586,11 +7162,21 @@
         <v>124</v>
       </c>
       <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="16"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
+      <c r="C139" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D139" s="16">
+        <v>9</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F139" s="10">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="G139" s="10">
+        <v>0.49791666666666662</v>
+      </c>
       <c r="H139" s="2" t="s">
         <v>16</v>
       </c>
@@ -6600,13 +7186,21 @@
       <c r="J139" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
+      <c r="K139" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M139" s="2">
         <v>124</v>
       </c>
-      <c r="N139" s="2"/>
-      <c r="O139" s="2"/>
+      <c r="N139" s="11">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="O139" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P139" s="6"/>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
@@ -6614,11 +7208,21 @@
         <v>394</v>
       </c>
       <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="16"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
+      <c r="C140" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D140" s="16">
+        <v>9</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F140" s="10">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="G140" s="10">
+        <v>0.48402777777777778</v>
+      </c>
       <c r="H140" s="2" t="s">
         <v>16</v>
       </c>
@@ -6628,13 +7232,19 @@
       <c r="J140" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K140" s="2"/>
+      <c r="K140" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L140" s="2"/>
       <c r="M140" s="2">
         <v>394</v>
       </c>
-      <c r="N140" s="2"/>
-      <c r="O140" s="2"/>
+      <c r="N140" s="11">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="O140" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P140" s="6"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
@@ -6642,11 +7252,21 @@
         <v>202</v>
       </c>
       <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="16"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
+      <c r="C141" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" s="16">
+        <v>9</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F141" s="10">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="G141" s="10">
+        <v>0.50416666666666665</v>
+      </c>
       <c r="H141" s="2" t="s">
         <v>16</v>
       </c>
@@ -6656,13 +7276,21 @@
       <c r="J141" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K141" s="2"/>
-      <c r="L141" s="2"/>
+      <c r="K141" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L141" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M141" s="2">
         <v>202</v>
       </c>
-      <c r="N141" s="2"/>
-      <c r="O141" s="2"/>
+      <c r="N141" s="11">
+        <v>6.2E-2</v>
+      </c>
+      <c r="O141" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="P141" s="6"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
@@ -6670,11 +7298,21 @@
         <v>369</v>
       </c>
       <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="16"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
+      <c r="C142" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D142" s="16">
+        <v>9</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F142" s="10">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="G142" s="10">
+        <v>0.50416666666666665</v>
+      </c>
       <c r="H142" s="2" t="s">
         <v>16</v>
       </c>
@@ -6684,13 +7322,21 @@
       <c r="J142" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K142" s="2"/>
-      <c r="L142" s="2"/>
+      <c r="K142" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M142" s="2">
         <v>369</v>
       </c>
-      <c r="N142" s="2"/>
-      <c r="O142" s="2"/>
+      <c r="N142" s="11">
+        <v>4.7E-2</v>
+      </c>
+      <c r="O142" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P142" s="6"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
@@ -6698,11 +7344,21 @@
         <v>110</v>
       </c>
       <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="16"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
+      <c r="C143" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D143" s="16">
+        <v>9</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F143" s="10">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="G143" s="10">
+        <v>0.50416666666666665</v>
+      </c>
       <c r="H143" s="2" t="s">
         <v>16</v>
       </c>
@@ -6712,13 +7368,19 @@
       <c r="J143" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K143" s="2"/>
+      <c r="K143" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L143" s="2"/>
       <c r="M143" s="2">
         <v>110</v>
       </c>
-      <c r="N143" s="2"/>
-      <c r="O143" s="2"/>
+      <c r="N143" s="11">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="O143" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P143" s="6"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
@@ -6726,11 +7388,21 @@
         <v>144</v>
       </c>
       <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="16"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
+      <c r="C144" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D144" s="16">
+        <v>9</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F144" s="10">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="G144" s="10">
+        <v>0.50416666666666665</v>
+      </c>
       <c r="H144" s="2" t="s">
         <v>16</v>
       </c>
@@ -6740,13 +7412,21 @@
       <c r="J144" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K144" s="2"/>
-      <c r="L144" s="2"/>
+      <c r="K144" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M144" s="2">
         <v>144</v>
       </c>
-      <c r="N144" s="2"/>
-      <c r="O144" s="2"/>
+      <c r="N144" s="11">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="O144" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P144" s="6"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
@@ -6754,11 +7434,21 @@
         <v>206</v>
       </c>
       <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="16"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
+      <c r="C145" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D145" s="16">
+        <v>9</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F145" s="10">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="G145" s="10">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="H145" s="2" t="s">
         <v>16</v>
       </c>
@@ -6768,13 +7458,21 @@
       <c r="J145" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K145" s="2"/>
-      <c r="L145" s="2"/>
+      <c r="K145" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="M145" s="2">
         <v>206</v>
       </c>
-      <c r="N145" s="2"/>
-      <c r="O145" s="2"/>
+      <c r="N145" s="11">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="O145" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="P145" s="6"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
@@ -6782,11 +7480,21 @@
         <v>138</v>
       </c>
       <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="16"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
+      <c r="C146" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D146" s="16">
+        <v>9</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F146" s="10">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="G146" s="10">
+        <v>0.50416666666666665</v>
+      </c>
       <c r="H146" s="2" t="s">
         <v>16</v>
       </c>
@@ -6796,13 +7504,21 @@
       <c r="J146" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K146" s="2"/>
-      <c r="L146" s="2"/>
+      <c r="K146" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L146" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M146" s="2">
         <v>138</v>
       </c>
-      <c r="N146" s="2"/>
-      <c r="O146" s="2"/>
+      <c r="N146" s="11">
+        <v>4.7E-2</v>
+      </c>
+      <c r="O146" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P146" s="6"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.2">
@@ -6810,11 +7526,21 @@
         <v>226</v>
       </c>
       <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="16"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
+      <c r="C147" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D147" s="16">
+        <v>9</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F147" s="10">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="G147" s="10">
+        <v>0.50694444444444442</v>
+      </c>
       <c r="H147" s="2" t="s">
         <v>16</v>
       </c>
@@ -6824,13 +7550,21 @@
       <c r="J147" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K147" s="2"/>
-      <c r="L147" s="2"/>
+      <c r="K147" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L147" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M147" s="2">
         <v>226</v>
       </c>
-      <c r="N147" s="2"/>
-      <c r="O147" s="2"/>
+      <c r="N147" s="11">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="O147" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P147" s="6"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
@@ -6838,11 +7572,21 @@
         <v>147</v>
       </c>
       <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="16"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
+      <c r="C148" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D148" s="16">
+        <v>9</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F148" s="10">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="G148" s="10">
+        <v>0.50694444444444442</v>
+      </c>
       <c r="H148" s="2" t="s">
         <v>16</v>
       </c>
@@ -6852,13 +7596,19 @@
       <c r="J148" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K148" s="2"/>
+      <c r="K148" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L148" s="2"/>
       <c r="M148" s="2">
         <v>147</v>
       </c>
-      <c r="N148" s="2"/>
-      <c r="O148" s="2"/>
+      <c r="N148" s="11">
+        <v>6.2E-2</v>
+      </c>
+      <c r="O148" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="P148" s="6"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.2">
@@ -6866,11 +7616,21 @@
         <v>140</v>
       </c>
       <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
+      <c r="C149" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D149" s="16">
+        <v>9</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F149" s="10">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="G149" s="10">
+        <v>0.65625</v>
+      </c>
       <c r="H149" s="2" t="s">
         <v>16</v>
       </c>
@@ -6880,20 +7640,32 @@
       <c r="J149" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K149" s="2"/>
-      <c r="L149" s="2"/>
+      <c r="K149" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L149" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="M149" s="2">
         <v>140</v>
       </c>
-      <c r="N149" s="2"/>
-      <c r="O149" s="2"/>
-      <c r="P149" s="6"/>
+      <c r="N149" s="11">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="O149" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P149" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>209</v>
       </c>
-      <c r="B150" s="2"/>
+      <c r="B150" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C150" s="2"/>
       <c r="D150" s="16"/>
       <c r="E150" s="2"/>
@@ -6913,7 +7685,7 @@
       <c r="M150" s="2">
         <v>209</v>
       </c>
-      <c r="N150" s="2"/>
+      <c r="N150" s="11"/>
       <c r="O150" s="2"/>
       <c r="P150" s="6"/>
     </row>
@@ -6921,7 +7693,9 @@
       <c r="A151" s="2">
         <v>198</v>
       </c>
-      <c r="B151" s="2"/>
+      <c r="B151" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C151" s="2"/>
       <c r="D151" s="16"/>
       <c r="E151" s="2"/>
@@ -6941,7 +7715,6 @@
       <c r="M151" s="2">
         <v>198</v>
       </c>
-      <c r="N151" s="2"/>
       <c r="O151" s="2"/>
       <c r="P151" s="6"/>
     </row>
@@ -6950,11 +7723,21 @@
         <v>183</v>
       </c>
       <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="16"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
+      <c r="C152" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D152" s="16">
+        <v>9</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F152" s="10">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="G152" s="10">
+        <v>0.50763888888888886</v>
+      </c>
       <c r="H152" s="2" t="s">
         <v>16</v>
       </c>
@@ -6964,13 +7747,21 @@
       <c r="J152" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K152" s="2"/>
-      <c r="L152" s="2"/>
+      <c r="K152" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L152" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M152" s="2">
         <v>183</v>
       </c>
-      <c r="N152" s="2"/>
-      <c r="O152" s="2"/>
+      <c r="N152" s="11">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="O152" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P152" s="6"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.2">
@@ -6978,11 +7769,21 @@
         <v>78</v>
       </c>
       <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-      <c r="G153" s="2"/>
+      <c r="C153" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" s="16">
+        <v>10</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F153" s="10">
+        <v>0.3743055555555555</v>
+      </c>
+      <c r="G153" s="10">
+        <v>0.39861111111111108</v>
+      </c>
       <c r="H153" s="2" t="s">
         <v>16</v>
       </c>
@@ -6992,13 +7793,19 @@
       <c r="J153" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K153" s="2"/>
+      <c r="K153" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L153" s="2"/>
       <c r="M153" s="2">
         <v>78</v>
       </c>
-      <c r="N153" s="2"/>
-      <c r="O153" s="2"/>
+      <c r="N153" s="11">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="O153" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P153" s="6"/>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.2">
@@ -7006,11 +7813,21 @@
         <v>11</v>
       </c>
       <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="16"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
+      <c r="C154" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D154" s="16">
+        <v>10</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F154" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="G154" s="10">
+        <v>0.39861111111111108</v>
+      </c>
       <c r="H154" s="2" t="s">
         <v>16</v>
       </c>
@@ -7020,13 +7837,19 @@
       <c r="J154" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K154" s="2"/>
+      <c r="K154" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L154" s="2"/>
       <c r="M154" s="2">
         <v>11</v>
       </c>
-      <c r="N154" s="2"/>
-      <c r="O154" s="2"/>
+      <c r="N154" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="O154" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P154" s="6"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.2">
@@ -7034,11 +7857,21 @@
         <v>187</v>
       </c>
       <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
+      <c r="C155" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D155" s="16">
+        <v>10</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F155" s="10">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="G155" s="10">
+        <v>0.39861111111111108</v>
+      </c>
       <c r="H155" s="2" t="s">
         <v>16</v>
       </c>
@@ -7048,13 +7881,19 @@
       <c r="J155" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K155" s="2"/>
+      <c r="K155" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L155" s="2"/>
       <c r="M155" s="2">
         <v>187</v>
       </c>
-      <c r="N155" s="2"/>
-      <c r="O155" s="2"/>
+      <c r="N155" s="11">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="O155" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P155" s="6"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.2">
@@ -7062,11 +7901,21 @@
         <v>155</v>
       </c>
       <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="16"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
+      <c r="C156" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D156" s="16">
+        <v>10</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F156" s="10">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="G156" s="10">
+        <v>0.39861111111111108</v>
+      </c>
       <c r="H156" s="2" t="s">
         <v>16</v>
       </c>
@@ -7076,13 +7925,19 @@
       <c r="J156" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K156" s="2"/>
+      <c r="K156" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L156" s="2"/>
       <c r="M156" s="2">
         <v>155</v>
       </c>
-      <c r="N156" s="2"/>
-      <c r="O156" s="2"/>
+      <c r="N156" s="11">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="O156" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="P156" s="6"/>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.2">
@@ -7090,11 +7945,21 @@
         <v>299</v>
       </c>
       <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="16"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
+      <c r="C157" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D157" s="16">
+        <v>10</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F157" s="10">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="G157" s="10">
+        <v>0.39930555555555558</v>
+      </c>
       <c r="H157" s="2" t="s">
         <v>16</v>
       </c>
@@ -7104,13 +7969,19 @@
       <c r="J157" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K157" s="2"/>
+      <c r="K157" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L157" s="2"/>
       <c r="M157" s="2">
         <v>299</v>
       </c>
-      <c r="N157" s="2"/>
-      <c r="O157" s="2"/>
+      <c r="N157" s="11">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="O157" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P157" s="6"/>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.2">
@@ -7118,11 +7989,21 @@
         <v>323</v>
       </c>
       <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="16"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
+      <c r="C158" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D158" s="16">
+        <v>10</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F158" s="10">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="G158" s="10">
+        <v>0.39930555555555558</v>
+      </c>
       <c r="H158" s="2" t="s">
         <v>16</v>
       </c>
@@ -7132,13 +8013,21 @@
       <c r="J158" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K158" s="2"/>
-      <c r="L158" s="2"/>
+      <c r="K158" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L158" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M158" s="2">
         <v>323</v>
       </c>
-      <c r="N158" s="2"/>
-      <c r="O158" s="2"/>
+      <c r="N158" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="O158" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P158" s="6"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.2">
@@ -7146,11 +8035,21 @@
         <v>362</v>
       </c>
       <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="16"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
-      <c r="G159" s="2"/>
+      <c r="C159" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D159" s="16">
+        <v>10</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F159" s="10">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="G159" s="10">
+        <v>0.39930555555555558</v>
+      </c>
       <c r="H159" s="2" t="s">
         <v>16</v>
       </c>
@@ -7160,13 +8059,21 @@
       <c r="J159" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K159" s="2"/>
-      <c r="L159" s="2"/>
+      <c r="K159" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L159" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M159" s="2">
         <v>362</v>
       </c>
-      <c r="N159" s="2"/>
-      <c r="O159" s="2"/>
+      <c r="N159" s="11">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="O159" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P159" s="6"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.2">
@@ -7174,11 +8081,21 @@
         <v>361</v>
       </c>
       <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="16"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="2"/>
+      <c r="C160" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D160" s="16">
+        <v>10</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F160" s="10">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="G160" s="10">
+        <v>0.44513888888888892</v>
+      </c>
       <c r="H160" s="2" t="s">
         <v>16</v>
       </c>
@@ -7188,13 +8105,21 @@
       <c r="J160" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K160" s="2"/>
-      <c r="L160" s="2"/>
+      <c r="K160" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L160" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="M160" s="2">
         <v>361</v>
       </c>
-      <c r="N160" s="2"/>
-      <c r="O160" s="2"/>
+      <c r="N160" s="11">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="O160" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P160" s="6"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.2">
@@ -7202,11 +8127,21 @@
         <v>16</v>
       </c>
       <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="16"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
-      <c r="G161" s="2"/>
+      <c r="C161" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D161" s="16">
+        <v>10</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F161" s="10">
+        <v>0.37916666666666665</v>
+      </c>
+      <c r="G161" s="10">
+        <v>0.4055555555555555</v>
+      </c>
       <c r="H161" s="2" t="s">
         <v>16</v>
       </c>
@@ -7216,13 +8151,19 @@
       <c r="J161" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K161" s="2"/>
+      <c r="K161" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L161" s="2"/>
       <c r="M161" s="2">
         <v>16</v>
       </c>
-      <c r="N161" s="2"/>
-      <c r="O161" s="2"/>
+      <c r="N161" s="11">
+        <v>0.115</v>
+      </c>
+      <c r="O161" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="P161" s="6"/>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.2">
@@ -7230,11 +8171,21 @@
         <v>325</v>
       </c>
       <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="16"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
+      <c r="C162" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D162" s="16">
+        <v>10</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F162" s="10">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="G162" s="10">
+        <v>0.4055555555555555</v>
+      </c>
       <c r="H162" s="2" t="s">
         <v>16</v>
       </c>
@@ -7244,13 +8195,21 @@
       <c r="J162" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K162" s="2"/>
-      <c r="L162" s="2"/>
+      <c r="K162" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L162" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="M162" s="2">
         <v>325</v>
       </c>
-      <c r="N162" s="2"/>
-      <c r="O162" s="2"/>
+      <c r="N162" s="11">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="O162" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P162" s="6"/>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.2">
@@ -7258,11 +8217,21 @@
         <v>233</v>
       </c>
       <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="16"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
-      <c r="G163" s="2"/>
+      <c r="C163" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D163" s="16">
+        <v>10</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F163" s="10">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="G163" s="10">
+        <v>0.32847222222222222</v>
+      </c>
       <c r="H163" s="2" t="s">
         <v>16</v>
       </c>
@@ -7272,13 +8241,21 @@
       <c r="J163" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K163" s="2"/>
-      <c r="L163" s="2"/>
+      <c r="K163" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L163" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M163" s="2">
         <v>233</v>
       </c>
-      <c r="N163" s="2"/>
-      <c r="O163" s="2"/>
+      <c r="N163" s="11">
+        <v>4.7E-2</v>
+      </c>
+      <c r="O163" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P163" s="6"/>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.2">
@@ -7286,11 +8263,21 @@
         <v>15</v>
       </c>
       <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="16"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-      <c r="G164" s="2"/>
+      <c r="C164" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D164" s="16">
+        <v>10</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F164" s="10">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="G164" s="10">
+        <v>0.4055555555555555</v>
+      </c>
       <c r="H164" s="2" t="s">
         <v>16</v>
       </c>
@@ -7300,13 +8287,19 @@
       <c r="J164" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K164" s="2"/>
+      <c r="K164" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L164" s="2"/>
       <c r="M164" s="2">
         <v>15</v>
       </c>
-      <c r="N164" s="2"/>
-      <c r="O164" s="2"/>
+      <c r="N164" s="11">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="O164" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P164" s="6"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.2">
@@ -7314,11 +8307,21 @@
         <v>333</v>
       </c>
       <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="16"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
-      <c r="G165" s="2"/>
+      <c r="C165" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D165" s="16">
+        <v>10</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F165" s="10">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="G165" s="10">
+        <v>0.32847222222222222</v>
+      </c>
       <c r="H165" s="2" t="s">
         <v>16</v>
       </c>
@@ -7328,13 +8331,21 @@
       <c r="J165" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K165" s="2"/>
-      <c r="L165" s="2"/>
+      <c r="K165" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L165" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="M165" s="2">
         <v>333</v>
       </c>
-      <c r="N165" s="2"/>
-      <c r="O165" s="2"/>
+      <c r="N165" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="O165" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="P165" s="6"/>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.2">
@@ -7342,11 +8353,21 @@
         <v>182</v>
       </c>
       <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="16"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="2"/>
+      <c r="C166" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D166" s="16">
+        <v>10</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F166" s="10">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="G166" s="10">
+        <v>0.4055555555555555</v>
+      </c>
       <c r="H166" s="2" t="s">
         <v>16</v>
       </c>
@@ -7356,14 +8377,22 @@
       <c r="J166" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K166" s="2"/>
+      <c r="K166" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L166" s="2"/>
       <c r="M166" s="2">
         <v>182</v>
       </c>
-      <c r="N166" s="2"/>
-      <c r="O166" s="2"/>
-      <c r="P166" s="6"/>
+      <c r="N166" s="11">
+        <v>0.105</v>
+      </c>
+      <c r="O166" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P166" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
@@ -7405,7 +8434,7 @@
       <c r="M167" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N167" s="3" t="s">
+      <c r="N167" s="20" t="s">
         <v>13</v>
       </c>
       <c r="O167" s="3" t="s">
@@ -7420,11 +8449,21 @@
         <v>274</v>
       </c>
       <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
-      <c r="D168" s="16"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
-      <c r="G168" s="2"/>
+      <c r="C168" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D168" s="16">
+        <v>10</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F168" s="10">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="G168" s="10">
+        <v>0.4055555555555555</v>
+      </c>
       <c r="H168" s="2" t="s">
         <v>16</v>
       </c>
@@ -7434,12 +8473,16 @@
       <c r="J168" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K168" s="2"/>
+      <c r="K168" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L168" s="2"/>
       <c r="M168" s="2">
         <v>274</v>
       </c>
-      <c r="N168" s="2"/>
+      <c r="N168" s="11">
+        <v>3.2000000000000001E-2</v>
+      </c>
       <c r="O168" s="2"/>
       <c r="P168" s="6"/>
     </row>
@@ -7448,11 +8491,21 @@
         <v>363</v>
       </c>
       <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="16"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="2"/>
+      <c r="C169" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D169" s="16">
+        <v>10</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F169" s="10">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="G169" s="10">
+        <v>0.4055555555555555</v>
+      </c>
       <c r="H169" s="2" t="s">
         <v>16</v>
       </c>
@@ -7462,12 +8515,16 @@
       <c r="J169" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K169" s="2"/>
+      <c r="K169" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L169" s="2"/>
       <c r="M169" s="2">
         <v>363</v>
       </c>
-      <c r="N169" s="2"/>
+      <c r="N169" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="O169" s="2"/>
       <c r="P169" s="6"/>
     </row>
@@ -7476,11 +8533,21 @@
         <v>284</v>
       </c>
       <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="16"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
+      <c r="C170" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D170" s="16">
+        <v>10</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F170" s="10">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="G170" s="10">
+        <v>0.42708333333333331</v>
+      </c>
       <c r="H170" s="2" t="s">
         <v>16</v>
       </c>
@@ -7490,12 +8557,18 @@
       <c r="J170" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K170" s="2"/>
-      <c r="L170" s="2"/>
+      <c r="K170" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L170" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M170" s="2">
         <v>284</v>
       </c>
-      <c r="N170" s="2"/>
+      <c r="N170" s="11">
+        <v>4.4999999999999998E-2</v>
+      </c>
       <c r="O170" s="2"/>
       <c r="P170" s="6"/>
     </row>
@@ -7504,11 +8577,21 @@
         <v>148</v>
       </c>
       <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="16"/>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
+      <c r="C171" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D171" s="16">
+        <v>10</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F171" s="10">
+        <v>0.40138888888888885</v>
+      </c>
+      <c r="G171" s="10">
+        <v>0.42708333333333331</v>
+      </c>
       <c r="H171" s="2" t="s">
         <v>16</v>
       </c>
@@ -7518,12 +8601,16 @@
       <c r="J171" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K171" s="2"/>
-      <c r="L171" s="2"/>
+      <c r="K171" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L171" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M171" s="2">
         <v>148</v>
       </c>
-      <c r="N171" s="2"/>
+      <c r="N171" s="11"/>
       <c r="O171" s="2"/>
       <c r="P171" s="6"/>
     </row>
@@ -7531,7 +8618,9 @@
       <c r="A172" s="2">
         <v>145</v>
       </c>
-      <c r="B172" s="2"/>
+      <c r="B172" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C172" s="2"/>
       <c r="D172" s="16"/>
       <c r="E172" s="2"/>
@@ -7551,7 +8640,7 @@
       <c r="M172" s="2">
         <v>145</v>
       </c>
-      <c r="N172" s="2"/>
+      <c r="N172" s="11"/>
       <c r="O172" s="2"/>
       <c r="P172" s="6"/>
     </row>
@@ -7559,7 +8648,9 @@
       <c r="A173" s="2">
         <v>156</v>
       </c>
-      <c r="B173" s="2"/>
+      <c r="B173" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C173" s="2"/>
       <c r="D173" s="16"/>
       <c r="E173" s="2"/>
@@ -7579,20 +8670,32 @@
       <c r="M173" s="2">
         <v>156</v>
       </c>
-      <c r="N173" s="2"/>
+      <c r="N173" s="11"/>
       <c r="O173" s="2"/>
-      <c r="P173" s="6"/>
+      <c r="P173" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>160</v>
       </c>
       <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="16"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
+      <c r="C174" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D174" s="16">
+        <v>10</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F174" s="10">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="G174" s="10">
+        <v>0.46736111111111112</v>
+      </c>
       <c r="H174" s="2" t="s">
         <v>16</v>
       </c>
@@ -7602,12 +8705,18 @@
       <c r="J174" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K174" s="2"/>
-      <c r="L174" s="2"/>
+      <c r="K174" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L174" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="M174" s="2">
         <v>160</v>
       </c>
-      <c r="N174" s="2"/>
+      <c r="N174" s="11">
+        <v>6.8000000000000005E-2</v>
+      </c>
       <c r="O174" s="2"/>
       <c r="P174" s="6"/>
     </row>
@@ -7616,11 +8725,21 @@
         <v>139</v>
       </c>
       <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="16"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
+      <c r="C175" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D175" s="16">
+        <v>10</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F175" s="10">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="G175" s="10">
+        <v>0.42708333333333331</v>
+      </c>
       <c r="H175" s="2" t="s">
         <v>16</v>
       </c>
@@ -7630,12 +8749,18 @@
       <c r="J175" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K175" s="2"/>
-      <c r="L175" s="2"/>
+      <c r="K175" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L175" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M175" s="2">
         <v>139</v>
       </c>
-      <c r="N175" s="2"/>
+      <c r="N175" s="11">
+        <v>4.2999999999999997E-2</v>
+      </c>
       <c r="O175" s="2"/>
       <c r="P175" s="6"/>
     </row>
@@ -7644,11 +8769,21 @@
         <v>304</v>
       </c>
       <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="16"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
+      <c r="C176" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D176" s="16">
+        <v>10</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F176" s="10">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="G176" s="10">
+        <v>0.42986111111111108</v>
+      </c>
       <c r="H176" s="2" t="s">
         <v>16</v>
       </c>
@@ -7658,12 +8793,18 @@
       <c r="J176" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K176" s="2"/>
-      <c r="L176" s="2"/>
+      <c r="K176" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L176" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M176" s="2">
         <v>304</v>
       </c>
-      <c r="N176" s="2"/>
+      <c r="N176" s="11">
+        <v>3.1E-2</v>
+      </c>
       <c r="O176" s="2"/>
       <c r="P176" s="6"/>
     </row>
@@ -7672,11 +8813,21 @@
         <v>191</v>
       </c>
       <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="16"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
+      <c r="C177" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D177" s="16">
+        <v>10</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F177" s="10">
+        <v>0.40416666666666662</v>
+      </c>
+      <c r="G177" s="10">
+        <v>0.32847222222222222</v>
+      </c>
       <c r="H177" s="2" t="s">
         <v>16</v>
       </c>
@@ -7686,12 +8837,18 @@
       <c r="J177" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K177" s="2"/>
-      <c r="L177" s="2"/>
+      <c r="K177" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L177" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="M177" s="2">
         <v>191</v>
       </c>
-      <c r="N177" s="2"/>
+      <c r="N177" s="11">
+        <v>7.5999999999999998E-2</v>
+      </c>
       <c r="O177" s="2"/>
       <c r="P177" s="6"/>
     </row>
@@ -7700,11 +8857,21 @@
         <v>332</v>
       </c>
       <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="16"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
+      <c r="C178" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D178" s="16">
+        <v>10</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F178" s="10">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="G178" s="10">
+        <v>0.4513888888888889</v>
+      </c>
       <c r="H178" s="2" t="s">
         <v>16</v>
       </c>
@@ -7714,12 +8881,18 @@
       <c r="J178" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K178" s="2"/>
-      <c r="L178" s="2"/>
+      <c r="K178" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L178" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="M178" s="2">
         <v>332</v>
       </c>
-      <c r="N178" s="2"/>
+      <c r="N178" s="11">
+        <v>3.9E-2</v>
+      </c>
       <c r="O178" s="2"/>
       <c r="P178" s="6"/>
     </row>
@@ -7728,11 +8901,21 @@
         <v>231</v>
       </c>
       <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-      <c r="D179" s="16"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
+      <c r="C179" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D179" s="16">
+        <v>10</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F179" s="10">
+        <v>0.4069444444444445</v>
+      </c>
+      <c r="G179" s="10">
+        <v>0.43055555555555558</v>
+      </c>
       <c r="H179" s="2" t="s">
         <v>16</v>
       </c>
@@ -7742,12 +8925,16 @@
       <c r="J179" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K179" s="2"/>
+      <c r="K179" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L179" s="2"/>
       <c r="M179" s="2">
         <v>231</v>
       </c>
-      <c r="N179" s="2"/>
+      <c r="N179" s="11">
+        <v>5.8999999999999997E-2</v>
+      </c>
       <c r="O179" s="2"/>
       <c r="P179" s="6"/>
     </row>
@@ -7756,11 +8943,21 @@
         <v>234</v>
       </c>
       <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-      <c r="D180" s="16"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
+      <c r="C180" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D180" s="16">
+        <v>10</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F180" s="10">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="G180" s="10">
+        <v>0.43055555555555558</v>
+      </c>
       <c r="H180" s="2" t="s">
         <v>16</v>
       </c>
@@ -7770,12 +8967,16 @@
       <c r="J180" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K180" s="2"/>
+      <c r="K180" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L180" s="2"/>
       <c r="M180" s="2">
         <v>234</v>
       </c>
-      <c r="N180" s="2"/>
+      <c r="N180" s="11">
+        <v>0.04</v>
+      </c>
       <c r="O180" s="2"/>
       <c r="P180" s="6"/>
     </row>
@@ -7784,11 +8985,21 @@
         <v>373</v>
       </c>
       <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
-      <c r="D181" s="16"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
+      <c r="C181" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D181" s="16">
+        <v>10</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F181" s="10">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="G181" s="10">
+        <v>0.43055555555555558</v>
+      </c>
       <c r="H181" s="2" t="s">
         <v>16</v>
       </c>
@@ -7798,12 +9009,16 @@
       <c r="J181" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K181" s="2"/>
+      <c r="K181" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L181" s="2"/>
       <c r="M181" s="2">
         <v>373</v>
       </c>
-      <c r="N181" s="2"/>
+      <c r="N181" s="11">
+        <v>3.5000000000000003E-2</v>
+      </c>
       <c r="O181" s="2"/>
       <c r="P181" s="6"/>
     </row>
@@ -7812,11 +9027,21 @@
         <v>388</v>
       </c>
       <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
-      <c r="D182" s="16"/>
-      <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
-      <c r="G182" s="2"/>
+      <c r="C182" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D182" s="16">
+        <v>10</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F182" s="10">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="G182" s="10">
+        <v>0.43055555555555558</v>
+      </c>
       <c r="H182" s="2" t="s">
         <v>16</v>
       </c>
@@ -7826,12 +9051,18 @@
       <c r="J182" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K182" s="2"/>
-      <c r="L182" s="2"/>
+      <c r="K182" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L182" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M182" s="2">
         <v>388</v>
       </c>
-      <c r="N182" s="2"/>
+      <c r="N182" s="11">
+        <v>5.8000000000000003E-2</v>
+      </c>
       <c r="O182" s="2"/>
       <c r="P182" s="6"/>
     </row>
@@ -7840,11 +9071,21 @@
         <v>322</v>
       </c>
       <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="16"/>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
+      <c r="C183" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D183" s="16">
+        <v>10</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F183" s="10">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="G183" s="10">
+        <v>0.43055555555555558</v>
+      </c>
       <c r="H183" s="2" t="s">
         <v>16</v>
       </c>
@@ -7854,12 +9095,16 @@
       <c r="J183" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K183" s="2"/>
+      <c r="K183" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L183" s="2"/>
       <c r="M183" s="2">
         <v>322</v>
       </c>
-      <c r="N183" s="2"/>
+      <c r="N183" s="11">
+        <v>0.03</v>
+      </c>
       <c r="O183" s="2"/>
       <c r="P183" s="6"/>
     </row>
@@ -7867,7 +9112,9 @@
       <c r="A184" s="2">
         <v>175</v>
       </c>
-      <c r="B184" s="2"/>
+      <c r="B184" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C184" s="2"/>
       <c r="D184" s="16"/>
       <c r="E184" s="2"/>
@@ -7887,7 +9134,7 @@
       <c r="M184" s="2">
         <v>175</v>
       </c>
-      <c r="N184" s="2"/>
+      <c r="N184" s="11"/>
       <c r="O184" s="2"/>
       <c r="P184" s="6"/>
     </row>
@@ -7896,7 +9143,6 @@
         <v>112</v>
       </c>
       <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
       <c r="D185" s="16"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
@@ -7915,20 +9161,32 @@
       <c r="M185" s="2">
         <v>112</v>
       </c>
-      <c r="N185" s="2"/>
+      <c r="N185" s="11"/>
       <c r="O185" s="2"/>
-      <c r="P185" s="6"/>
+      <c r="P185" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>113</v>
       </c>
       <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
-      <c r="D186" s="16"/>
-      <c r="E186" s="2"/>
-      <c r="F186" s="2"/>
-      <c r="G186" s="2"/>
+      <c r="C186" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D186" s="16">
+        <v>10</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F186" s="10">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="G186" s="10">
+        <v>0.43055555555555558</v>
+      </c>
       <c r="H186" s="2" t="s">
         <v>16</v>
       </c>
@@ -7938,12 +9196,18 @@
       <c r="J186" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K186" s="2"/>
-      <c r="L186" s="2"/>
+      <c r="K186" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L186" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M186" s="2">
         <v>113</v>
       </c>
-      <c r="N186" s="2"/>
+      <c r="N186" s="11">
+        <v>4.1000000000000002E-2</v>
+      </c>
       <c r="O186" s="2"/>
       <c r="P186" s="6"/>
     </row>
@@ -7952,11 +9216,21 @@
         <v>255</v>
       </c>
       <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
-      <c r="D187" s="16"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
-      <c r="G187" s="2"/>
+      <c r="C187" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D187" s="16">
+        <v>10</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F187" s="10">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="G187" s="10">
+        <v>0.4513888888888889</v>
+      </c>
       <c r="H187" s="2" t="s">
         <v>16</v>
       </c>
@@ -7966,12 +9240,16 @@
       <c r="J187" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K187" s="2"/>
-      <c r="L187" s="2"/>
+      <c r="K187" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L187" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M187" s="2">
         <v>255</v>
       </c>
-      <c r="N187" s="2"/>
+      <c r="N187" s="11"/>
       <c r="O187" s="2"/>
       <c r="P187" s="6"/>
     </row>
@@ -7980,11 +9258,21 @@
         <v>24</v>
       </c>
       <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="16"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
-      <c r="G188" s="2"/>
+      <c r="C188" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D188" s="16">
+        <v>10</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F188" s="10">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="G188" s="10">
+        <v>0.4513888888888889</v>
+      </c>
       <c r="H188" s="2" t="s">
         <v>16</v>
       </c>
@@ -7994,12 +9282,14 @@
       <c r="J188" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K188" s="2"/>
+      <c r="K188" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L188" s="2"/>
       <c r="M188" s="2">
         <v>24</v>
       </c>
-      <c r="N188" s="2"/>
+      <c r="N188" s="11"/>
       <c r="O188" s="2"/>
       <c r="P188" s="6"/>
     </row>
@@ -8008,11 +9298,21 @@
         <v>300</v>
       </c>
       <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="16"/>
-      <c r="E189" s="2"/>
-      <c r="F189" s="2"/>
-      <c r="G189" s="2"/>
+      <c r="C189" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D189" s="16">
+        <v>10</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F189" s="10">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="G189" s="10">
+        <v>0.4513888888888889</v>
+      </c>
       <c r="H189" s="2" t="s">
         <v>16</v>
       </c>
@@ -8022,12 +9322,14 @@
       <c r="J189" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K189" s="2"/>
+      <c r="K189" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L189" s="2"/>
       <c r="M189" s="2">
         <v>300</v>
       </c>
-      <c r="N189" s="2"/>
+      <c r="N189" s="11"/>
       <c r="O189" s="2"/>
       <c r="P189" s="6"/>
     </row>
@@ -8036,11 +9338,21 @@
         <v>101</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="16"/>
-      <c r="E190" s="2"/>
-      <c r="F190" s="2"/>
-      <c r="G190" s="2"/>
+      <c r="C190" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D190" s="16">
+        <v>10</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F190" s="10">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="G190" s="10">
+        <v>0.4513888888888889</v>
+      </c>
       <c r="H190" s="2" t="s">
         <v>16</v>
       </c>
@@ -8050,12 +9362,16 @@
       <c r="J190" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K190" s="2"/>
-      <c r="L190" s="2"/>
+      <c r="K190" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L190" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M190" s="2">
         <v>101</v>
       </c>
-      <c r="N190" s="2"/>
+      <c r="N190" s="11"/>
       <c r="O190" s="2"/>
       <c r="P190" s="6"/>
     </row>
@@ -8064,11 +9380,21 @@
         <v>236</v>
       </c>
       <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="16"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
+      <c r="C191" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D191" s="16">
+        <v>10</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F191" s="10">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="G191" s="10">
+        <v>0.45763888888888887</v>
+      </c>
       <c r="H191" s="2" t="s">
         <v>16</v>
       </c>
@@ -8078,12 +9404,16 @@
       <c r="J191" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K191" s="2"/>
-      <c r="L191" s="2"/>
+      <c r="K191" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L191" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M191" s="2">
         <v>236</v>
       </c>
-      <c r="N191" s="2"/>
+      <c r="N191" s="11"/>
       <c r="O191" s="2"/>
       <c r="P191" s="6"/>
     </row>
@@ -8092,11 +9422,21 @@
         <v>324</v>
       </c>
       <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-      <c r="D192" s="16"/>
-      <c r="E192" s="2"/>
-      <c r="F192" s="2"/>
-      <c r="G192" s="2"/>
+      <c r="C192" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D192" s="16">
+        <v>10</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F192" s="10">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="G192" s="10">
+        <v>0.45763888888888887</v>
+      </c>
       <c r="H192" s="2" t="s">
         <v>16</v>
       </c>
@@ -8106,12 +9446,16 @@
       <c r="J192" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K192" s="2"/>
-      <c r="L192" s="2"/>
+      <c r="K192" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L192" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M192" s="2">
         <v>324</v>
       </c>
-      <c r="N192" s="2"/>
+      <c r="N192" s="11"/>
       <c r="O192" s="2"/>
       <c r="P192" s="6"/>
     </row>
@@ -8120,11 +9464,21 @@
         <v>151</v>
       </c>
       <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="16"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
-      <c r="G193" s="2"/>
+      <c r="C193" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D193" s="16">
+        <v>10</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F193" s="10">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="G193" s="10">
+        <v>0.45763888888888887</v>
+      </c>
       <c r="H193" s="2" t="s">
         <v>16</v>
       </c>
@@ -8134,12 +9488,16 @@
       <c r="J193" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K193" s="2"/>
-      <c r="L193" s="2"/>
+      <c r="K193" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L193" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M193" s="2">
         <v>151</v>
       </c>
-      <c r="N193" s="2"/>
+      <c r="N193" s="11"/>
       <c r="O193" s="2"/>
       <c r="P193" s="6"/>
     </row>
@@ -8148,11 +9506,21 @@
         <v>318</v>
       </c>
       <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="16"/>
-      <c r="E194" s="2"/>
-      <c r="F194" s="2"/>
-      <c r="G194" s="2"/>
+      <c r="C194" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D194" s="16">
+        <v>10</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F194" s="10">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="G194" s="10">
+        <v>0.45763888888888887</v>
+      </c>
       <c r="H194" s="2" t="s">
         <v>16</v>
       </c>
@@ -8162,12 +9530,16 @@
       <c r="J194" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K194" s="2"/>
-      <c r="L194" s="2"/>
+      <c r="K194" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L194" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M194" s="2">
         <v>318</v>
       </c>
-      <c r="N194" s="2"/>
+      <c r="N194" s="11"/>
       <c r="O194" s="2"/>
       <c r="P194" s="6"/>
     </row>
@@ -8176,11 +9548,21 @@
         <v>328</v>
       </c>
       <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="16"/>
-      <c r="E195" s="2"/>
-      <c r="F195" s="2"/>
-      <c r="G195" s="2"/>
+      <c r="C195" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D195" s="16">
+        <v>10</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F195" s="10">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="G195" s="10">
+        <v>0.45763888888888887</v>
+      </c>
       <c r="H195" s="2" t="s">
         <v>16</v>
       </c>
@@ -8190,12 +9572,16 @@
       <c r="J195" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K195" s="2"/>
-      <c r="L195" s="2"/>
+      <c r="K195" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L195" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M195" s="2">
         <v>328</v>
       </c>
-      <c r="N195" s="2"/>
+      <c r="N195" s="11"/>
       <c r="O195" s="2"/>
       <c r="P195" s="6"/>
     </row>
@@ -8204,11 +9590,21 @@
         <v>267</v>
       </c>
       <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="16"/>
-      <c r="E196" s="2"/>
-      <c r="F196" s="2"/>
-      <c r="G196" s="2"/>
+      <c r="C196" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D196" s="16">
+        <v>10</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F196" s="10">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="G196" s="22">
+        <v>0.45763888888888887</v>
+      </c>
       <c r="H196" s="2" t="s">
         <v>16</v>
       </c>
@@ -8218,12 +9614,14 @@
       <c r="J196" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K196" s="2"/>
+      <c r="K196" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="L196" s="2"/>
       <c r="M196" s="2">
         <v>267</v>
       </c>
-      <c r="N196" s="2"/>
+      <c r="N196" s="11"/>
       <c r="O196" s="2"/>
       <c r="P196" s="6"/>
     </row>
@@ -8232,11 +9630,21 @@
         <v>245</v>
       </c>
       <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="16"/>
-      <c r="E197" s="2"/>
-      <c r="F197" s="2"/>
-      <c r="G197" s="2"/>
+      <c r="C197" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" s="16">
+        <v>10</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F197" s="10">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="G197" s="10">
+        <v>0.57291666666666663</v>
+      </c>
       <c r="H197" s="2" t="s">
         <v>16</v>
       </c>
@@ -8246,12 +9654,16 @@
       <c r="J197" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K197" s="2"/>
-      <c r="L197" s="2"/>
+      <c r="K197" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L197" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="M197" s="2">
         <v>245</v>
       </c>
-      <c r="N197" s="2"/>
+      <c r="N197" s="11"/>
       <c r="O197" s="2"/>
       <c r="P197" s="6"/>
     </row>
@@ -8260,11 +9672,21 @@
         <v>295</v>
       </c>
       <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
-      <c r="D198" s="16"/>
-      <c r="E198" s="2"/>
-      <c r="F198" s="2"/>
-      <c r="G198" s="2"/>
+      <c r="C198" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D198" s="16">
+        <v>10</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F198" s="10">
+        <v>0.45416666666666666</v>
+      </c>
+      <c r="G198" s="10">
+        <v>0.4777777777777778</v>
+      </c>
       <c r="H198" s="2" t="s">
         <v>16</v>
       </c>
@@ -8274,12 +9696,16 @@
       <c r="J198" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K198" s="2"/>
-      <c r="L198" s="2"/>
+      <c r="K198" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L198" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M198" s="2">
         <v>295</v>
       </c>
-      <c r="N198" s="2"/>
+      <c r="N198" s="11"/>
       <c r="O198" s="2"/>
       <c r="P198" s="6"/>
     </row>
@@ -8307,9 +9733,11 @@
       <c r="M199" s="2">
         <v>42</v>
       </c>
-      <c r="N199" s="2"/>
+      <c r="N199" s="11"/>
       <c r="O199" s="2"/>
-      <c r="P199" s="6"/>
+      <c r="P199" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
@@ -8351,7 +9779,7 @@
       <c r="M200" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N200" s="3" t="s">
+      <c r="N200" s="20" t="s">
         <v>13</v>
       </c>
       <c r="O200" s="3" t="s">
@@ -8385,7 +9813,7 @@
       <c r="M201" s="2">
         <v>132</v>
       </c>
-      <c r="N201" s="2"/>
+      <c r="N201" s="11"/>
       <c r="O201" s="2"/>
       <c r="P201" s="6"/>
     </row>
@@ -8413,7 +9841,7 @@
       <c r="M202" s="2">
         <v>9</v>
       </c>
-      <c r="N202" s="2"/>
+      <c r="N202" s="11"/>
       <c r="O202" s="2"/>
       <c r="P202" s="6"/>
     </row>
@@ -8441,7 +9869,7 @@
       <c r="M203" s="2">
         <v>26</v>
       </c>
-      <c r="N203" s="2"/>
+      <c r="N203" s="11"/>
       <c r="O203" s="2"/>
       <c r="P203" s="6"/>
     </row>
@@ -8469,7 +9897,7 @@
       <c r="M204" s="2">
         <v>238</v>
       </c>
-      <c r="N204" s="2"/>
+      <c r="N204" s="11"/>
       <c r="O204" s="2"/>
       <c r="P204" s="6"/>
     </row>
@@ -8497,7 +9925,7 @@
       <c r="M205" s="2">
         <v>8</v>
       </c>
-      <c r="N205" s="2"/>
+      <c r="N205" s="11"/>
       <c r="O205" s="2"/>
       <c r="P205" s="6"/>
     </row>
@@ -8525,7 +9953,7 @@
       <c r="M206" s="2">
         <v>29</v>
       </c>
-      <c r="N206" s="2"/>
+      <c r="N206" s="11"/>
       <c r="O206" s="2"/>
       <c r="P206" s="6"/>
     </row>
@@ -8553,7 +9981,7 @@
       <c r="M207" s="2">
         <v>221</v>
       </c>
-      <c r="N207" s="2"/>
+      <c r="N207" s="11"/>
       <c r="O207" s="2"/>
       <c r="P207" s="6"/>
     </row>
@@ -8581,7 +10009,7 @@
       <c r="M208" s="2">
         <v>397</v>
       </c>
-      <c r="N208" s="2"/>
+      <c r="N208" s="11"/>
       <c r="O208" s="2"/>
       <c r="P208" s="6"/>
     </row>
@@ -8609,7 +10037,7 @@
       <c r="M209" s="2">
         <v>290</v>
       </c>
-      <c r="N209" s="2"/>
+      <c r="N209" s="11"/>
       <c r="O209" s="2"/>
       <c r="P209" s="6"/>
     </row>
@@ -8637,7 +10065,7 @@
       <c r="M210" s="2">
         <v>170</v>
       </c>
-      <c r="N210" s="2"/>
+      <c r="N210" s="11"/>
       <c r="O210" s="2"/>
       <c r="P210" s="6"/>
     </row>
@@ -8665,7 +10093,7 @@
       <c r="M211" s="2">
         <v>74</v>
       </c>
-      <c r="N211" s="2"/>
+      <c r="N211" s="11"/>
       <c r="O211" s="2"/>
       <c r="P211" s="6"/>
     </row>
@@ -8693,7 +10121,7 @@
       <c r="M212" s="2">
         <v>65</v>
       </c>
-      <c r="N212" s="2"/>
+      <c r="N212" s="11"/>
       <c r="O212" s="2"/>
       <c r="P212" s="6"/>
     </row>
@@ -8721,7 +10149,7 @@
       <c r="M213" s="2">
         <v>224</v>
       </c>
-      <c r="N213" s="2"/>
+      <c r="N213" s="11"/>
       <c r="O213" s="2"/>
       <c r="P213" s="6"/>
     </row>
@@ -8749,7 +10177,7 @@
       <c r="M214" s="2">
         <v>381</v>
       </c>
-      <c r="N214" s="2"/>
+      <c r="N214" s="11"/>
       <c r="O214" s="2"/>
       <c r="P214" s="6"/>
     </row>
@@ -8777,7 +10205,7 @@
       <c r="M215" s="2">
         <v>131</v>
       </c>
-      <c r="N215" s="2"/>
+      <c r="N215" s="11"/>
       <c r="O215" s="2"/>
       <c r="P215" s="6"/>
     </row>
@@ -8805,7 +10233,7 @@
       <c r="M216" s="2">
         <v>31</v>
       </c>
-      <c r="N216" s="2"/>
+      <c r="N216" s="11"/>
       <c r="O216" s="2"/>
       <c r="P216" s="6"/>
     </row>
@@ -8833,7 +10261,7 @@
       <c r="M217" s="2">
         <v>121</v>
       </c>
-      <c r="N217" s="2"/>
+      <c r="N217" s="11"/>
       <c r="O217" s="2"/>
       <c r="P217" s="6"/>
     </row>
@@ -8861,7 +10289,7 @@
       <c r="M218" s="2">
         <v>358</v>
       </c>
-      <c r="N218" s="2"/>
+      <c r="N218" s="11"/>
       <c r="O218" s="2"/>
       <c r="P218" s="6"/>
     </row>
@@ -8889,7 +10317,7 @@
       <c r="M219" s="2">
         <v>376</v>
       </c>
-      <c r="N219" s="2"/>
+      <c r="N219" s="11"/>
       <c r="O219" s="2"/>
       <c r="P219" s="6"/>
     </row>
@@ -8917,7 +10345,7 @@
       <c r="M220" s="2">
         <v>25</v>
       </c>
-      <c r="N220" s="2"/>
+      <c r="N220" s="11"/>
       <c r="O220" s="2"/>
       <c r="P220" s="6"/>
     </row>
@@ -8945,7 +10373,7 @@
       <c r="M221" s="2">
         <v>251</v>
       </c>
-      <c r="N221" s="2"/>
+      <c r="N221" s="11"/>
       <c r="O221" s="2"/>
       <c r="P221" s="6"/>
     </row>
@@ -8973,7 +10401,7 @@
       <c r="M222" s="2">
         <v>306</v>
       </c>
-      <c r="N222" s="2"/>
+      <c r="N222" s="11"/>
       <c r="O222" s="2"/>
       <c r="P222" s="6"/>
     </row>
@@ -9001,7 +10429,7 @@
       <c r="M223" s="2">
         <v>67</v>
       </c>
-      <c r="N223" s="2"/>
+      <c r="N223" s="11"/>
       <c r="O223" s="2"/>
       <c r="P223" s="6"/>
     </row>
@@ -9029,7 +10457,7 @@
       <c r="M224" s="2">
         <v>108</v>
       </c>
-      <c r="N224" s="2"/>
+      <c r="N224" s="11"/>
       <c r="O224" s="2"/>
       <c r="P224" s="6"/>
     </row>
@@ -9057,7 +10485,7 @@
       <c r="M225" s="2">
         <v>342</v>
       </c>
-      <c r="N225" s="2"/>
+      <c r="N225" s="11"/>
       <c r="O225" s="2"/>
       <c r="P225" s="6"/>
     </row>
@@ -9085,7 +10513,7 @@
       <c r="M226" s="2">
         <v>125</v>
       </c>
-      <c r="N226" s="2"/>
+      <c r="N226" s="11"/>
       <c r="O226" s="2"/>
       <c r="P226" s="6"/>
     </row>
@@ -9113,7 +10541,7 @@
       <c r="M227" s="2">
         <v>7</v>
       </c>
-      <c r="N227" s="2"/>
+      <c r="N227" s="11"/>
       <c r="O227" s="2"/>
       <c r="P227" s="6"/>
     </row>
@@ -9141,7 +10569,7 @@
       <c r="M228" s="2">
         <v>220</v>
       </c>
-      <c r="N228" s="2"/>
+      <c r="N228" s="11"/>
       <c r="O228" s="2"/>
       <c r="P228" s="6"/>
     </row>
@@ -9169,7 +10597,7 @@
       <c r="M229" s="2">
         <v>39</v>
       </c>
-      <c r="N229" s="2"/>
+      <c r="N229" s="11"/>
       <c r="O229" s="2"/>
       <c r="P229" s="6"/>
     </row>
@@ -9197,7 +10625,7 @@
       <c r="M230" s="2">
         <v>56</v>
       </c>
-      <c r="N230" s="2"/>
+      <c r="N230" s="11"/>
       <c r="O230" s="2"/>
       <c r="P230" s="6"/>
     </row>
@@ -9225,7 +10653,7 @@
       <c r="M231" s="2">
         <v>34</v>
       </c>
-      <c r="N231" s="2"/>
+      <c r="N231" s="11"/>
       <c r="O231" s="2"/>
       <c r="P231" s="6"/>
     </row>
@@ -9253,7 +10681,7 @@
       <c r="M232" s="2">
         <v>200</v>
       </c>
-      <c r="N232" s="2"/>
+      <c r="N232" s="11"/>
       <c r="O232" s="2"/>
       <c r="P232" s="6"/>
     </row>
@@ -9297,7 +10725,7 @@
       <c r="M233" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N233" s="3" t="s">
+      <c r="N233" s="20" t="s">
         <v>13</v>
       </c>
       <c r="O233" s="3" t="s">
@@ -9331,7 +10759,7 @@
       <c r="M234" s="2">
         <v>149</v>
       </c>
-      <c r="N234" s="2"/>
+      <c r="N234" s="11"/>
       <c r="O234" s="2"/>
       <c r="P234" s="6"/>
     </row>
@@ -9359,7 +10787,7 @@
       <c r="M235" s="2">
         <v>303</v>
       </c>
-      <c r="N235" s="2"/>
+      <c r="N235" s="11"/>
       <c r="O235" s="2"/>
       <c r="P235" s="6"/>
     </row>
@@ -9387,7 +10815,7 @@
       <c r="M236" s="2">
         <v>181</v>
       </c>
-      <c r="N236" s="2"/>
+      <c r="N236" s="11"/>
       <c r="O236" s="2"/>
       <c r="P236" s="6"/>
     </row>
@@ -9415,7 +10843,7 @@
       <c r="M237" s="2">
         <v>141</v>
       </c>
-      <c r="N237" s="2"/>
+      <c r="N237" s="11"/>
       <c r="O237" s="2"/>
       <c r="P237" s="6"/>
     </row>
@@ -9443,7 +10871,7 @@
       <c r="M238" s="2">
         <v>172</v>
       </c>
-      <c r="N238" s="2"/>
+      <c r="N238" s="11"/>
       <c r="O238" s="2"/>
       <c r="P238" s="6"/>
     </row>
@@ -9471,7 +10899,7 @@
       <c r="M239" s="2">
         <v>41</v>
       </c>
-      <c r="N239" s="2"/>
+      <c r="N239" s="11"/>
       <c r="O239" s="2"/>
       <c r="P239" s="6"/>
     </row>
@@ -9499,7 +10927,7 @@
       <c r="M240" s="2">
         <v>392</v>
       </c>
-      <c r="N240" s="2"/>
+      <c r="N240" s="11"/>
       <c r="O240" s="2"/>
       <c r="P240" s="6"/>
     </row>
@@ -9527,7 +10955,7 @@
       <c r="M241" s="2">
         <v>269</v>
       </c>
-      <c r="N241" s="2"/>
+      <c r="N241" s="11"/>
       <c r="O241" s="2"/>
       <c r="P241" s="6"/>
     </row>
@@ -9555,7 +10983,7 @@
       <c r="M242" s="2">
         <v>232</v>
       </c>
-      <c r="N242" s="2"/>
+      <c r="N242" s="11"/>
       <c r="O242" s="2"/>
       <c r="P242" s="6"/>
     </row>
@@ -9583,7 +11011,7 @@
       <c r="M243" s="2">
         <v>356</v>
       </c>
-      <c r="N243" s="2"/>
+      <c r="N243" s="11"/>
       <c r="O243" s="2"/>
       <c r="P243" s="6"/>
     </row>
@@ -9611,7 +11039,7 @@
       <c r="M244" s="2">
         <v>331</v>
       </c>
-      <c r="N244" s="2"/>
+      <c r="N244" s="11"/>
       <c r="O244" s="2"/>
       <c r="P244" s="6"/>
     </row>
@@ -9639,7 +11067,7 @@
       <c r="M245" s="2">
         <v>154</v>
       </c>
-      <c r="N245" s="2"/>
+      <c r="N245" s="11"/>
       <c r="O245" s="2"/>
       <c r="P245" s="6"/>
     </row>
@@ -9667,7 +11095,7 @@
       <c r="M246" s="2">
         <v>237</v>
       </c>
-      <c r="N246" s="2"/>
+      <c r="N246" s="11"/>
       <c r="O246" s="2"/>
       <c r="P246" s="6"/>
     </row>
@@ -9695,7 +11123,7 @@
       <c r="M247" s="2">
         <v>354</v>
       </c>
-      <c r="N247" s="2"/>
+      <c r="N247" s="11"/>
       <c r="O247" s="2"/>
       <c r="P247" s="6"/>
     </row>
@@ -9723,7 +11151,7 @@
       <c r="M248" s="2">
         <v>33</v>
       </c>
-      <c r="N248" s="2"/>
+      <c r="N248" s="11"/>
       <c r="O248" s="2"/>
       <c r="P248" s="6"/>
     </row>
@@ -9751,7 +11179,7 @@
       <c r="M249" s="2">
         <v>389</v>
       </c>
-      <c r="N249" s="2"/>
+      <c r="N249" s="11"/>
       <c r="O249" s="2"/>
       <c r="P249" s="6"/>
     </row>
@@ -9779,7 +11207,7 @@
       <c r="M250" s="2">
         <v>106</v>
       </c>
-      <c r="N250" s="2"/>
+      <c r="N250" s="11"/>
       <c r="O250" s="2"/>
       <c r="P250" s="6"/>
     </row>
@@ -9807,7 +11235,7 @@
       <c r="M251" s="2">
         <v>228</v>
       </c>
-      <c r="N251" s="2"/>
+      <c r="N251" s="11"/>
       <c r="O251" s="2"/>
       <c r="P251" s="6"/>
     </row>
@@ -9835,7 +11263,7 @@
       <c r="M252" s="2">
         <v>173</v>
       </c>
-      <c r="N252" s="2"/>
+      <c r="N252" s="11"/>
       <c r="O252" s="2"/>
       <c r="P252" s="6"/>
     </row>
@@ -9863,7 +11291,7 @@
       <c r="M253" s="2">
         <v>275</v>
       </c>
-      <c r="N253" s="2"/>
+      <c r="N253" s="11"/>
       <c r="O253" s="2"/>
       <c r="P253" s="6"/>
     </row>
@@ -9891,7 +11319,7 @@
       <c r="M254" s="2">
         <v>116</v>
       </c>
-      <c r="N254" s="2"/>
+      <c r="N254" s="11"/>
       <c r="O254" s="2"/>
       <c r="P254" s="6"/>
     </row>
@@ -9919,7 +11347,7 @@
       <c r="M255" s="2">
         <v>168</v>
       </c>
-      <c r="N255" s="2"/>
+      <c r="N255" s="11"/>
       <c r="O255" s="2"/>
       <c r="P255" s="6"/>
     </row>
@@ -9947,7 +11375,7 @@
       <c r="M256" s="2">
         <v>263</v>
       </c>
-      <c r="N256" s="2"/>
+      <c r="N256" s="11"/>
       <c r="O256" s="2"/>
       <c r="P256" s="6"/>
     </row>
@@ -9975,7 +11403,7 @@
       <c r="M257" s="2">
         <v>371</v>
       </c>
-      <c r="N257" s="2"/>
+      <c r="N257" s="11"/>
       <c r="O257" s="2"/>
       <c r="P257" s="6"/>
     </row>
@@ -10003,7 +11431,7 @@
       <c r="M258" s="2">
         <v>62</v>
       </c>
-      <c r="N258" s="2"/>
+      <c r="N258" s="11"/>
       <c r="O258" s="2"/>
       <c r="P258" s="6"/>
     </row>
@@ -10031,7 +11459,7 @@
       <c r="M259" s="2">
         <v>294</v>
       </c>
-      <c r="N259" s="2"/>
+      <c r="N259" s="11"/>
       <c r="O259" s="2"/>
       <c r="P259" s="6"/>
     </row>
@@ -10059,7 +11487,7 @@
       <c r="M260" s="2">
         <v>150</v>
       </c>
-      <c r="N260" s="2"/>
+      <c r="N260" s="11"/>
       <c r="O260" s="2"/>
       <c r="P260" s="6"/>
     </row>
@@ -10087,7 +11515,7 @@
       <c r="M261" s="2">
         <v>166</v>
       </c>
-      <c r="N261" s="2"/>
+      <c r="N261" s="11"/>
       <c r="O261" s="2"/>
       <c r="P261" s="6"/>
     </row>
@@ -10115,7 +11543,7 @@
       <c r="M262" s="2">
         <v>346</v>
       </c>
-      <c r="N262" s="2"/>
+      <c r="N262" s="11"/>
       <c r="O262" s="2"/>
       <c r="P262" s="6"/>
     </row>
@@ -10143,7 +11571,7 @@
       <c r="M263" s="2">
         <v>258</v>
       </c>
-      <c r="N263" s="2"/>
+      <c r="N263" s="11"/>
       <c r="O263" s="2"/>
       <c r="P263" s="6"/>
     </row>
@@ -10171,7 +11599,7 @@
       <c r="M264" s="2">
         <v>239</v>
       </c>
-      <c r="N264" s="2"/>
+      <c r="N264" s="11"/>
       <c r="O264" s="2"/>
       <c r="P264" s="6"/>
     </row>
@@ -10199,7 +11627,7 @@
       <c r="M265" s="2">
         <v>70</v>
       </c>
-      <c r="N265" s="2"/>
+      <c r="N265" s="11"/>
       <c r="O265" s="2"/>
       <c r="P265" s="6"/>
     </row>
@@ -10243,7 +11671,7 @@
       <c r="M266" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N266" s="3" t="s">
+      <c r="N266" s="20" t="s">
         <v>13</v>
       </c>
       <c r="O266" s="3" t="s">
@@ -10277,7 +11705,7 @@
       <c r="M267" s="2">
         <v>326</v>
       </c>
-      <c r="N267" s="2"/>
+      <c r="N267" s="11"/>
       <c r="O267" s="2"/>
       <c r="P267" s="6"/>
     </row>
@@ -10305,7 +11733,7 @@
       <c r="M268" s="2">
         <v>315</v>
       </c>
-      <c r="N268" s="2"/>
+      <c r="N268" s="11"/>
       <c r="O268" s="2"/>
       <c r="P268" s="6"/>
     </row>
@@ -10333,7 +11761,7 @@
       <c r="M269" s="2">
         <v>216</v>
       </c>
-      <c r="N269" s="2"/>
+      <c r="N269" s="11"/>
       <c r="O269" s="2"/>
       <c r="P269" s="6"/>
     </row>
@@ -10361,7 +11789,7 @@
       <c r="M270" s="2">
         <v>194</v>
       </c>
-      <c r="N270" s="2"/>
+      <c r="N270" s="11"/>
       <c r="O270" s="2"/>
       <c r="P270" s="6"/>
     </row>
@@ -10389,7 +11817,7 @@
       <c r="M271" s="2">
         <v>283</v>
       </c>
-      <c r="N271" s="2"/>
+      <c r="N271" s="11"/>
       <c r="O271" s="2"/>
       <c r="P271" s="6"/>
     </row>
@@ -10417,7 +11845,7 @@
       <c r="M272" s="2">
         <v>12</v>
       </c>
-      <c r="N272" s="2"/>
+      <c r="N272" s="11"/>
       <c r="O272" s="2"/>
       <c r="P272" s="6"/>
     </row>
@@ -10445,7 +11873,7 @@
       <c r="M273" s="2">
         <v>214</v>
       </c>
-      <c r="N273" s="2"/>
+      <c r="N273" s="11"/>
       <c r="O273" s="2"/>
       <c r="P273" s="6"/>
     </row>
@@ -10473,7 +11901,7 @@
       <c r="M274" s="2">
         <v>391</v>
       </c>
-      <c r="N274" s="2"/>
+      <c r="N274" s="11"/>
       <c r="O274" s="2"/>
       <c r="P274" s="6"/>
     </row>
@@ -10491,7 +11919,7 @@
       <c r="K275" s="2"/>
       <c r="L275" s="2"/>
       <c r="M275" s="2"/>
-      <c r="N275" s="2"/>
+      <c r="N275" s="11"/>
       <c r="O275" s="2"/>
       <c r="P275" s="6"/>
     </row>
@@ -10509,7 +11937,7 @@
       <c r="K276" s="2"/>
       <c r="L276" s="2"/>
       <c r="M276" s="2"/>
-      <c r="N276" s="2"/>
+      <c r="N276" s="11"/>
       <c r="O276" s="2"/>
       <c r="P276" s="6"/>
     </row>
@@ -10527,7 +11955,7 @@
       <c r="K277" s="2"/>
       <c r="L277" s="2"/>
       <c r="M277" s="2"/>
-      <c r="N277" s="2"/>
+      <c r="N277" s="11"/>
       <c r="O277" s="2"/>
       <c r="P277" s="6"/>
     </row>
@@ -10545,7 +11973,7 @@
       <c r="K278" s="2"/>
       <c r="L278" s="2"/>
       <c r="M278" s="2"/>
-      <c r="N278" s="2"/>
+      <c r="N278" s="11"/>
       <c r="O278" s="2"/>
       <c r="P278" s="6"/>
     </row>
@@ -10563,7 +11991,7 @@
       <c r="K279" s="2"/>
       <c r="L279" s="2"/>
       <c r="M279" s="2"/>
-      <c r="N279" s="2"/>
+      <c r="N279" s="11"/>
       <c r="O279" s="2"/>
       <c r="P279" s="6"/>
     </row>
@@ -10581,7 +12009,7 @@
       <c r="K280" s="2"/>
       <c r="L280" s="2"/>
       <c r="M280" s="2"/>
-      <c r="N280" s="2"/>
+      <c r="N280" s="11"/>
       <c r="O280" s="2"/>
       <c r="P280" s="6"/>
     </row>
@@ -10599,7 +12027,7 @@
       <c r="K281" s="2"/>
       <c r="L281" s="2"/>
       <c r="M281" s="2"/>
-      <c r="N281" s="2"/>
+      <c r="N281" s="11"/>
       <c r="O281" s="2"/>
       <c r="P281" s="6"/>
     </row>
@@ -10617,7 +12045,7 @@
       <c r="K282" s="2"/>
       <c r="L282" s="2"/>
       <c r="M282" s="2"/>
-      <c r="N282" s="2"/>
+      <c r="N282" s="11"/>
       <c r="O282" s="2"/>
       <c r="P282" s="6"/>
     </row>
@@ -10635,7 +12063,7 @@
       <c r="K283" s="2"/>
       <c r="L283" s="2"/>
       <c r="M283" s="2"/>
-      <c r="N283" s="2"/>
+      <c r="N283" s="11"/>
       <c r="O283" s="2"/>
       <c r="P283" s="6"/>
     </row>
@@ -10653,7 +12081,7 @@
       <c r="K284" s="2"/>
       <c r="L284" s="2"/>
       <c r="M284" s="2"/>
-      <c r="N284" s="2"/>
+      <c r="N284" s="11"/>
       <c r="O284" s="2"/>
       <c r="P284" s="6"/>
     </row>
@@ -10671,7 +12099,7 @@
       <c r="K285" s="2"/>
       <c r="L285" s="2"/>
       <c r="M285" s="2"/>
-      <c r="N285" s="2"/>
+      <c r="N285" s="11"/>
       <c r="O285" s="2"/>
       <c r="P285" s="6"/>
     </row>
@@ -10689,7 +12117,7 @@
       <c r="K286" s="2"/>
       <c r="L286" s="2"/>
       <c r="M286" s="2"/>
-      <c r="N286" s="2"/>
+      <c r="N286" s="11"/>
       <c r="O286" s="2"/>
       <c r="P286" s="6"/>
     </row>
@@ -10707,7 +12135,7 @@
       <c r="K287" s="2"/>
       <c r="L287" s="2"/>
       <c r="M287" s="2"/>
-      <c r="N287" s="2"/>
+      <c r="N287" s="11"/>
       <c r="O287" s="2"/>
       <c r="P287" s="6"/>
     </row>
@@ -10725,7 +12153,7 @@
       <c r="K288" s="2"/>
       <c r="L288" s="2"/>
       <c r="M288" s="2"/>
-      <c r="N288" s="2"/>
+      <c r="N288" s="11"/>
       <c r="O288" s="2"/>
       <c r="P288" s="6"/>
     </row>
@@ -10743,7 +12171,7 @@
       <c r="K289" s="2"/>
       <c r="L289" s="2"/>
       <c r="M289" s="2"/>
-      <c r="N289" s="2"/>
+      <c r="N289" s="11"/>
       <c r="O289" s="2"/>
       <c r="P289" s="6"/>
     </row>
@@ -10761,7 +12189,7 @@
       <c r="K290" s="2"/>
       <c r="L290" s="2"/>
       <c r="M290" s="2"/>
-      <c r="N290" s="2"/>
+      <c r="N290" s="11"/>
       <c r="O290" s="2"/>
       <c r="P290" s="6"/>
     </row>
@@ -10779,7 +12207,7 @@
       <c r="K291" s="2"/>
       <c r="L291" s="2"/>
       <c r="M291" s="2"/>
-      <c r="N291" s="2"/>
+      <c r="N291" s="11"/>
       <c r="O291" s="2"/>
       <c r="P291" s="6"/>
     </row>
@@ -10797,7 +12225,7 @@
       <c r="K292" s="2"/>
       <c r="L292" s="2"/>
       <c r="M292" s="2"/>
-      <c r="N292" s="2"/>
+      <c r="N292" s="11"/>
       <c r="O292" s="2"/>
       <c r="P292" s="6"/>
     </row>
@@ -10815,7 +12243,7 @@
       <c r="K293" s="2"/>
       <c r="L293" s="2"/>
       <c r="M293" s="2"/>
-      <c r="N293" s="2"/>
+      <c r="N293" s="11"/>
       <c r="O293" s="2"/>
       <c r="P293" s="6"/>
     </row>
@@ -10833,7 +12261,7 @@
       <c r="K294" s="2"/>
       <c r="L294" s="2"/>
       <c r="M294" s="2"/>
-      <c r="N294" s="2"/>
+      <c r="N294" s="11"/>
       <c r="O294" s="2"/>
       <c r="P294" s="6"/>
     </row>
@@ -10851,7 +12279,7 @@
       <c r="K295" s="2"/>
       <c r="L295" s="2"/>
       <c r="M295" s="2"/>
-      <c r="N295" s="2"/>
+      <c r="N295" s="11"/>
       <c r="O295" s="2"/>
       <c r="P295" s="6"/>
     </row>
@@ -10869,7 +12297,7 @@
       <c r="K296" s="2"/>
       <c r="L296" s="2"/>
       <c r="M296" s="2"/>
-      <c r="N296" s="2"/>
+      <c r="N296" s="11"/>
       <c r="O296" s="2"/>
       <c r="P296" s="6"/>
     </row>
@@ -10887,7 +12315,7 @@
       <c r="K297" s="2"/>
       <c r="L297" s="2"/>
       <c r="M297" s="2"/>
-      <c r="N297" s="2"/>
+      <c r="N297" s="11"/>
       <c r="O297" s="2"/>
       <c r="P297" s="6"/>
     </row>
@@ -10905,7 +12333,7 @@
       <c r="K298" s="2"/>
       <c r="L298" s="2"/>
       <c r="M298" s="2"/>
-      <c r="N298" s="2"/>
+      <c r="N298" s="11"/>
       <c r="O298" s="2"/>
       <c r="P298" s="6"/>
     </row>
